--- a/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
@@ -298,7 +298,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>825.0539956803455</v>
+        <v>3999.999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -336,7 +336,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>25070.404491806272</v>
+        <v>27512.318491806276</v>
       </c>
     </row>
     <row r="7">
@@ -347,7 +347,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>245856.68220957194</v>
+        <v>269803.6781376719</v>
       </c>
     </row>
     <row r="8">
@@ -358,7 +358,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>24690.447825139614</v>
+        <v>23673.118491806283</v>
       </c>
     </row>
     <row r="9">
@@ -369,7 +369,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>242130.58016440534</v>
+        <v>232153.98745767202</v>
       </c>
     </row>
     <row r="10">
@@ -380,7 +380,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>22577.803042625652</v>
+        <v>21662.206642625653</v>
       </c>
     </row>
     <row r="11">
@@ -391,7 +391,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>221412.6122079648</v>
+        <v>212433.67877190482</v>
       </c>
     </row>
     <row r="12">
@@ -468,7 +468,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>20131.956045198745</v>
+        <v>19114.626711865414</v>
       </c>
     </row>
     <row r="19">
@@ -479,7 +479,7 @@
         <v>12</v>
       </c>
       <c r="C19" t="n">
-        <v>197427.04675064824</v>
+        <v>187450.4540439149</v>
       </c>
     </row>
     <row r="20">
@@ -490,7 +490,7 @@
         <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>19735.956045198745</v>
+        <v>18718.626711865414</v>
       </c>
     </row>
     <row r="21">
@@ -501,7 +501,7 @@
         <v>12</v>
       </c>
       <c r="C21" t="n">
-        <v>193543.61335064823</v>
+        <v>183567.02064391493</v>
       </c>
     </row>
     <row r="22">
@@ -512,7 +512,7 @@
         <v>8</v>
       </c>
       <c r="C22" t="n">
-        <v>13003.956045198749</v>
+        <v>11986.626711865418</v>
       </c>
     </row>
     <row r="23">
@@ -523,7 +523,7 @@
         <v>12</v>
       </c>
       <c r="C23" t="n">
-        <v>127525.24555064828</v>
+        <v>117548.65284391496</v>
       </c>
     </row>
     <row r="24">
@@ -534,7 +534,7 @@
         <v>8</v>
       </c>
       <c r="C24" t="n">
-        <v>12774.412399698747</v>
+        <v>10757.083066365416</v>
       </c>
     </row>
     <row r="25">
@@ -545,7 +545,7 @@
         <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>125274.19135950568</v>
+        <v>105490.94865277238</v>
       </c>
     </row>
     <row r="26">
@@ -556,7 +556,7 @@
         <v>8</v>
       </c>
       <c r="C26" t="n">
-        <v>12188.456399698749</v>
+        <v>10739.123066365419</v>
       </c>
     </row>
     <row r="27">
@@ -567,7 +567,7 @@
         <v>12</v>
       </c>
       <c r="C27" t="n">
-        <v>119527.92595210572</v>
+        <v>105314.82121877241</v>
       </c>
     </row>
     <row r="28">
@@ -578,7 +578,7 @@
         <v>8</v>
       </c>
       <c r="C28" t="n">
-        <v>585.9559999999999</v>
+        <v>1017.96</v>
       </c>
     </row>
     <row r="29">
@@ -589,7 +589,7 @@
         <v>12</v>
       </c>
       <c r="C29" t="n">
-        <v>5746.265407399998</v>
+        <v>9982.777433999996</v>
       </c>
     </row>
     <row r="30">
@@ -600,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="31">
@@ -611,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0</v>
+        <v>9806.649999999998</v>
       </c>
     </row>
     <row r="32">
@@ -622,7 +622,7 @@
         <v>8</v>
       </c>
       <c r="C32" t="n">
-        <v>13003.956045198749</v>
+        <v>11986.626711865418</v>
       </c>
     </row>
     <row r="33">
@@ -633,7 +633,7 @@
         <v>12</v>
       </c>
       <c r="C33" t="n">
-        <v>127525.24555064828</v>
+        <v>117548.65284391496</v>
       </c>
     </row>
   </sheetData>
@@ -703,10 +703,10 @@
         <v>42</v>
       </c>
       <c r="C6" t="n">
-        <v>3484.0</v>
+        <v>1863.0</v>
       </c>
       <c r="D6" t="n">
-        <v>4.2926420403520495</v>
+        <v>-44.23157516613781</v>
       </c>
     </row>
     <row r="7">
@@ -717,10 +717,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>2460.0</v>
+        <v>1876.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-26.360534035801937</v>
+        <v>-43.84242351673351</v>
       </c>
     </row>
     <row r="8">
@@ -731,10 +731,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>3024.0</v>
+        <v>3217.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-9.47733940010775</v>
+        <v>-3.6999341435670083</v>
       </c>
     </row>
     <row r="9">
@@ -745,10 +745,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>2833.0</v>
+        <v>1987.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-15.194875172124753</v>
+        <v>-40.51966712566604</v>
       </c>
     </row>
     <row r="10">
@@ -787,7 +787,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>2998.333333333333</v>
+        <v>1863.0</v>
       </c>
     </row>
   </sheetData>
@@ -825,7 +825,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>2006.3578899999998</v>
+        <v>22000.0</v>
       </c>
     </row>
     <row r="3">
@@ -868,10 +868,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>2409.0</v>
+        <v>2454.0</v>
       </c>
       <c r="D7" t="n">
-        <v>20.068309448021772</v>
+        <v>-88.84545454545454</v>
       </c>
     </row>
     <row r="8">
@@ -882,10 +882,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>1793.0</v>
+        <v>1921.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-10.634089314942699</v>
+        <v>-91.26818181818182</v>
       </c>
     </row>
     <row r="9">
@@ -896,10 +896,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>2117.0</v>
+        <v>1641.0</v>
       </c>
       <c r="D9" t="n">
-        <v>5.514574969473679</v>
+        <v>-92.5409090909091</v>
       </c>
     </row>
     <row r="10">
@@ -913,7 +913,7 @@
         <v>2299.0</v>
       </c>
       <c r="D10" t="n">
-        <v>14.585738240349546</v>
+        <v>-89.55</v>
       </c>
     </row>
     <row r="11">
@@ -924,10 +924,10 @@
         <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>2493.0</v>
+        <v>2413.0</v>
       </c>
       <c r="D11" t="n">
-        <v>24.25500018842602</v>
+        <v>-89.03181818181818</v>
       </c>
     </row>
     <row r="12">
@@ -938,10 +938,10 @@
         <v>42</v>
       </c>
       <c r="C12" t="n">
-        <v>2235.0</v>
+        <v>2271.0</v>
       </c>
       <c r="D12" t="n">
-        <v>11.395878628612978</v>
+        <v>-89.67727272727272</v>
       </c>
     </row>
     <row r="13">
@@ -952,7 +952,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>2110.9999999999995</v>
+        <v>1641.0</v>
       </c>
     </row>
   </sheetData>
@@ -990,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>300.95368349999995</v>
+        <v>3299.9999999999995</v>
       </c>
     </row>
     <row r="3">
@@ -1036,7 +1036,7 @@
         <v>258.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-14.272522934579703</v>
+        <v>-92.18181818181817</v>
       </c>
     </row>
     <row r="8">
@@ -1047,10 +1047,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>149.0</v>
+        <v>150.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-50.49072060950533</v>
+        <v>-95.45454545454544</v>
       </c>
     </row>
     <row r="9">
@@ -1061,10 +1061,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>133.0</v>
+        <v>144.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-55.807153295732945</v>
+        <v>-95.63636363636363</v>
       </c>
     </row>
     <row r="10">
@@ -1075,7 +1075,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>257.99999999999994</v>
+        <v>258.0</v>
       </c>
     </row>
   </sheetData>
@@ -1113,7 +1113,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>300.95368349999995</v>
+        <v>3299.9999999999995</v>
       </c>
     </row>
     <row r="3">
@@ -1159,7 +1159,7 @@
         <v>330.0</v>
       </c>
       <c r="D7" t="n">
-        <v>9.651424153444566</v>
+        <v>-89.99999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -1170,10 +1170,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>228.0</v>
+        <v>232.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-24.24083422125648</v>
+        <v>-92.96969696969695</v>
       </c>
     </row>
     <row r="9">
@@ -1184,7 +1184,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>329.99999999999994</v>
+        <v>330.0</v>
       </c>
     </row>
   </sheetData>
@@ -1233,10 +1233,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>645.9999999999998</v>
+        <v>712.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-21.10405471421592</v>
+        <v>-13.043478260869545</v>
       </c>
     </row>
     <row r="4">
@@ -1292,10 +1292,10 @@
         <v>42</v>
       </c>
       <c r="C10" t="n">
-        <v>540.0</v>
+        <v>356.0</v>
       </c>
       <c r="D10" t="n">
-        <v>31.90034196384954</v>
+        <v>-13.043478260869561</v>
       </c>
     </row>
     <row r="11">
@@ -1320,7 +1320,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>323.0</v>
+        <v>356.0</v>
       </c>
     </row>
     <row r="13">
@@ -1366,10 +1366,10 @@
         <v>42</v>
       </c>
       <c r="C17" t="n">
-        <v>540.0</v>
+        <v>356.0</v>
       </c>
       <c r="D17" t="n">
-        <v>31.90034196384954</v>
+        <v>-13.043478260869561</v>
       </c>
     </row>
     <row r="18">
@@ -1394,7 +1394,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>323.0</v>
+        <v>356.0</v>
       </c>
     </row>
     <row r="20">
@@ -1451,7 +1451,7 @@
         <v>1447.8668450399996</v>
       </c>
       <c r="D3" t="n">
-        <v>-21.10405471421592</v>
+        <v>-13.043478260869545</v>
       </c>
     </row>
     <row r="4">
@@ -1579,7 +1579,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>987.8878901438338</v>
+        <v>1057.4352685771673</v>
       </c>
     </row>
     <row r="4">
@@ -1600,10 +1600,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>821.0</v>
+        <v>911.0</v>
       </c>
       <c r="D6" t="n">
-        <v>21.48564664101806</v>
+        <v>34.80319621189702</v>
       </c>
     </row>
     <row r="7">
@@ -1614,10 +1614,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>1003.0</v>
+        <v>1135.0</v>
       </c>
       <c r="D7" t="n">
-        <v>48.41669132879551</v>
+        <v>67.94909736608466</v>
       </c>
     </row>
     <row r="8">
@@ -1628,10 +1628,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>1135.0</v>
+        <v>1281.0</v>
       </c>
       <c r="D8" t="n">
-        <v>67.94909736608466</v>
+        <v>89.55312222551052</v>
       </c>
     </row>
     <row r="9">
@@ -1642,10 +1642,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>988.0</v>
+        <v>1057.0</v>
       </c>
       <c r="D9" t="n">
-        <v>46.19709973364902</v>
+        <v>56.407221071322894</v>
       </c>
     </row>
     <row r="10">
@@ -1656,7 +1656,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>821.0</v>
+        <v>911.0</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="65">
   <si>
     <t>Description</t>
   </si>
@@ -55,81 +55,81 @@
     <t>Maximum Take-Off Mass</t>
   </si>
   <si>
+    <t>Take-Off Mass</t>
+  </si>
+  <si>
+    <t>Maximum Landing Mass</t>
+  </si>
+  <si>
+    <t>Maximum Passengers Mass</t>
+  </si>
+  <si>
+    <t>Fuel Mass</t>
+  </si>
+  <si>
+    <t>Crew Mass</t>
+  </si>
+  <si>
+    <t>Maximum Zero Fuel Mass</t>
+  </si>
+  <si>
+    <t>Zero Fuel Mass</t>
+  </si>
+  <si>
+    <t>Operating Empty Mass</t>
+  </si>
+  <si>
+    <t>Empty Mass</t>
+  </si>
+  <si>
+    <t>Manufacturer Empty Mass</t>
+  </si>
+  <si>
+    <t>Operating Item Mass</t>
+  </si>
+  <si>
+    <t>Trapped Fuel Oil Mass</t>
+  </si>
+  <si>
     <t>Maximum Take-Off Weight</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>Take-Off Mass</t>
-  </si>
-  <si>
     <t>Take-Off Weight</t>
   </si>
   <si>
-    <t>Maximum Landing Mass</t>
-  </si>
-  <si>
     <t>Maximum Landing Weight</t>
   </si>
   <si>
-    <t>Maximum Passengers Mass</t>
-  </si>
-  <si>
     <t>Maximum Passengers Weight</t>
   </si>
   <si>
-    <t>Fuel Mass</t>
-  </si>
-  <si>
     <t>Fuel Weight</t>
   </si>
   <si>
-    <t>Crew Mass</t>
-  </si>
-  <si>
     <t>Crew Weight</t>
   </si>
   <si>
-    <t>Maximum Zero Fuel Mass</t>
-  </si>
-  <si>
     <t>Maximum Zero Fuel Weight</t>
   </si>
   <si>
-    <t>Zero Fuel Mass</t>
-  </si>
-  <si>
     <t>Zero Fuel Weight</t>
   </si>
   <si>
-    <t>Operating Empty Mass</t>
-  </si>
-  <si>
     <t>Operating Empty Weight</t>
   </si>
   <si>
-    <t>Empty Mass</t>
-  </si>
-  <si>
     <t>Empty Weight</t>
   </si>
   <si>
-    <t>Manufacturer Empty Mass</t>
-  </si>
-  <si>
     <t>Manufacturer Empty Weight</t>
   </si>
   <si>
-    <t>Operating Item Mass</t>
-  </si>
-  <si>
     <t>Operating Item Weight</t>
   </si>
   <si>
-    <t>Trapped Fuel Oil Mass</t>
-  </si>
-  <si>
     <t>Trapped Fuel Oil Weight</t>
   </si>
   <si>
@@ -196,19 +196,22 @@
     <t>NACELLE 2</t>
   </si>
   <si>
+    <t>Total Dry Mass</t>
+  </si>
+  <si>
     <t>WEIGHT ESTIMATION METHODS COMPARISON FOR EACH ENGINE</t>
   </si>
   <si>
     <t>ENGINE 1</t>
   </si>
   <si>
+    <t>Dry Mass</t>
+  </si>
+  <si>
     <t>Total Mass</t>
   </si>
   <si>
     <t>ENGINE 2</t>
-  </si>
-  <si>
-    <t>Overall Mass</t>
   </si>
   <si>
     <t>STANFORD</t>
@@ -298,7 +301,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>3999.999999999999</v>
+        <v>1598.272</v>
       </c>
     </row>
     <row r="3">
@@ -336,7 +339,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>27512.318491806276</v>
+        <v>23922.944009123148</v>
       </c>
     </row>
     <row r="7">
@@ -344,296 +347,279 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>269803.6781376719</v>
+        <v>23369.110675789823</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>23673.118491806283</v>
+        <v>21388.59960821084</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>232153.98745767202</v>
+        <v>7128.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>21662.206642625653</v>
+        <v>4954.49177994087</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>212433.67877190482</v>
+        <v>229.54364550000003</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>7128.0</v>
+        <v>18810.61889584896</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>69901.80119999999</v>
+        <v>18414.61889584896</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>4954.49177994087</v>
+        <v>11682.618895848958</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>48586.96681375712</v>
+        <v>11183.075250348957</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>229.54364550000003</v>
+        <v>10867.11925034896</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>2251.0541911425744</v>
+        <v>585.9559999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>19114.626711865414</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="n">
-        <v>187450.4540439149</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>18718.626711865414</v>
+        <v>234603.93886706745</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>183567.02064391493</v>
+        <v>229172.68920873426</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C22" t="n">
-        <v>11986.626711865418</v>
+        <v>209750.5103478608</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C23" t="n">
-        <v>117548.65284391496</v>
+        <v>69901.80119999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C24" t="n">
-        <v>10757.083066365416</v>
+        <v>48586.96681375712</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>105490.94865277238</v>
+        <v>2251.0541911425744</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>10739.123066365419</v>
+        <v>184469.15579497712</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>105314.82121877241</v>
+        <v>180585.7223949771</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C28" t="n">
-        <v>1017.96</v>
+        <v>114567.35459497717</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C29" t="n">
-        <v>9982.777433999996</v>
+        <v>109668.50490383458</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C30" t="n">
-        <v>1000.0</v>
+        <v>106570.03499643461</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C31" t="n">
-        <v>9806.649999999998</v>
+        <v>5746.265407399998</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C32" t="n">
-        <v>11986.626711865418</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" t="n">
-        <v>117548.65284391496</v>
+        <v>2647.7954999999993</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +657,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>3340.5999999999995</v>
+        <v>5004.699999999999</v>
       </c>
     </row>
     <row r="3">
@@ -703,10 +689,10 @@
         <v>42</v>
       </c>
       <c r="C6" t="n">
-        <v>1863.0</v>
+        <v>1092.0</v>
       </c>
       <c r="D6" t="n">
-        <v>-44.23157516613781</v>
+        <v>-78.18051032029891</v>
       </c>
     </row>
     <row r="7">
@@ -717,10 +703,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>1876.0</v>
+        <v>1365.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-43.84242351673351</v>
+        <v>-72.72563790037364</v>
       </c>
     </row>
     <row r="8">
@@ -731,10 +717,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>3217.0</v>
+        <v>2957.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.6999341435670083</v>
+        <v>-40.915539392970594</v>
       </c>
     </row>
     <row r="9">
@@ -745,10 +731,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>1987.0</v>
+        <v>1131.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-40.51966712566604</v>
+        <v>-77.40124283173816</v>
       </c>
     </row>
     <row r="10">
@@ -762,7 +748,7 @@
         <v>2491.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-25.432557025683995</v>
+        <v>-50.226786820388824</v>
       </c>
     </row>
     <row r="11">
@@ -776,7 +762,7 @@
         <v>3698.0</v>
       </c>
       <c r="D11" t="n">
-        <v>10.698676884392045</v>
+        <v>-26.109457110316285</v>
       </c>
     </row>
     <row r="12">
@@ -787,7 +773,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>1863.0</v>
+        <v>2122.333333333333</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-57.593195729347734</v>
       </c>
     </row>
   </sheetData>
@@ -825,7 +814,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>22000.0</v>
+        <v>3209.0999999999995</v>
       </c>
     </row>
     <row r="3">
@@ -868,10 +857,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>2454.0</v>
+        <v>2346.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-88.84545454545454</v>
+        <v>-26.8953912311863</v>
       </c>
     </row>
     <row r="8">
@@ -882,10 +871,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>1921.0</v>
+        <v>1748.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-91.26818181818182</v>
+        <v>-45.52989934872705</v>
       </c>
     </row>
     <row r="9">
@@ -896,10 +885,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>1641.0</v>
+        <v>1048.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-92.5409090909091</v>
+        <v>-67.34286871708578</v>
       </c>
     </row>
     <row r="10">
@@ -913,7 +902,7 @@
         <v>2299.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-89.55</v>
+        <v>-28.35997631734753</v>
       </c>
     </row>
     <row r="11">
@@ -924,10 +913,10 @@
         <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>2413.0</v>
+        <v>2378.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-89.03181818181818</v>
+        <v>-25.898226917204187</v>
       </c>
     </row>
     <row r="12">
@@ -938,10 +927,10 @@
         <v>42</v>
       </c>
       <c r="C12" t="n">
-        <v>2271.0</v>
+        <v>2184.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-89.67727272727272</v>
+        <v>-31.94353557072075</v>
       </c>
     </row>
     <row r="13">
@@ -952,7 +941,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>1641.0</v>
+        <v>1714.7142857142858</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-46.56712830032451</v>
       </c>
     </row>
   </sheetData>
@@ -990,7 +982,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>3299.9999999999995</v>
+        <v>548.3</v>
       </c>
     </row>
     <row r="3">
@@ -1036,7 +1028,7 @@
         <v>258.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-92.18181818181817</v>
+        <v>-52.94546780959329</v>
       </c>
     </row>
     <row r="8">
@@ -1047,10 +1039,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>150.0</v>
+        <v>149.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-95.45454545454544</v>
+        <v>-72.82509575050155</v>
       </c>
     </row>
     <row r="9">
@@ -1061,10 +1053,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>144.0</v>
+        <v>130.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-95.63636363636363</v>
+        <v>-76.29035199708188</v>
       </c>
     </row>
     <row r="10">
@@ -1075,7 +1067,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>258.0</v>
+        <v>179.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-67.35363851905889</v>
       </c>
     </row>
   </sheetData>
@@ -1113,7 +1108,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>3299.9999999999995</v>
+        <v>452.69999999999993</v>
       </c>
     </row>
     <row r="3">
@@ -1159,7 +1154,7 @@
         <v>330.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-89.99999999999999</v>
+        <v>-27.104042412193493</v>
       </c>
     </row>
     <row r="8">
@@ -1170,10 +1165,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>232.0</v>
+        <v>227.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-92.96969696969695</v>
+        <v>-49.85641705323613</v>
       </c>
     </row>
     <row r="9">
@@ -1184,7 +1179,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>330.0</v>
+        <v>278.5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-38.48022973271481</v>
       </c>
     </row>
   </sheetData>
@@ -1222,7 +1220,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>818.7999999999997</v>
+        <v>1306.7999999999997</v>
       </c>
     </row>
     <row r="3">
@@ -1233,10 +1231,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>712.0</v>
+        <v>451.9999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>-13.043478260869545</v>
+        <v>-88.47056422813996</v>
       </c>
     </row>
     <row r="4">
@@ -1266,9 +1264,7 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="n">
-        <v>409.4</v>
-      </c>
+      <c r="C8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1281,7 +1277,7 @@
         <v>235.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-42.59892525647288</v>
+        <v>-64.0342822161004</v>
       </c>
     </row>
     <row r="10">
@@ -1292,10 +1288,10 @@
         <v>42</v>
       </c>
       <c r="C10" t="n">
-        <v>356.0</v>
+        <v>249.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-13.043478260869561</v>
+        <v>-61.891643709825516</v>
       </c>
     </row>
     <row r="11">
@@ -1309,7 +1305,7 @@
         <v>194.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-52.61358085002442</v>
+        <v>-70.30915212733393</v>
       </c>
     </row>
     <row r="12">
@@ -1320,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>356.0</v>
+        <v>226.0</v>
       </c>
     </row>
     <row r="13">
@@ -1340,9 +1336,7 @@
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" t="n">
-        <v>409.4</v>
-      </c>
+      <c r="C15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1355,7 +1349,7 @@
         <v>235.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-42.59892525647288</v>
+        <v>-64.0342822161004</v>
       </c>
     </row>
     <row r="17">
@@ -1366,10 +1360,10 @@
         <v>42</v>
       </c>
       <c r="C17" t="n">
-        <v>356.0</v>
+        <v>249.0</v>
       </c>
       <c r="D17" t="n">
-        <v>-13.043478260869561</v>
+        <v>-61.891643709825516</v>
       </c>
     </row>
     <row r="18">
@@ -1383,7 +1377,7 @@
         <v>194.0</v>
       </c>
       <c r="D18" t="n">
-        <v>-52.61358085002442</v>
+        <v>-70.30915212733393</v>
       </c>
     </row>
     <row r="19">
@@ -1394,7 +1388,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>356.0</v>
+        <v>226.0</v>
       </c>
     </row>
     <row r="20">
@@ -1425,13 +1419,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1450,9 +1441,6 @@
       <c r="C3" t="n">
         <v>1447.8668450399996</v>
       </c>
-      <c r="D3" t="n">
-        <v>-13.043478260869545</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1461,7 +1449,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -1471,12 +1459,12 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1487,7 +1475,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1503,12 +1491,12 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1519,7 +1507,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1568,95 +1556,87 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>675.8</v>
+        <v>2233.0999999999995</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1057.4352685771673</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>790.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-64.62316958488199</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>911.0</v>
+        <v>958.0</v>
       </c>
       <c r="D6" t="n">
-        <v>34.80319621189702</v>
+        <v>-57.099995521920185</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>1135.0</v>
+        <v>1086.0</v>
       </c>
       <c r="D7" t="n">
-        <v>67.94909736608466</v>
+        <v>-51.368053378711195</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>1281.0</v>
+        <v>941.0</v>
       </c>
       <c r="D8" t="n">
-        <v>89.55312222551052</v>
+        <v>-57.86126908781513</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>1057.0</v>
+        <v>943.75</v>
       </c>
       <c r="D9" t="n">
-        <v>56.407221071322894</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>911.0</v>
+        <v>-57.73812189333212</v>
       </c>
     </row>
   </sheetData>
@@ -1694,53 +1674,45 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>2118.0</v>
+        <v>1822.772</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2324.2562213254223</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2477.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>35.89192724048866</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>2324.0</v>
+        <v>2476.9547862613454</v>
       </c>
       <c r="D6" t="n">
-        <v>9.726156751652502</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2324.0</v>
+        <v>35.889446747116224</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
@@ -339,7 +339,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>23922.944009123148</v>
+        <v>24456.734485313624</v>
       </c>
     </row>
     <row r="7">
@@ -350,7 +350,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>23369.110675789823</v>
+        <v>23418.25353293268</v>
       </c>
     </row>
     <row r="8">
@@ -361,7 +361,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>21388.59960821084</v>
+        <v>21432.82817963941</v>
       </c>
     </row>
     <row r="9">
@@ -405,7 +405,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>18810.61889584896</v>
+        <v>18859.761752991813</v>
       </c>
     </row>
     <row r="13">
@@ -416,7 +416,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>18414.61889584896</v>
+        <v>18463.761752991813</v>
       </c>
     </row>
     <row r="14">
@@ -427,7 +427,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>11682.618895848958</v>
+        <v>11731.761752991813</v>
       </c>
     </row>
     <row r="15">
@@ -438,7 +438,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>11183.075250348957</v>
+        <v>10502.218107491812</v>
       </c>
     </row>
     <row r="16">
@@ -449,7 +449,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>10867.11925034896</v>
+        <v>10916.262107491817</v>
       </c>
     </row>
     <row r="17">
@@ -471,7 +471,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>270.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="19">
@@ -487,7 +487,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>234603.93886706745</v>
+        <v>239838.63524040082</v>
       </c>
     </row>
     <row r="21">
@@ -498,7 +498,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>229172.68920873426</v>
+        <v>229654.6160087342</v>
       </c>
     </row>
     <row r="22">
@@ -509,7 +509,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="n">
-        <v>209750.5103478608</v>
+        <v>210184.2444678608</v>
       </c>
     </row>
     <row r="23">
@@ -553,7 +553,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>184469.15579497712</v>
+        <v>184951.0825949771</v>
       </c>
     </row>
     <row r="27">
@@ -564,7 +564,7 @@
         <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>180585.7223949771</v>
+        <v>181067.6491949771</v>
       </c>
     </row>
     <row r="28">
@@ -575,7 +575,7 @@
         <v>24</v>
       </c>
       <c r="C28" t="n">
-        <v>114567.35459497717</v>
+        <v>115049.28139497715</v>
       </c>
     </row>
     <row r="29">
@@ -586,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="C29" t="n">
-        <v>109668.50490383458</v>
+        <v>102991.57720383456</v>
       </c>
     </row>
     <row r="30">
@@ -597,7 +597,7 @@
         <v>24</v>
       </c>
       <c r="C30" t="n">
-        <v>106570.03499643461</v>
+        <v>107051.9617964346</v>
       </c>
     </row>
     <row r="31">
@@ -619,7 +619,7 @@
         <v>24</v>
       </c>
       <c r="C32" t="n">
-        <v>2647.7954999999993</v>
+        <v>9806.649999999998</v>
       </c>
     </row>
   </sheetData>
@@ -657,7 +657,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>5004.699999999999</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="3">
@@ -692,7 +692,7 @@
         <v>1092.0</v>
       </c>
       <c r="D6" t="n">
-        <v>-78.18051032029891</v>
+        <v>-63.6</v>
       </c>
     </row>
     <row r="7">
@@ -703,10 +703,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>1365.0</v>
+        <v>1376.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-72.72563790037364</v>
+        <v>-54.13333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -717,10 +717,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>2957.0</v>
+        <v>2997.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-40.915539392970594</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="9">
@@ -731,10 +731,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>1131.0</v>
+        <v>1160.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-77.40124283173816</v>
+        <v>-61.333333333333336</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
         <v>2491.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-50.226786820388824</v>
+        <v>-16.966666666666665</v>
       </c>
     </row>
     <row r="11">
@@ -762,7 +762,7 @@
         <v>3698.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-26.109457110316285</v>
+        <v>23.266666666666666</v>
       </c>
     </row>
     <row r="12">
@@ -773,10 +773,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>2122.333333333333</v>
+        <v>2135.666666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>-57.593195729347734</v>
+        <v>-28.81111111111111</v>
       </c>
     </row>
   </sheetData>
@@ -814,7 +814,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>3209.0999999999995</v>
+        <v>2000.0</v>
       </c>
     </row>
     <row r="3">
@@ -857,10 +857,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>2346.0</v>
+        <v>2362.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-26.8953912311863</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="8">
@@ -871,10 +871,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>1748.0</v>
+        <v>1775.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-45.52989934872705</v>
+        <v>-11.25</v>
       </c>
     </row>
     <row r="9">
@@ -885,10 +885,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>1048.0</v>
+        <v>1072.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-67.34286871708578</v>
+        <v>-46.4</v>
       </c>
     </row>
     <row r="10">
@@ -902,7 +902,7 @@
         <v>2299.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-28.35997631734753</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="11">
@@ -913,10 +913,10 @@
         <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>2378.0</v>
+        <v>2383.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-25.898226917204187</v>
+        <v>19.15</v>
       </c>
     </row>
     <row r="12">
@@ -927,10 +927,10 @@
         <v>42</v>
       </c>
       <c r="C12" t="n">
-        <v>2184.0</v>
+        <v>2197.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-31.94353557072075</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="13">
@@ -941,10 +941,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>1714.7142857142858</v>
+        <v>1726.8571428571427</v>
       </c>
       <c r="D13" t="n">
-        <v>-46.56712830032451</v>
+        <v>-13.657142857142851</v>
       </c>
     </row>
   </sheetData>
@@ -982,7 +982,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>548.3</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="3">
@@ -1028,7 +1028,7 @@
         <v>258.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-52.94546780959329</v>
+        <v>-57.0</v>
       </c>
     </row>
     <row r="8">
@@ -1042,7 +1042,7 @@
         <v>149.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-72.82509575050155</v>
+        <v>-75.16666666666667</v>
       </c>
     </row>
     <row r="9">
@@ -1053,10 +1053,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>130.0</v>
+        <v>132.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-76.29035199708188</v>
+        <v>-78.0</v>
       </c>
     </row>
     <row r="10">
@@ -1067,10 +1067,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>179.0</v>
+        <v>179.66666666666663</v>
       </c>
       <c r="D10" t="n">
-        <v>-67.35363851905889</v>
+        <v>-70.05555555555554</v>
       </c>
     </row>
   </sheetData>
@@ -1108,7 +1108,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>452.69999999999993</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="3">
@@ -1154,7 +1154,7 @@
         <v>330.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-27.104042412193493</v>
+        <v>-17.5</v>
       </c>
     </row>
     <row r="8">
@@ -1168,7 +1168,7 @@
         <v>227.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-49.85641705323613</v>
+        <v>-43.25</v>
       </c>
     </row>
     <row r="9">
@@ -1182,7 +1182,7 @@
         <v>278.5</v>
       </c>
       <c r="D9" t="n">
-        <v>-38.48022973271481</v>
+        <v>-30.374999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1220,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>1306.7999999999997</v>
+        <v>900.0</v>
       </c>
     </row>
     <row r="3">
@@ -1234,7 +1234,7 @@
         <v>451.9999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>-88.47056422813996</v>
+        <v>-83.25925925925924</v>
       </c>
     </row>
     <row r="4">
@@ -1277,7 +1277,7 @@
         <v>235.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-64.0342822161004</v>
+        <v>-47.777777777777764</v>
       </c>
     </row>
     <row r="10">
@@ -1291,7 +1291,7 @@
         <v>249.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-61.891643709825516</v>
+        <v>-44.66666666666666</v>
       </c>
     </row>
     <row r="11">
@@ -1305,7 +1305,7 @@
         <v>194.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-70.30915212733393</v>
+        <v>-56.88888888888888</v>
       </c>
     </row>
     <row r="12">
@@ -1349,7 +1349,7 @@
         <v>235.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-64.0342822161004</v>
+        <v>-47.777777777777764</v>
       </c>
     </row>
     <row r="17">
@@ -1363,7 +1363,7 @@
         <v>249.0</v>
       </c>
       <c r="D17" t="n">
-        <v>-61.891643709825516</v>
+        <v>-44.66666666666666</v>
       </c>
     </row>
     <row r="18">
@@ -1377,7 +1377,7 @@
         <v>194.0</v>
       </c>
       <c r="D18" t="n">
-        <v>-70.30915212733393</v>
+        <v>-56.88888888888888</v>
       </c>
     </row>
     <row r="19">
@@ -1556,7 +1556,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>2233.0999999999995</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="3">
@@ -1577,10 +1577,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>790.0</v>
+        <v>808.0</v>
       </c>
       <c r="D5" t="n">
-        <v>-64.62316958488199</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="6">
@@ -1591,10 +1591,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>958.0</v>
+        <v>985.0</v>
       </c>
       <c r="D6" t="n">
-        <v>-57.099995521920185</v>
+        <v>97.0</v>
       </c>
     </row>
     <row r="7">
@@ -1605,10 +1605,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>1086.0</v>
+        <v>1115.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-51.368053378711195</v>
+        <v>123.0</v>
       </c>
     </row>
     <row r="8">
@@ -1619,10 +1619,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>941.0</v>
+        <v>959.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-57.86126908781513</v>
+        <v>91.8</v>
       </c>
     </row>
     <row r="9">
@@ -1633,10 +1633,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>943.75</v>
+        <v>966.75</v>
       </c>
       <c r="D9" t="n">
-        <v>-57.73812189333212</v>
+        <v>93.34999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1674,7 +1674,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>1822.772</v>
+        <v>2000.0</v>
       </c>
     </row>
     <row r="3">
@@ -1698,7 +1698,7 @@
         <v>2477.0</v>
       </c>
       <c r="D5" t="n">
-        <v>35.89192724048866</v>
+        <v>23.85</v>
       </c>
     </row>
     <row r="6">
@@ -1712,7 +1712,7 @@
         <v>2476.9547862613454</v>
       </c>
       <c r="D6" t="n">
-        <v>35.889446747116224</v>
+        <v>23.84773931306728</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
@@ -301,7 +301,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>1598.272</v>
+        <v>890.2719999999999</v>
       </c>
     </row>
     <row r="3">
@@ -339,7 +339,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>24456.734485313624</v>
+        <v>24689.260675789817</v>
       </c>
     </row>
     <row r="7">
@@ -350,7 +350,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>23418.25353293268</v>
+        <v>23657.360675789823</v>
       </c>
     </row>
     <row r="8">
@@ -361,7 +361,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>21432.82817963941</v>
+        <v>21648.024608210842</v>
       </c>
     </row>
     <row r="9">
@@ -405,7 +405,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>18859.761752991813</v>
+        <v>19098.86889584896</v>
       </c>
     </row>
     <row r="13">
@@ -416,7 +416,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>18463.761752991813</v>
+        <v>18702.86889584896</v>
       </c>
     </row>
     <row r="14">
@@ -427,7 +427,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>11731.761752991813</v>
+        <v>11970.868895848958</v>
       </c>
     </row>
     <row r="15">
@@ -438,7 +438,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>10502.218107491812</v>
+        <v>10741.325250348957</v>
       </c>
     </row>
     <row r="16">
@@ -449,7 +449,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>10916.262107491817</v>
+        <v>11155.36925034896</v>
       </c>
     </row>
     <row r="17">
@@ -487,7 +487,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>239838.63524040082</v>
+        <v>242118.93820623416</v>
       </c>
     </row>
     <row r="21">
@@ -498,7 +498,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>229654.6160087342</v>
+        <v>231999.45607123425</v>
       </c>
     </row>
     <row r="22">
@@ -509,7 +509,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="n">
-        <v>210184.2444678608</v>
+        <v>212294.60052411078</v>
       </c>
     </row>
     <row r="23">
@@ -553,7 +553,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>184951.0825949771</v>
+        <v>187295.92265747715</v>
       </c>
     </row>
     <row r="27">
@@ -564,7 +564,7 @@
         <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>181067.6491949771</v>
+        <v>183412.48925747714</v>
       </c>
     </row>
     <row r="28">
@@ -575,7 +575,7 @@
         <v>24</v>
       </c>
       <c r="C28" t="n">
-        <v>115049.28139497715</v>
+        <v>117394.12145747716</v>
       </c>
     </row>
     <row r="29">
@@ -586,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="C29" t="n">
-        <v>102991.57720383456</v>
+        <v>105336.41726633458</v>
       </c>
     </row>
     <row r="30">
@@ -597,7 +597,7 @@
         <v>24</v>
       </c>
       <c r="C30" t="n">
-        <v>107051.9617964346</v>
+        <v>109396.8018589346</v>
       </c>
     </row>
     <row r="31">
@@ -689,10 +689,10 @@
         <v>42</v>
       </c>
       <c r="C6" t="n">
-        <v>1092.0</v>
+        <v>1474.0</v>
       </c>
       <c r="D6" t="n">
-        <v>-63.6</v>
+        <v>-50.86666666666667</v>
       </c>
     </row>
     <row r="7">
@@ -703,10 +703,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>1376.0</v>
+        <v>1602.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-54.13333333333333</v>
+        <v>-46.6</v>
       </c>
     </row>
     <row r="8">
@@ -717,10 +717,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>2997.0</v>
+        <v>3011.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1</v>
+        <v>0.36666666666666664</v>
       </c>
     </row>
     <row r="9">
@@ -731,10 +731,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>1160.0</v>
+        <v>1468.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-61.333333333333336</v>
+        <v>-51.06666666666667</v>
       </c>
     </row>
     <row r="10">
@@ -773,10 +773,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>2135.666666666666</v>
+        <v>2290.666666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>-28.81111111111111</v>
+        <v>-23.644444444444446</v>
       </c>
     </row>
   </sheetData>
@@ -857,10 +857,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>2362.0</v>
+        <v>2375.0</v>
       </c>
       <c r="D7" t="n">
-        <v>18.1</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="8">
@@ -871,10 +871,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>1775.0</v>
+        <v>1784.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-11.25</v>
+        <v>-10.8</v>
       </c>
     </row>
     <row r="9">
@@ -885,10 +885,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>1072.0</v>
+        <v>1284.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-46.4</v>
+        <v>-35.8</v>
       </c>
     </row>
     <row r="10">
@@ -913,10 +913,10 @@
         <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>2383.0</v>
+        <v>2404.0</v>
       </c>
       <c r="D11" t="n">
-        <v>19.15</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="12">
@@ -927,10 +927,10 @@
         <v>42</v>
       </c>
       <c r="C12" t="n">
-        <v>2197.0</v>
+        <v>2207.0</v>
       </c>
       <c r="D12" t="n">
-        <v>9.85</v>
+        <v>10.35</v>
       </c>
     </row>
     <row r="13">
@@ -941,10 +941,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>1726.8571428571427</v>
+        <v>1764.7142857142858</v>
       </c>
       <c r="D13" t="n">
-        <v>-13.657142857142851</v>
+        <v>-11.764285714285709</v>
       </c>
     </row>
   </sheetData>
@@ -1053,10 +1053,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>132.0</v>
+        <v>133.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-78.0</v>
+        <v>-77.83333333333333</v>
       </c>
     </row>
     <row r="10">
@@ -1067,10 +1067,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>179.66666666666663</v>
+        <v>180.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-70.05555555555554</v>
+        <v>-69.99999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1165,10 +1165,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-43.25</v>
+        <v>-43.0</v>
       </c>
     </row>
     <row r="9">
@@ -1179,10 +1179,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>278.5</v>
+        <v>279.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-30.374999999999996</v>
+        <v>-30.25</v>
       </c>
     </row>
   </sheetData>
@@ -1231,10 +1231,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>451.9999999999999</v>
+        <v>488.66666666666663</v>
       </c>
       <c r="D3" t="n">
-        <v>-83.25925925925924</v>
+        <v>-81.90123456790121</v>
       </c>
     </row>
     <row r="4">
@@ -1288,10 +1288,10 @@
         <v>42</v>
       </c>
       <c r="C10" t="n">
-        <v>249.0</v>
+        <v>304.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-44.66666666666666</v>
+        <v>-32.44444444444443</v>
       </c>
     </row>
     <row r="11">
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>226.0</v>
+        <v>244.33333333333331</v>
       </c>
     </row>
     <row r="13">
@@ -1360,10 +1360,10 @@
         <v>42</v>
       </c>
       <c r="C17" t="n">
-        <v>249.0</v>
+        <v>304.0</v>
       </c>
       <c r="D17" t="n">
-        <v>-44.66666666666666</v>
+        <v>-32.44444444444443</v>
       </c>
     </row>
     <row r="18">
@@ -1388,7 +1388,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>226.0</v>
+        <v>244.33333333333331</v>
       </c>
     </row>
     <row r="20">
@@ -1577,10 +1577,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>808.0</v>
+        <v>815.0</v>
       </c>
       <c r="D5" t="n">
-        <v>61.6</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="6">
@@ -1591,10 +1591,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>985.0</v>
+        <v>994.0</v>
       </c>
       <c r="D6" t="n">
-        <v>97.0</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="7">
@@ -1605,10 +1605,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>1115.0</v>
+        <v>1125.0</v>
       </c>
       <c r="D7" t="n">
-        <v>123.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="8">
@@ -1619,10 +1619,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>959.0</v>
+        <v>968.0</v>
       </c>
       <c r="D8" t="n">
-        <v>91.8</v>
+        <v>93.6</v>
       </c>
     </row>
     <row r="9">
@@ -1633,10 +1633,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>966.75</v>
+        <v>975.5</v>
       </c>
       <c r="D9" t="n">
-        <v>93.34999999999998</v>
+        <v>95.09999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
@@ -301,7 +301,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>890.2719999999999</v>
+        <v>1598.272</v>
       </c>
     </row>
     <row r="3">
@@ -339,7 +339,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>24689.260675789817</v>
+        <v>23922.944009123148</v>
       </c>
     </row>
     <row r="7">
@@ -350,7 +350,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>23657.360675789823</v>
+        <v>23369.110675789823</v>
       </c>
     </row>
     <row r="8">
@@ -361,7 +361,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>21648.024608210842</v>
+        <v>21388.59960821084</v>
       </c>
     </row>
     <row r="9">
@@ -405,7 +405,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>19098.86889584896</v>
+        <v>18810.61889584896</v>
       </c>
     </row>
     <row r="13">
@@ -416,7 +416,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>18702.86889584896</v>
+        <v>18414.61889584896</v>
       </c>
     </row>
     <row r="14">
@@ -427,7 +427,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>11970.868895848958</v>
+        <v>11682.618895848958</v>
       </c>
     </row>
     <row r="15">
@@ -438,7 +438,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>10741.325250348957</v>
+        <v>11183.075250348957</v>
       </c>
     </row>
     <row r="16">
@@ -449,7 +449,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>11155.36925034896</v>
+        <v>10867.11925034896</v>
       </c>
     </row>
     <row r="17">
@@ -471,7 +471,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>1000.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="19">
@@ -487,7 +487,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>242118.93820623416</v>
+        <v>234603.93886706745</v>
       </c>
     </row>
     <row r="21">
@@ -498,7 +498,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>231999.45607123425</v>
+        <v>229172.68920873426</v>
       </c>
     </row>
     <row r="22">
@@ -509,7 +509,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="n">
-        <v>212294.60052411078</v>
+        <v>209750.5103478608</v>
       </c>
     </row>
     <row r="23">
@@ -553,7 +553,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>187295.92265747715</v>
+        <v>184469.15579497712</v>
       </c>
     </row>
     <row r="27">
@@ -564,7 +564,7 @@
         <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>183412.48925747714</v>
+        <v>180585.7223949771</v>
       </c>
     </row>
     <row r="28">
@@ -575,7 +575,7 @@
         <v>24</v>
       </c>
       <c r="C28" t="n">
-        <v>117394.12145747716</v>
+        <v>114567.35459497717</v>
       </c>
     </row>
     <row r="29">
@@ -586,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="C29" t="n">
-        <v>105336.41726633458</v>
+        <v>109668.50490383458</v>
       </c>
     </row>
     <row r="30">
@@ -597,7 +597,7 @@
         <v>24</v>
       </c>
       <c r="C30" t="n">
-        <v>109396.8018589346</v>
+        <v>106570.03499643461</v>
       </c>
     </row>
     <row r="31">
@@ -619,7 +619,7 @@
         <v>24</v>
       </c>
       <c r="C32" t="n">
-        <v>9806.649999999998</v>
+        <v>2647.7954999999993</v>
       </c>
     </row>
   </sheetData>
@@ -657,7 +657,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>3000.0</v>
+        <v>5004.699999999999</v>
       </c>
     </row>
     <row r="3">
@@ -689,10 +689,10 @@
         <v>42</v>
       </c>
       <c r="C6" t="n">
-        <v>1474.0</v>
+        <v>1092.0</v>
       </c>
       <c r="D6" t="n">
-        <v>-50.86666666666667</v>
+        <v>-78.18051032029891</v>
       </c>
     </row>
     <row r="7">
@@ -703,10 +703,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>1602.0</v>
+        <v>1365.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-46.6</v>
+        <v>-72.72563790037364</v>
       </c>
     </row>
     <row r="8">
@@ -717,10 +717,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>3011.0</v>
+        <v>2957.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.36666666666666664</v>
+        <v>-40.915539392970594</v>
       </c>
     </row>
     <row r="9">
@@ -731,10 +731,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>1468.0</v>
+        <v>1131.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-51.06666666666667</v>
+        <v>-77.40124283173816</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
         <v>2491.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-16.966666666666665</v>
+        <v>-50.226786820388824</v>
       </c>
     </row>
     <row r="11">
@@ -762,7 +762,7 @@
         <v>3698.0</v>
       </c>
       <c r="D11" t="n">
-        <v>23.266666666666666</v>
+        <v>-26.109457110316285</v>
       </c>
     </row>
     <row r="12">
@@ -773,10 +773,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>2290.666666666666</v>
+        <v>2122.333333333333</v>
       </c>
       <c r="D12" t="n">
-        <v>-23.644444444444446</v>
+        <v>-57.593195729347734</v>
       </c>
     </row>
   </sheetData>
@@ -814,7 +814,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>2000.0</v>
+        <v>3209.0999999999995</v>
       </c>
     </row>
     <row r="3">
@@ -857,10 +857,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>2375.0</v>
+        <v>2346.0</v>
       </c>
       <c r="D7" t="n">
-        <v>18.75</v>
+        <v>-26.8953912311863</v>
       </c>
     </row>
     <row r="8">
@@ -871,10 +871,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>1784.0</v>
+        <v>1748.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-10.8</v>
+        <v>-45.52989934872705</v>
       </c>
     </row>
     <row r="9">
@@ -885,10 +885,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>1284.0</v>
+        <v>1048.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-35.8</v>
+        <v>-67.34286871708578</v>
       </c>
     </row>
     <row r="10">
@@ -902,7 +902,7 @@
         <v>2299.0</v>
       </c>
       <c r="D10" t="n">
-        <v>14.95</v>
+        <v>-28.35997631734753</v>
       </c>
     </row>
     <row r="11">
@@ -913,10 +913,10 @@
         <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>2404.0</v>
+        <v>2378.0</v>
       </c>
       <c r="D11" t="n">
-        <v>20.2</v>
+        <v>-25.898226917204187</v>
       </c>
     </row>
     <row r="12">
@@ -927,10 +927,10 @@
         <v>42</v>
       </c>
       <c r="C12" t="n">
-        <v>2207.0</v>
+        <v>2184.0</v>
       </c>
       <c r="D12" t="n">
-        <v>10.35</v>
+        <v>-31.94353557072075</v>
       </c>
     </row>
     <row r="13">
@@ -941,10 +941,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>1764.7142857142858</v>
+        <v>1714.7142857142858</v>
       </c>
       <c r="D13" t="n">
-        <v>-11.764285714285709</v>
+        <v>-46.56712830032451</v>
       </c>
     </row>
   </sheetData>
@@ -982,7 +982,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>600.0</v>
+        <v>548.3</v>
       </c>
     </row>
     <row r="3">
@@ -1028,7 +1028,7 @@
         <v>258.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-57.0</v>
+        <v>-52.94546780959329</v>
       </c>
     </row>
     <row r="8">
@@ -1042,7 +1042,7 @@
         <v>149.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-75.16666666666667</v>
+        <v>-72.82509575050155</v>
       </c>
     </row>
     <row r="9">
@@ -1053,10 +1053,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>133.0</v>
+        <v>130.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-77.83333333333333</v>
+        <v>-76.29035199708188</v>
       </c>
     </row>
     <row r="10">
@@ -1067,10 +1067,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>180.0</v>
+        <v>179.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-69.99999999999999</v>
+        <v>-67.35363851905889</v>
       </c>
     </row>
   </sheetData>
@@ -1108,7 +1108,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>400.0</v>
+        <v>452.69999999999993</v>
       </c>
     </row>
     <row r="3">
@@ -1154,7 +1154,7 @@
         <v>330.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-17.5</v>
+        <v>-27.104042412193493</v>
       </c>
     </row>
     <row r="8">
@@ -1165,10 +1165,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>228.0</v>
+        <v>227.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-43.0</v>
+        <v>-49.85641705323613</v>
       </c>
     </row>
     <row r="9">
@@ -1179,10 +1179,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>279.0</v>
+        <v>278.5</v>
       </c>
       <c r="D9" t="n">
-        <v>-30.25</v>
+        <v>-38.48022973271481</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1220,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>900.0</v>
+        <v>1306.7999999999997</v>
       </c>
     </row>
     <row r="3">
@@ -1231,10 +1231,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>488.66666666666663</v>
+        <v>451.9999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>-81.90123456790121</v>
+        <v>-88.47056422813996</v>
       </c>
     </row>
     <row r="4">
@@ -1277,7 +1277,7 @@
         <v>235.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-47.777777777777764</v>
+        <v>-64.0342822161004</v>
       </c>
     </row>
     <row r="10">
@@ -1288,10 +1288,10 @@
         <v>42</v>
       </c>
       <c r="C10" t="n">
-        <v>304.0</v>
+        <v>249.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-32.44444444444443</v>
+        <v>-61.891643709825516</v>
       </c>
     </row>
     <row r="11">
@@ -1305,7 +1305,7 @@
         <v>194.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-56.88888888888888</v>
+        <v>-70.30915212733393</v>
       </c>
     </row>
     <row r="12">
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>244.33333333333331</v>
+        <v>226.0</v>
       </c>
     </row>
     <row r="13">
@@ -1349,7 +1349,7 @@
         <v>235.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-47.777777777777764</v>
+        <v>-64.0342822161004</v>
       </c>
     </row>
     <row r="17">
@@ -1360,10 +1360,10 @@
         <v>42</v>
       </c>
       <c r="C17" t="n">
-        <v>304.0</v>
+        <v>249.0</v>
       </c>
       <c r="D17" t="n">
-        <v>-32.44444444444443</v>
+        <v>-61.891643709825516</v>
       </c>
     </row>
     <row r="18">
@@ -1377,7 +1377,7 @@
         <v>194.0</v>
       </c>
       <c r="D18" t="n">
-        <v>-56.88888888888888</v>
+        <v>-70.30915212733393</v>
       </c>
     </row>
     <row r="19">
@@ -1388,7 +1388,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>244.33333333333331</v>
+        <v>226.0</v>
       </c>
     </row>
     <row r="20">
@@ -1556,7 +1556,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>500.0</v>
+        <v>2233.0999999999995</v>
       </c>
     </row>
     <row r="3">
@@ -1577,10 +1577,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>815.0</v>
+        <v>790.0</v>
       </c>
       <c r="D5" t="n">
-        <v>63.0</v>
+        <v>-64.62316958488199</v>
       </c>
     </row>
     <row r="6">
@@ -1591,10 +1591,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>994.0</v>
+        <v>958.0</v>
       </c>
       <c r="D6" t="n">
-        <v>98.8</v>
+        <v>-57.099995521920185</v>
       </c>
     </row>
     <row r="7">
@@ -1605,10 +1605,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>1125.0</v>
+        <v>1086.0</v>
       </c>
       <c r="D7" t="n">
-        <v>125.0</v>
+        <v>-51.368053378711195</v>
       </c>
     </row>
     <row r="8">
@@ -1619,10 +1619,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>968.0</v>
+        <v>941.0</v>
       </c>
       <c r="D8" t="n">
-        <v>93.6</v>
+        <v>-57.86126908781513</v>
       </c>
     </row>
     <row r="9">
@@ -1633,10 +1633,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>975.5</v>
+        <v>943.75</v>
       </c>
       <c r="D9" t="n">
-        <v>95.09999999999998</v>
+        <v>-57.73812189333212</v>
       </c>
     </row>
   </sheetData>
@@ -1674,7 +1674,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>2000.0</v>
+        <v>1822.772</v>
       </c>
     </row>
     <row r="3">
@@ -1698,7 +1698,7 @@
         <v>2477.0</v>
       </c>
       <c r="D5" t="n">
-        <v>23.85</v>
+        <v>35.89192724048866</v>
       </c>
     </row>
     <row r="6">
@@ -1712,7 +1712,7 @@
         <v>2476.9547862613454</v>
       </c>
       <c r="D6" t="n">
-        <v>23.84773931306728</v>
+        <v>35.889446747116224</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
@@ -301,7 +301,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>1598.272</v>
+        <v>890.2719999999999</v>
       </c>
     </row>
     <row r="3">
@@ -339,7 +339,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>23922.944009123148</v>
+        <v>25630.4249615041</v>
       </c>
     </row>
     <row r="7">
@@ -350,7 +350,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>23369.110675789823</v>
+        <v>24625.45591388506</v>
       </c>
     </row>
     <row r="8">
@@ -361,7 +361,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>21388.59960821084</v>
+        <v>22519.310322496553</v>
       </c>
     </row>
     <row r="9">
@@ -405,7 +405,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>18810.61889584896</v>
+        <v>20066.96413394419</v>
       </c>
     </row>
     <row r="13">
@@ -416,7 +416,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>18414.61889584896</v>
+        <v>19670.96413394419</v>
       </c>
     </row>
     <row r="14">
@@ -427,7 +427,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>11682.618895848958</v>
+        <v>12938.964133944195</v>
       </c>
     </row>
     <row r="15">
@@ -438,7 +438,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>11183.075250348957</v>
+        <v>11709.420488444193</v>
       </c>
     </row>
     <row r="16">
@@ -449,7 +449,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>10867.11925034896</v>
+        <v>12123.464488444197</v>
       </c>
     </row>
     <row r="17">
@@ -471,7 +471,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>270.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="19">
@@ -487,7 +487,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>234603.93886706745</v>
+        <v>251348.60694873414</v>
       </c>
     </row>
     <row r="21">
@@ -498,7 +498,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>229172.68920873426</v>
+        <v>241493.22723790086</v>
       </c>
     </row>
     <row r="22">
@@ -509,7 +509,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="n">
-        <v>209750.5103478608</v>
+        <v>220838.99457411078</v>
       </c>
     </row>
     <row r="23">
@@ -553,7 +553,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>184469.15579497712</v>
+        <v>196789.69382414376</v>
       </c>
     </row>
     <row r="27">
@@ -564,7 +564,7 @@
         <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>180585.7223949771</v>
+        <v>192906.26042414375</v>
       </c>
     </row>
     <row r="28">
@@ -575,7 +575,7 @@
         <v>24</v>
       </c>
       <c r="C28" t="n">
-        <v>114567.35459497717</v>
+        <v>126887.8926241438</v>
       </c>
     </row>
     <row r="29">
@@ -586,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="C29" t="n">
-        <v>109668.50490383458</v>
+        <v>114830.18843300123</v>
       </c>
     </row>
     <row r="30">
@@ -597,7 +597,7 @@
         <v>24</v>
       </c>
       <c r="C30" t="n">
-        <v>106570.03499643461</v>
+        <v>118890.57302560126</v>
       </c>
     </row>
     <row r="31">
@@ -619,7 +619,7 @@
         <v>24</v>
       </c>
       <c r="C32" t="n">
-        <v>2647.7954999999993</v>
+        <v>9806.649999999998</v>
       </c>
     </row>
   </sheetData>
@@ -657,7 +657,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>5004.699999999999</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="3">
@@ -689,10 +689,10 @@
         <v>42</v>
       </c>
       <c r="C6" t="n">
-        <v>1092.0</v>
+        <v>3234.0</v>
       </c>
       <c r="D6" t="n">
-        <v>-78.18051032029891</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="7">
@@ -703,10 +703,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>1365.0</v>
+        <v>2392.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-72.72563790037364</v>
+        <v>-20.266666666666666</v>
       </c>
     </row>
     <row r="8">
@@ -717,10 +717,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>2957.0</v>
+        <v>3067.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-40.915539392970594</v>
+        <v>2.2333333333333334</v>
       </c>
     </row>
     <row r="9">
@@ -731,10 +731,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>1131.0</v>
+        <v>2751.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-77.40124283173816</v>
+        <v>-8.3</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
         <v>2491.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-50.226786820388824</v>
+        <v>-16.966666666666665</v>
       </c>
     </row>
     <row r="11">
@@ -762,7 +762,7 @@
         <v>3698.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-26.109457110316285</v>
+        <v>23.266666666666666</v>
       </c>
     </row>
     <row r="12">
@@ -773,10 +773,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>2122.333333333333</v>
+        <v>2938.833333333333</v>
       </c>
       <c r="D12" t="n">
-        <v>-57.593195729347734</v>
+        <v>-2.038888888888883</v>
       </c>
     </row>
   </sheetData>
@@ -814,7 +814,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>3209.0999999999995</v>
+        <v>2000.0</v>
       </c>
     </row>
     <row r="3">
@@ -857,10 +857,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>2346.0</v>
+        <v>2424.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-26.8953912311863</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="8">
@@ -871,10 +871,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>1748.0</v>
+        <v>1821.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-45.52989934872705</v>
+        <v>-8.95</v>
       </c>
     </row>
     <row r="9">
@@ -885,10 +885,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>1048.0</v>
+        <v>2077.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-67.34286871708578</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="10">
@@ -902,7 +902,7 @@
         <v>2299.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-28.35997631734753</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="11">
@@ -913,10 +913,10 @@
         <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>2378.0</v>
+        <v>2489.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-25.898226917204187</v>
+        <v>24.45</v>
       </c>
     </row>
     <row r="12">
@@ -927,10 +927,10 @@
         <v>42</v>
       </c>
       <c r="C12" t="n">
-        <v>2184.0</v>
+        <v>2247.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-31.94353557072075</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="13">
@@ -941,10 +941,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>1714.7142857142858</v>
+        <v>1908.1428571428569</v>
       </c>
       <c r="D13" t="n">
-        <v>-46.56712830032451</v>
+        <v>-4.592857142857143</v>
       </c>
     </row>
   </sheetData>
@@ -982,7 +982,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>548.3</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="3">
@@ -1028,7 +1028,7 @@
         <v>258.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-52.94546780959329</v>
+        <v>-57.0</v>
       </c>
     </row>
     <row r="8">
@@ -1042,7 +1042,7 @@
         <v>149.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-72.82509575050155</v>
+        <v>-75.16666666666667</v>
       </c>
     </row>
     <row r="9">
@@ -1053,10 +1053,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>130.0</v>
+        <v>136.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-76.29035199708188</v>
+        <v>-77.33333333333333</v>
       </c>
     </row>
     <row r="10">
@@ -1067,10 +1067,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>179.0</v>
+        <v>181.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-67.35363851905889</v>
+        <v>-69.83333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1108,7 +1108,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>452.69999999999993</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="3">
@@ -1154,7 +1154,7 @@
         <v>330.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-27.104042412193493</v>
+        <v>-17.5</v>
       </c>
     </row>
     <row r="8">
@@ -1165,10 +1165,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>227.0</v>
+        <v>229.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-49.85641705323613</v>
+        <v>-42.75</v>
       </c>
     </row>
     <row r="9">
@@ -1179,10 +1179,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>278.5</v>
+        <v>279.5</v>
       </c>
       <c r="D9" t="n">
-        <v>-38.48022973271481</v>
+        <v>-30.124999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1220,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>1306.7999999999997</v>
+        <v>900.0</v>
       </c>
     </row>
     <row r="3">
@@ -1231,10 +1231,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>451.9999999999999</v>
+        <v>628.6666666666665</v>
       </c>
       <c r="D3" t="n">
-        <v>-88.47056422813996</v>
+        <v>-76.71604938271604</v>
       </c>
     </row>
     <row r="4">
@@ -1277,7 +1277,7 @@
         <v>235.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-64.0342822161004</v>
+        <v>-47.777777777777764</v>
       </c>
     </row>
     <row r="10">
@@ -1288,10 +1288,10 @@
         <v>42</v>
       </c>
       <c r="C10" t="n">
-        <v>249.0</v>
+        <v>514.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-61.891643709825516</v>
+        <v>14.22222222222225</v>
       </c>
     </row>
     <row r="11">
@@ -1305,7 +1305,7 @@
         <v>194.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-70.30915212733393</v>
+        <v>-56.88888888888888</v>
       </c>
     </row>
     <row r="12">
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>226.0</v>
+        <v>314.33333333333326</v>
       </c>
     </row>
     <row r="13">
@@ -1349,7 +1349,7 @@
         <v>235.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-64.0342822161004</v>
+        <v>-47.777777777777764</v>
       </c>
     </row>
     <row r="17">
@@ -1360,10 +1360,10 @@
         <v>42</v>
       </c>
       <c r="C17" t="n">
-        <v>249.0</v>
+        <v>514.0</v>
       </c>
       <c r="D17" t="n">
-        <v>-61.891643709825516</v>
+        <v>14.22222222222225</v>
       </c>
     </row>
     <row r="18">
@@ -1377,7 +1377,7 @@
         <v>194.0</v>
       </c>
       <c r="D18" t="n">
-        <v>-70.30915212733393</v>
+        <v>-56.88888888888888</v>
       </c>
     </row>
     <row r="19">
@@ -1388,7 +1388,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>226.0</v>
+        <v>314.33333333333326</v>
       </c>
     </row>
     <row r="20">
@@ -1556,7 +1556,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>2233.0999999999995</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="3">
@@ -1577,10 +1577,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>790.0</v>
+        <v>840.0</v>
       </c>
       <c r="D5" t="n">
-        <v>-64.62316958488199</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="6">
@@ -1591,10 +1591,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>958.0</v>
+        <v>1031.0</v>
       </c>
       <c r="D6" t="n">
-        <v>-57.099995521920185</v>
+        <v>106.2</v>
       </c>
     </row>
     <row r="7">
@@ -1605,10 +1605,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>1086.0</v>
+        <v>1166.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-51.368053378711195</v>
+        <v>133.2</v>
       </c>
     </row>
     <row r="8">
@@ -1619,10 +1619,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>941.0</v>
+        <v>1005.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-57.86126908781513</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="9">
@@ -1633,10 +1633,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>943.75</v>
+        <v>1010.5</v>
       </c>
       <c r="D9" t="n">
-        <v>-57.73812189333212</v>
+        <v>102.09999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1674,7 +1674,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>1822.772</v>
+        <v>2000.0</v>
       </c>
     </row>
     <row r="3">
@@ -1698,7 +1698,7 @@
         <v>2477.0</v>
       </c>
       <c r="D5" t="n">
-        <v>35.89192724048866</v>
+        <v>23.85</v>
       </c>
     </row>
     <row r="6">
@@ -1712,7 +1712,7 @@
         <v>2476.9547862613454</v>
       </c>
       <c r="D6" t="n">
-        <v>35.889446747116224</v>
+        <v>23.84773931306728</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
@@ -301,7 +301,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>890.2719999999999</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="3">

--- a/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
@@ -301,7 +301,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>200.0</v>
+        <v>1598.272</v>
       </c>
     </row>
     <row r="3">
@@ -339,7 +339,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>25630.4249615041</v>
+        <v>25310.824961504106</v>
       </c>
     </row>
     <row r="7">
@@ -350,7 +350,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>24625.45591388506</v>
+        <v>24781.039247218396</v>
       </c>
     </row>
     <row r="8">
@@ -361,7 +361,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>22519.310322496553</v>
+        <v>22659.335322496554</v>
       </c>
     </row>
     <row r="9">
@@ -405,7 +405,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>20066.96413394419</v>
+        <v>20222.547467277527</v>
       </c>
     </row>
     <row r="13">
@@ -416,7 +416,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>19670.96413394419</v>
+        <v>19826.547467277527</v>
       </c>
     </row>
     <row r="14">
@@ -427,7 +427,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>12938.964133944195</v>
+        <v>13094.547467277527</v>
       </c>
     </row>
     <row r="15">
@@ -438,7 +438,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>11709.420488444193</v>
+        <v>12595.003821777525</v>
       </c>
     </row>
     <row r="16">
@@ -449,7 +449,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>12123.464488444197</v>
+        <v>12279.04782177753</v>
       </c>
     </row>
     <row r="17">
@@ -471,7 +471,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>1000.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="19">
@@ -487,7 +487,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>251348.60694873414</v>
+        <v>248214.40160873416</v>
       </c>
     </row>
     <row r="21">
@@ -498,7 +498,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>241493.22723790086</v>
+        <v>243018.97853373422</v>
       </c>
     </row>
     <row r="22">
@@ -509,7 +509,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="n">
-        <v>220838.99457411078</v>
+        <v>222212.17074036077</v>
       </c>
     </row>
     <row r="23">
@@ -553,7 +553,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>196789.69382414376</v>
+        <v>198315.4451199771</v>
       </c>
     </row>
     <row r="27">
@@ -564,7 +564,7 @@
         <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>192906.26042414375</v>
+        <v>194432.01171997713</v>
       </c>
     </row>
     <row r="28">
@@ -575,7 +575,7 @@
         <v>24</v>
       </c>
       <c r="C28" t="n">
-        <v>126887.8926241438</v>
+        <v>128413.64391997714</v>
       </c>
     </row>
     <row r="29">
@@ -586,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="C29" t="n">
-        <v>114830.18843300123</v>
+        <v>123514.79422883455</v>
       </c>
     </row>
     <row r="30">
@@ -597,7 +597,7 @@
         <v>24</v>
       </c>
       <c r="C30" t="n">
-        <v>118890.57302560126</v>
+        <v>120416.3243214346</v>
       </c>
     </row>
     <row r="31">
@@ -619,7 +619,7 @@
         <v>24</v>
       </c>
       <c r="C32" t="n">
-        <v>9806.649999999998</v>
+        <v>2647.7954999999993</v>
       </c>
     </row>
   </sheetData>
@@ -657,7 +657,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>3000.0</v>
+        <v>5004.699999999999</v>
       </c>
     </row>
     <row r="3">
@@ -689,10 +689,10 @@
         <v>42</v>
       </c>
       <c r="C6" t="n">
-        <v>3234.0</v>
+        <v>3661.0</v>
       </c>
       <c r="D6" t="n">
-        <v>7.8</v>
+        <v>-26.84876216356623</v>
       </c>
     </row>
     <row r="7">
@@ -703,10 +703,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>2392.0</v>
+        <v>2530.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-20.266666666666666</v>
+        <v>-49.44751933182807</v>
       </c>
     </row>
     <row r="8">
@@ -717,10 +717,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>3067.0</v>
+        <v>3041.0</v>
       </c>
       <c r="D8" t="n">
-        <v>2.2333333333333334</v>
+        <v>-39.23711710991666</v>
       </c>
     </row>
     <row r="9">
@@ -731,10 +731,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>2751.0</v>
+        <v>2972.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.3</v>
+        <v>-40.61582112813954</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
         <v>2491.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-16.966666666666665</v>
+        <v>-50.226786820388824</v>
       </c>
     </row>
     <row r="11">
@@ -762,7 +762,7 @@
         <v>3698.0</v>
       </c>
       <c r="D11" t="n">
-        <v>23.266666666666666</v>
+        <v>-26.109457110316285</v>
       </c>
     </row>
     <row r="12">
@@ -773,10 +773,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>2938.833333333333</v>
+        <v>3065.5</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.038888888888883</v>
+        <v>-38.74757727735927</v>
       </c>
     </row>
   </sheetData>
@@ -814,7 +814,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>2000.0</v>
+        <v>3209.0999999999995</v>
       </c>
     </row>
     <row r="3">
@@ -857,10 +857,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>2424.0</v>
+        <v>2418.0</v>
       </c>
       <c r="D7" t="n">
-        <v>21.2</v>
+        <v>-24.651771524726545</v>
       </c>
     </row>
     <row r="8">
@@ -871,10 +871,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>1821.0</v>
+        <v>1804.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.95</v>
+        <v>-43.78486179925835</v>
       </c>
     </row>
     <row r="9">
@@ -885,10 +885,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>2077.0</v>
+        <v>2198.0</v>
       </c>
       <c r="D9" t="n">
-        <v>3.85</v>
+        <v>-31.507276183353575</v>
       </c>
     </row>
     <row r="10">
@@ -902,7 +902,7 @@
         <v>2299.0</v>
       </c>
       <c r="D10" t="n">
-        <v>14.95</v>
+        <v>-28.35997631734753</v>
       </c>
     </row>
     <row r="11">
@@ -913,10 +913,10 @@
         <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>2489.0</v>
+        <v>2501.0</v>
       </c>
       <c r="D11" t="n">
-        <v>24.45</v>
+        <v>-22.06537658533544</v>
       </c>
     </row>
     <row r="12">
@@ -927,10 +927,10 @@
         <v>42</v>
       </c>
       <c r="C12" t="n">
-        <v>2247.0</v>
+        <v>2242.0</v>
       </c>
       <c r="D12" t="n">
-        <v>12.35</v>
+        <v>-30.13617525162817</v>
       </c>
     </row>
     <row r="13">
@@ -941,10 +941,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>1908.1428571428569</v>
+        <v>1923.1428571428569</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.592857142857143</v>
+        <v>-40.07220538023566</v>
       </c>
     </row>
   </sheetData>
@@ -982,7 +982,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>600.0</v>
+        <v>548.3</v>
       </c>
     </row>
     <row r="3">
@@ -1028,7 +1028,7 @@
         <v>258.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-57.0</v>
+        <v>-52.94546780959329</v>
       </c>
     </row>
     <row r="8">
@@ -1042,7 +1042,7 @@
         <v>149.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-75.16666666666667</v>
+        <v>-72.82509575050155</v>
       </c>
     </row>
     <row r="9">
@@ -1053,10 +1053,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>136.0</v>
+        <v>134.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-77.33333333333333</v>
+        <v>-75.56082436622286</v>
       </c>
     </row>
     <row r="10">
@@ -1067,10 +1067,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>181.0</v>
+        <v>180.33333333333331</v>
       </c>
       <c r="D10" t="n">
-        <v>-69.83333333333333</v>
+        <v>-67.11046264210589</v>
       </c>
     </row>
   </sheetData>
@@ -1108,7 +1108,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>400.0</v>
+        <v>452.69999999999993</v>
       </c>
     </row>
     <row r="3">
@@ -1154,7 +1154,7 @@
         <v>330.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-17.5</v>
+        <v>-27.104042412193493</v>
       </c>
     </row>
     <row r="8">
@@ -1165,10 +1165,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>229.0</v>
+        <v>228.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-42.75</v>
+        <v>-49.63552021206096</v>
       </c>
     </row>
     <row r="9">
@@ -1179,10 +1179,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>279.5</v>
+        <v>279.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-30.124999999999996</v>
+        <v>-38.36978131212723</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1220,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>900.0</v>
+        <v>1306.7999999999997</v>
       </c>
     </row>
     <row r="3">
@@ -1231,10 +1231,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>628.6666666666665</v>
+        <v>657.9999999999998</v>
       </c>
       <c r="D3" t="n">
-        <v>-76.71604938271604</v>
+        <v>-83.21599836751349</v>
       </c>
     </row>
     <row r="4">
@@ -1277,7 +1277,7 @@
         <v>235.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-47.777777777777764</v>
+        <v>-64.0342822161004</v>
       </c>
     </row>
     <row r="10">
@@ -1288,10 +1288,10 @@
         <v>42</v>
       </c>
       <c r="C10" t="n">
-        <v>514.0</v>
+        <v>558.0</v>
       </c>
       <c r="D10" t="n">
-        <v>14.22222222222225</v>
+        <v>-14.600550964187308</v>
       </c>
     </row>
     <row r="11">
@@ -1305,7 +1305,7 @@
         <v>194.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-56.88888888888888</v>
+        <v>-70.30915212733393</v>
       </c>
     </row>
     <row r="12">
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>314.33333333333326</v>
+        <v>329.0</v>
       </c>
     </row>
     <row r="13">
@@ -1349,7 +1349,7 @@
         <v>235.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-47.777777777777764</v>
+        <v>-64.0342822161004</v>
       </c>
     </row>
     <row r="17">
@@ -1360,10 +1360,10 @@
         <v>42</v>
       </c>
       <c r="C17" t="n">
-        <v>514.0</v>
+        <v>558.0</v>
       </c>
       <c r="D17" t="n">
-        <v>14.22222222222225</v>
+        <v>-14.600550964187308</v>
       </c>
     </row>
     <row r="18">
@@ -1377,7 +1377,7 @@
         <v>194.0</v>
       </c>
       <c r="D18" t="n">
-        <v>-56.88888888888888</v>
+        <v>-70.30915212733393</v>
       </c>
     </row>
     <row r="19">
@@ -1388,7 +1388,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>314.33333333333326</v>
+        <v>329.0</v>
       </c>
     </row>
     <row r="20">
@@ -1556,7 +1556,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>500.0</v>
+        <v>2233.0999999999995</v>
       </c>
     </row>
     <row r="3">
@@ -1577,10 +1577,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>840.0</v>
+        <v>828.0</v>
       </c>
       <c r="D5" t="n">
-        <v>68.0</v>
+        <v>-62.92149926111682</v>
       </c>
     </row>
     <row r="6">
@@ -1591,10 +1591,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>1031.0</v>
+        <v>1014.0</v>
       </c>
       <c r="D6" t="n">
-        <v>106.2</v>
+        <v>-54.59227083426625</v>
       </c>
     </row>
     <row r="7">
@@ -1605,10 +1605,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>1166.0</v>
+        <v>1147.0</v>
       </c>
       <c r="D7" t="n">
-        <v>133.2</v>
+        <v>-48.63642470108816</v>
       </c>
     </row>
     <row r="8">
@@ -1619,10 +1619,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>1005.0</v>
+        <v>996.0</v>
       </c>
       <c r="D8" t="n">
-        <v>101.0</v>
+        <v>-55.39832519815502</v>
       </c>
     </row>
     <row r="9">
@@ -1633,10 +1633,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>1010.5</v>
+        <v>996.25</v>
       </c>
       <c r="D9" t="n">
-        <v>102.09999999999997</v>
+        <v>-55.38712999865656</v>
       </c>
     </row>
   </sheetData>
@@ -1674,7 +1674,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>2000.0</v>
+        <v>1822.772</v>
       </c>
     </row>
     <row r="3">
@@ -1698,7 +1698,7 @@
         <v>2477.0</v>
       </c>
       <c r="D5" t="n">
-        <v>23.85</v>
+        <v>35.89192724048866</v>
       </c>
     </row>
     <row r="6">
@@ -1712,7 +1712,7 @@
         <v>2476.9547862613454</v>
       </c>
       <c r="D6" t="n">
-        <v>23.84773931306728</v>
+        <v>35.889446747116224</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
@@ -301,7 +301,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>1598.272</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="3">
@@ -339,7 +339,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>25310.824961504106</v>
+        <v>25630.4249615041</v>
       </c>
     </row>
     <row r="7">
@@ -350,7 +350,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>24781.039247218396</v>
+        <v>24625.45591388506</v>
       </c>
     </row>
     <row r="8">
@@ -361,7 +361,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>22659.335322496554</v>
+        <v>22519.310322496553</v>
       </c>
     </row>
     <row r="9">
@@ -405,7 +405,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>20222.547467277527</v>
+        <v>20066.96413394419</v>
       </c>
     </row>
     <row r="13">
@@ -416,7 +416,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>19826.547467277527</v>
+        <v>19670.96413394419</v>
       </c>
     </row>
     <row r="14">
@@ -427,7 +427,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>13094.547467277527</v>
+        <v>12938.964133944195</v>
       </c>
     </row>
     <row r="15">
@@ -438,7 +438,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>12595.003821777525</v>
+        <v>11709.420488444193</v>
       </c>
     </row>
     <row r="16">
@@ -449,7 +449,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>12279.04782177753</v>
+        <v>12123.464488444197</v>
       </c>
     </row>
     <row r="17">
@@ -471,7 +471,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>270.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="19">
@@ -487,7 +487,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>248214.40160873416</v>
+        <v>251348.60694873414</v>
       </c>
     </row>
     <row r="21">
@@ -498,7 +498,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>243018.97853373422</v>
+        <v>241493.22723790086</v>
       </c>
     </row>
     <row r="22">
@@ -509,7 +509,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="n">
-        <v>222212.17074036077</v>
+        <v>220838.99457411078</v>
       </c>
     </row>
     <row r="23">
@@ -553,7 +553,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>198315.4451199771</v>
+        <v>196789.69382414376</v>
       </c>
     </row>
     <row r="27">
@@ -564,7 +564,7 @@
         <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>194432.01171997713</v>
+        <v>192906.26042414375</v>
       </c>
     </row>
     <row r="28">
@@ -575,7 +575,7 @@
         <v>24</v>
       </c>
       <c r="C28" t="n">
-        <v>128413.64391997714</v>
+        <v>126887.8926241438</v>
       </c>
     </row>
     <row r="29">
@@ -586,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="C29" t="n">
-        <v>123514.79422883455</v>
+        <v>114830.18843300123</v>
       </c>
     </row>
     <row r="30">
@@ -597,7 +597,7 @@
         <v>24</v>
       </c>
       <c r="C30" t="n">
-        <v>120416.3243214346</v>
+        <v>118890.57302560126</v>
       </c>
     </row>
     <row r="31">
@@ -619,7 +619,7 @@
         <v>24</v>
       </c>
       <c r="C32" t="n">
-        <v>2647.7954999999993</v>
+        <v>9806.649999999998</v>
       </c>
     </row>
   </sheetData>
@@ -657,7 +657,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>5004.699999999999</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="3">
@@ -689,10 +689,10 @@
         <v>42</v>
       </c>
       <c r="C6" t="n">
-        <v>3661.0</v>
+        <v>3234.0</v>
       </c>
       <c r="D6" t="n">
-        <v>-26.84876216356623</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="7">
@@ -703,10 +703,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>2530.0</v>
+        <v>2392.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-49.44751933182807</v>
+        <v>-20.266666666666666</v>
       </c>
     </row>
     <row r="8">
@@ -717,10 +717,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>3041.0</v>
+        <v>3067.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-39.23711710991666</v>
+        <v>2.2333333333333334</v>
       </c>
     </row>
     <row r="9">
@@ -731,10 +731,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>2972.0</v>
+        <v>2751.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-40.61582112813954</v>
+        <v>-8.3</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
         <v>2491.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-50.226786820388824</v>
+        <v>-16.966666666666665</v>
       </c>
     </row>
     <row r="11">
@@ -762,7 +762,7 @@
         <v>3698.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-26.109457110316285</v>
+        <v>23.266666666666666</v>
       </c>
     </row>
     <row r="12">
@@ -773,10 +773,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>3065.5</v>
+        <v>2938.833333333333</v>
       </c>
       <c r="D12" t="n">
-        <v>-38.74757727735927</v>
+        <v>-2.038888888888883</v>
       </c>
     </row>
   </sheetData>
@@ -814,7 +814,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>3209.0999999999995</v>
+        <v>2000.0</v>
       </c>
     </row>
     <row r="3">
@@ -857,10 +857,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>2418.0</v>
+        <v>2424.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-24.651771524726545</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="8">
@@ -871,10 +871,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>1804.0</v>
+        <v>1821.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-43.78486179925835</v>
+        <v>-8.95</v>
       </c>
     </row>
     <row r="9">
@@ -885,10 +885,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>2198.0</v>
+        <v>2077.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-31.507276183353575</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="10">
@@ -902,7 +902,7 @@
         <v>2299.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-28.35997631734753</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="11">
@@ -913,10 +913,10 @@
         <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>2501.0</v>
+        <v>2489.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-22.06537658533544</v>
+        <v>24.45</v>
       </c>
     </row>
     <row r="12">
@@ -927,10 +927,10 @@
         <v>42</v>
       </c>
       <c r="C12" t="n">
-        <v>2242.0</v>
+        <v>2247.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-30.13617525162817</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="13">
@@ -941,10 +941,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>1923.1428571428569</v>
+        <v>1908.1428571428569</v>
       </c>
       <c r="D13" t="n">
-        <v>-40.07220538023566</v>
+        <v>-4.592857142857143</v>
       </c>
     </row>
   </sheetData>
@@ -982,7 +982,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>548.3</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="3">
@@ -1028,7 +1028,7 @@
         <v>258.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-52.94546780959329</v>
+        <v>-57.0</v>
       </c>
     </row>
     <row r="8">
@@ -1042,7 +1042,7 @@
         <v>149.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-72.82509575050155</v>
+        <v>-75.16666666666667</v>
       </c>
     </row>
     <row r="9">
@@ -1053,10 +1053,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>134.0</v>
+        <v>136.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-75.56082436622286</v>
+        <v>-77.33333333333333</v>
       </c>
     </row>
     <row r="10">
@@ -1067,10 +1067,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>180.33333333333331</v>
+        <v>181.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-67.11046264210589</v>
+        <v>-69.83333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1108,7 +1108,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>452.69999999999993</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="3">
@@ -1154,7 +1154,7 @@
         <v>330.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-27.104042412193493</v>
+        <v>-17.5</v>
       </c>
     </row>
     <row r="8">
@@ -1165,10 +1165,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>228.0</v>
+        <v>229.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-49.63552021206096</v>
+        <v>-42.75</v>
       </c>
     </row>
     <row r="9">
@@ -1179,10 +1179,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>279.0</v>
+        <v>279.5</v>
       </c>
       <c r="D9" t="n">
-        <v>-38.36978131212723</v>
+        <v>-30.124999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1220,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>1306.7999999999997</v>
+        <v>900.0</v>
       </c>
     </row>
     <row r="3">
@@ -1231,10 +1231,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>657.9999999999998</v>
+        <v>628.6666666666665</v>
       </c>
       <c r="D3" t="n">
-        <v>-83.21599836751349</v>
+        <v>-76.71604938271604</v>
       </c>
     </row>
     <row r="4">
@@ -1277,7 +1277,7 @@
         <v>235.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-64.0342822161004</v>
+        <v>-47.777777777777764</v>
       </c>
     </row>
     <row r="10">
@@ -1288,10 +1288,10 @@
         <v>42</v>
       </c>
       <c r="C10" t="n">
-        <v>558.0</v>
+        <v>514.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-14.600550964187308</v>
+        <v>14.22222222222225</v>
       </c>
     </row>
     <row r="11">
@@ -1305,7 +1305,7 @@
         <v>194.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-70.30915212733393</v>
+        <v>-56.88888888888888</v>
       </c>
     </row>
     <row r="12">
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>329.0</v>
+        <v>314.33333333333326</v>
       </c>
     </row>
     <row r="13">
@@ -1349,7 +1349,7 @@
         <v>235.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-64.0342822161004</v>
+        <v>-47.777777777777764</v>
       </c>
     </row>
     <row r="17">
@@ -1360,10 +1360,10 @@
         <v>42</v>
       </c>
       <c r="C17" t="n">
-        <v>558.0</v>
+        <v>514.0</v>
       </c>
       <c r="D17" t="n">
-        <v>-14.600550964187308</v>
+        <v>14.22222222222225</v>
       </c>
     </row>
     <row r="18">
@@ -1377,7 +1377,7 @@
         <v>194.0</v>
       </c>
       <c r="D18" t="n">
-        <v>-70.30915212733393</v>
+        <v>-56.88888888888888</v>
       </c>
     </row>
     <row r="19">
@@ -1388,7 +1388,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>329.0</v>
+        <v>314.33333333333326</v>
       </c>
     </row>
     <row r="20">
@@ -1556,7 +1556,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>2233.0999999999995</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="3">
@@ -1577,10 +1577,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>828.0</v>
+        <v>840.0</v>
       </c>
       <c r="D5" t="n">
-        <v>-62.92149926111682</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="6">
@@ -1591,10 +1591,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>1014.0</v>
+        <v>1031.0</v>
       </c>
       <c r="D6" t="n">
-        <v>-54.59227083426625</v>
+        <v>106.2</v>
       </c>
     </row>
     <row r="7">
@@ -1605,10 +1605,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>1147.0</v>
+        <v>1166.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-48.63642470108816</v>
+        <v>133.2</v>
       </c>
     </row>
     <row r="8">
@@ -1619,10 +1619,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>996.0</v>
+        <v>1005.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-55.39832519815502</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="9">
@@ -1633,10 +1633,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>996.25</v>
+        <v>1010.5</v>
       </c>
       <c r="D9" t="n">
-        <v>-55.38712999865656</v>
+        <v>102.09999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1674,7 +1674,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>1822.772</v>
+        <v>2000.0</v>
       </c>
     </row>
     <row r="3">
@@ -1698,7 +1698,7 @@
         <v>2477.0</v>
       </c>
       <c r="D5" t="n">
-        <v>35.89192724048866</v>
+        <v>23.85</v>
       </c>
     </row>
     <row r="6">
@@ -1712,7 +1712,7 @@
         <v>2476.9547862613454</v>
       </c>
       <c r="D6" t="n">
-        <v>35.889446747116224</v>
+        <v>23.84773931306728</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
@@ -339,7 +339,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>25630.4249615041</v>
+        <v>24956.15829483744</v>
       </c>
     </row>
     <row r="7">
@@ -350,7 +350,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>24625.45591388506</v>
+        <v>24560.15829483744</v>
       </c>
     </row>
     <row r="8">
@@ -361,7 +361,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>22519.310322496553</v>
+        <v>22460.542465353697</v>
       </c>
     </row>
     <row r="9">
@@ -405,7 +405,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>20066.96413394419</v>
+        <v>20001.666514896573</v>
       </c>
     </row>
     <row r="13">
@@ -416,7 +416,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>19670.96413394419</v>
+        <v>19605.666514896573</v>
       </c>
     </row>
     <row r="14">
@@ -427,7 +427,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>12938.964133944195</v>
+        <v>12873.666514896577</v>
       </c>
     </row>
     <row r="15">
@@ -438,7 +438,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>11709.420488444193</v>
+        <v>11644.122869396575</v>
       </c>
     </row>
     <row r="16">
@@ -449,7 +449,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>12123.464488444197</v>
+        <v>12058.166869396577</v>
       </c>
     </row>
     <row r="17">
@@ -487,7 +487,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>251348.60694873414</v>
+        <v>244736.30974206753</v>
       </c>
     </row>
     <row r="21">
@@ -498,7 +498,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>241493.22723790086</v>
+        <v>240852.87634206755</v>
       </c>
     </row>
     <row r="22">
@@ -509,7 +509,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="n">
-        <v>220838.99457411078</v>
+        <v>220262.67876786078</v>
       </c>
     </row>
     <row r="23">
@@ -553,7 +553,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>196789.69382414376</v>
+        <v>196149.34292831045</v>
       </c>
     </row>
     <row r="27">
@@ -564,7 +564,7 @@
         <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>192906.26042414375</v>
+        <v>192265.90952831044</v>
       </c>
     </row>
     <row r="28">
@@ -575,7 +575,7 @@
         <v>24</v>
       </c>
       <c r="C28" t="n">
-        <v>126887.8926241438</v>
+        <v>126247.54172831048</v>
       </c>
     </row>
     <row r="29">
@@ -586,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="C29" t="n">
-        <v>114830.18843300123</v>
+        <v>114189.83753716788</v>
       </c>
     </row>
     <row r="30">
@@ -597,7 +597,7 @@
         <v>24</v>
       </c>
       <c r="C30" t="n">
-        <v>118890.57302560126</v>
+        <v>118250.22212976794</v>
       </c>
     </row>
     <row r="31">
@@ -703,10 +703,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>2392.0</v>
+        <v>2371.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-20.266666666666666</v>
+        <v>-20.966666666666665</v>
       </c>
     </row>
     <row r="8">
@@ -717,10 +717,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>3067.0</v>
+        <v>3023.0</v>
       </c>
       <c r="D8" t="n">
-        <v>2.2333333333333334</v>
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="9">
@@ -731,10 +731,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>2751.0</v>
+        <v>2676.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.3</v>
+        <v>-10.8</v>
       </c>
     </row>
     <row r="10">
@@ -773,10 +773,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>2938.833333333333</v>
+        <v>2915.5</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.038888888888883</v>
+        <v>-2.816666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -857,10 +857,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>2424.0</v>
+        <v>2407.0</v>
       </c>
       <c r="D7" t="n">
-        <v>21.2</v>
+        <v>20.35</v>
       </c>
     </row>
     <row r="8">
@@ -871,10 +871,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>1821.0</v>
+        <v>1792.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.95</v>
+        <v>-10.4</v>
       </c>
     </row>
     <row r="9">
@@ -885,10 +885,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>2077.0</v>
+        <v>2027.0</v>
       </c>
       <c r="D9" t="n">
-        <v>3.85</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="10">
@@ -927,10 +927,10 @@
         <v>42</v>
       </c>
       <c r="C12" t="n">
-        <v>2247.0</v>
+        <v>2233.0</v>
       </c>
       <c r="D12" t="n">
-        <v>12.35</v>
+        <v>11.65</v>
       </c>
     </row>
     <row r="13">
@@ -941,10 +941,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>1908.1428571428569</v>
+        <v>1892.428571428571</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.592857142857143</v>
+        <v>-5.3785714285714326</v>
       </c>
     </row>
   </sheetData>
@@ -1053,10 +1053,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>136.0</v>
+        <v>133.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-77.33333333333333</v>
+        <v>-77.83333333333333</v>
       </c>
     </row>
     <row r="10">
@@ -1067,10 +1067,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>181.0</v>
+        <v>180.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-69.83333333333333</v>
+        <v>-69.99999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1165,10 +1165,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>229.0</v>
+        <v>228.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-42.75</v>
+        <v>-43.0</v>
       </c>
     </row>
     <row r="9">
@@ -1179,10 +1179,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>279.5</v>
+        <v>279.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-30.124999999999996</v>
+        <v>-30.25</v>
       </c>
     </row>
   </sheetData>
@@ -1577,10 +1577,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>840.0</v>
+        <v>820.0</v>
       </c>
       <c r="D5" t="n">
-        <v>68.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="6">
@@ -1591,10 +1591,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>1031.0</v>
+        <v>1002.0</v>
       </c>
       <c r="D6" t="n">
-        <v>106.2</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="7">
@@ -1605,10 +1605,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>1166.0</v>
+        <v>1134.0</v>
       </c>
       <c r="D7" t="n">
-        <v>133.2</v>
+        <v>126.8</v>
       </c>
     </row>
     <row r="8">
@@ -1619,10 +1619,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>1005.0</v>
+        <v>987.0</v>
       </c>
       <c r="D8" t="n">
-        <v>101.0</v>
+        <v>97.4</v>
       </c>
     </row>
     <row r="9">
@@ -1633,10 +1633,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>1010.5</v>
+        <v>985.75</v>
       </c>
       <c r="D9" t="n">
-        <v>102.09999999999997</v>
+        <v>97.14999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
@@ -339,7 +339,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>24956.15829483744</v>
+        <v>24956.015437694587</v>
       </c>
     </row>
     <row r="7">
@@ -350,7 +350,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>24560.15829483744</v>
+        <v>24560.015437694587</v>
       </c>
     </row>
     <row r="8">
@@ -361,7 +361,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>22460.542465353697</v>
+        <v>22460.413893925128</v>
       </c>
     </row>
     <row r="9">
@@ -405,7 +405,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>20001.666514896573</v>
+        <v>20001.523657753718</v>
       </c>
     </row>
     <row r="13">
@@ -416,7 +416,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>19605.666514896573</v>
+        <v>19605.523657753718</v>
       </c>
     </row>
     <row r="14">
@@ -427,7 +427,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>12873.666514896577</v>
+        <v>12873.523657753718</v>
       </c>
     </row>
     <row r="15">
@@ -438,7 +438,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>11644.122869396575</v>
+        <v>11643.980012253716</v>
       </c>
     </row>
     <row r="16">
@@ -449,7 +449,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>12058.166869396577</v>
+        <v>12058.024012253722</v>
       </c>
     </row>
     <row r="17">
@@ -487,7 +487,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>244736.30974206753</v>
+        <v>244734.90879206755</v>
       </c>
     </row>
     <row r="21">
@@ -498,7 +498,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>240852.87634206755</v>
+        <v>240851.47539206757</v>
       </c>
     </row>
     <row r="22">
@@ -509,7 +509,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="n">
-        <v>220262.67876786078</v>
+        <v>220261.4179128608</v>
       </c>
     </row>
     <row r="23">
@@ -553,7 +553,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>196149.34292831045</v>
+        <v>196147.94197831047</v>
       </c>
     </row>
     <row r="27">
@@ -564,7 +564,7 @@
         <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>192265.90952831044</v>
+        <v>192264.50857831046</v>
       </c>
     </row>
     <row r="28">
@@ -575,7 +575,7 @@
         <v>24</v>
       </c>
       <c r="C28" t="n">
-        <v>126247.54172831048</v>
+        <v>126246.14077831048</v>
       </c>
     </row>
     <row r="29">
@@ -586,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="C29" t="n">
-        <v>114189.83753716788</v>
+        <v>114188.43658716789</v>
       </c>
     </row>
     <row r="30">
@@ -597,7 +597,7 @@
         <v>24</v>
       </c>
       <c r="C30" t="n">
-        <v>118250.22212976794</v>
+        <v>118248.82117976793</v>
       </c>
     </row>
     <row r="31">
@@ -899,10 +899,10 @@
         <v>42</v>
       </c>
       <c r="C10" t="n">
-        <v>2299.0</v>
+        <v>2298.0</v>
       </c>
       <c r="D10" t="n">
-        <v>14.95</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="11">
@@ -941,10 +941,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>1892.428571428571</v>
+        <v>1892.2857142857142</v>
       </c>
       <c r="D13" t="n">
-        <v>-5.3785714285714326</v>
+        <v>-5.385714285714288</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="66">
   <si>
     <t>Description</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Maximum Passengers Mass</t>
+  </si>
+  <si>
+    <t>Maximum Fuel Mass</t>
   </si>
   <si>
     <t>Fuel Mass</t>
@@ -301,7 +304,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>200.0</v>
+        <v>1200.0</v>
       </c>
     </row>
     <row r="3">
@@ -323,7 +326,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>99.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="5">
@@ -339,7 +342,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>24956.015437694587</v>
+        <v>26046.215258116197</v>
       </c>
     </row>
     <row r="7">
@@ -350,7 +353,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>24560.015437694587</v>
+        <v>25674.215258116197</v>
       </c>
     </row>
     <row r="8">
@@ -361,7 +364,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>22460.413893925128</v>
+        <v>25264.828800372707</v>
       </c>
     </row>
     <row r="9">
@@ -372,7 +375,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>7128.0</v>
+        <v>6696.0</v>
       </c>
     </row>
     <row r="10">
@@ -394,7 +397,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>229.54364550000003</v>
+        <v>6889.111532305973</v>
       </c>
     </row>
     <row r="12">
@@ -405,7 +408,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>20001.523657753718</v>
+        <v>229.54364550000003</v>
       </c>
     </row>
     <row r="13">
@@ -416,7 +419,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>19605.523657753718</v>
+        <v>19157.103725810226</v>
       </c>
     </row>
     <row r="14">
@@ -427,7 +430,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>12873.523657753718</v>
+        <v>18785.103725810226</v>
       </c>
     </row>
     <row r="15">
@@ -438,7 +441,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>11643.980012253716</v>
+        <v>12461.10372581023</v>
       </c>
     </row>
     <row r="16">
@@ -449,7 +452,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>12058.024012253722</v>
+        <v>12231.560080310228</v>
       </c>
     </row>
     <row r="17">
@@ -460,7 +463,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>585.9559999999999</v>
+        <v>11611.13608031023</v>
       </c>
     </row>
     <row r="18">
@@ -471,34 +474,34 @@
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>1000.0</v>
+        <v>620.424</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="n">
-        <v>244734.90879206755</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
       <c r="C21" t="n">
-        <v>240851.47539206757</v>
+        <v>255426.11686100514</v>
       </c>
     </row>
     <row r="22">
@@ -506,10 +509,10 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="n">
-        <v>220261.4179128608</v>
+        <v>251778.04306100513</v>
       </c>
     </row>
     <row r="23">
@@ -517,10 +520,10 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="n">
-        <v>69901.80119999999</v>
+        <v>247763.33335517492</v>
       </c>
     </row>
     <row r="24">
@@ -528,10 +531,10 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="n">
-        <v>48586.96681375712</v>
+        <v>65665.32839999997</v>
       </c>
     </row>
     <row r="25">
@@ -539,10 +542,10 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" t="n">
-        <v>2251.0541911425744</v>
+        <v>48586.96681375712</v>
       </c>
     </row>
     <row r="26">
@@ -550,10 +553,10 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>196147.94197831047</v>
+        <v>2251.0541911425744</v>
       </c>
     </row>
     <row r="27">
@@ -561,10 +564,10 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>192264.50857831046</v>
+        <v>187867.01125271677</v>
       </c>
     </row>
     <row r="28">
@@ -572,10 +575,10 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" t="n">
-        <v>126246.14077831048</v>
+        <v>184218.9374527168</v>
       </c>
     </row>
     <row r="29">
@@ -583,10 +586,10 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C29" t="n">
-        <v>114188.43658716789</v>
+        <v>122201.68285271685</v>
       </c>
     </row>
     <row r="30">
@@ -594,10 +597,10 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" t="n">
-        <v>118248.82117976793</v>
+        <v>119950.62866157427</v>
       </c>
     </row>
     <row r="31">
@@ -605,10 +608,10 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C31" t="n">
-        <v>5746.265407399998</v>
+        <v>113866.3476419743</v>
       </c>
     </row>
     <row r="32">
@@ -616,10 +619,21 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C32" t="n">
-        <v>9806.649999999998</v>
+        <v>6084.281019599997</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -646,23 +660,23 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>3000.0</v>
+        <v>2509.087499999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -678,105 +692,105 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" t="n">
-        <v>3234.0</v>
+        <v>3661.0</v>
       </c>
       <c r="D6" t="n">
-        <v>7.8</v>
+        <v>45.90961853661946</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="n">
-        <v>2371.0</v>
+        <v>2549.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-20.966666666666665</v>
+        <v>1.590717741011475</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>3023.0</v>
+        <v>3077.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7666666666666667</v>
+        <v>22.63422459360232</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>2676.0</v>
+        <v>3038.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-10.8</v>
+        <v>21.07987465562686</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="n">
         <v>2491.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-16.966666666666665</v>
+        <v>-0.7208796026443373</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="n">
         <v>3698.0</v>
       </c>
       <c r="D11" t="n">
-        <v>23.266666666666666</v>
+        <v>47.384258221365414</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>2915.5</v>
+        <v>3085.666666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.816666666666666</v>
+        <v>22.979635690930156</v>
       </c>
     </row>
   </sheetData>
@@ -803,23 +817,23 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>2000.0</v>
+        <v>1672.7249999999997</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -830,7 +844,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -846,105 +860,105 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="n">
-        <v>2407.0</v>
+        <v>2400.0</v>
       </c>
       <c r="D7" t="n">
-        <v>20.35</v>
+        <v>43.47845581311936</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>1792.0</v>
+        <v>1680.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-10.4</v>
+        <v>0.43491906918355067</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>2027.0</v>
+        <v>1964.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.35</v>
+        <v>17.41320300706934</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="n">
-        <v>2298.0</v>
+        <v>2299.0</v>
       </c>
       <c r="D10" t="n">
-        <v>14.9</v>
+        <v>37.44040413098392</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="n">
-        <v>2489.0</v>
+        <v>2669.0</v>
       </c>
       <c r="D11" t="n">
-        <v>24.45</v>
+        <v>59.559999402173155</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="n">
-        <v>2233.0</v>
+        <v>2222.0</v>
       </c>
       <c r="D12" t="n">
-        <v>11.65</v>
+        <v>32.837137006979674</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>1892.2857142857142</v>
+        <v>1890.5714285714284</v>
       </c>
       <c r="D13" t="n">
-        <v>-5.385714285714288</v>
+        <v>13.023445489929836</v>
       </c>
     </row>
   </sheetData>
@@ -971,23 +985,23 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>600.0</v>
+        <v>250.90874999999994</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -998,7 +1012,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1014,63 +1028,63 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="n">
         <v>258.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-57.0</v>
+        <v>2.826226666068864</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="n">
         <v>149.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-75.16666666666667</v>
+        <v>-40.6158613440145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>133.0</v>
+        <v>136.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-77.83333333333333</v>
+        <v>-45.79702780393269</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>180.0</v>
+        <v>181.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-69.99999999999999</v>
+        <v>-27.862220827292767</v>
       </c>
     </row>
   </sheetData>
@@ -1097,23 +1111,23 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>400.0</v>
+        <v>250.90874999999994</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1124,7 +1138,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1140,49 +1154,49 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="n">
         <v>330.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-17.5</v>
+        <v>31.521917828692732</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>228.0</v>
+        <v>225.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-43.0</v>
+        <v>-10.32596511680041</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>279.0</v>
+        <v>277.5</v>
       </c>
       <c r="D9" t="n">
-        <v>-30.25</v>
+        <v>10.597976355946154</v>
       </c>
     </row>
   </sheetData>
@@ -1209,32 +1223,32 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>900.0</v>
+        <v>250.90874999999994</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>628.6666666666665</v>
+        <v>243.99999999999994</v>
       </c>
       <c r="D3" t="n">
-        <v>-76.71604938271604</v>
+        <v>-67.58449701999895</v>
       </c>
     </row>
     <row r="4">
@@ -1244,7 +1258,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -1254,12 +1268,12 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1268,55 +1282,55 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>235.0</v>
+        <v>52.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-47.777777777777764</v>
+        <v>-58.5506683206544</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="n">
-        <v>514.0</v>
+        <v>558.0</v>
       </c>
       <c r="D10" t="n">
-        <v>14.22222222222225</v>
+        <v>344.7832130206701</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="n">
-        <v>194.0</v>
+        <v>192.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-56.88888888888888</v>
+        <v>53.043686200660666</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>314.33333333333326</v>
+        <v>122.0</v>
       </c>
     </row>
     <row r="13">
@@ -1326,12 +1340,12 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1340,55 +1354,55 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" t="n">
-        <v>235.0</v>
+        <v>52.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-47.777777777777764</v>
+        <v>-58.5506683206544</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="n">
-        <v>514.0</v>
+        <v>558.0</v>
       </c>
       <c r="D17" t="n">
-        <v>14.22222222222225</v>
+        <v>344.7832130206701</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" t="n">
-        <v>194.0</v>
+        <v>192.0</v>
       </c>
       <c r="D18" t="n">
-        <v>-56.88888888888888</v>
+        <v>53.043686200660666</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>314.33333333333326</v>
+        <v>122.0</v>
       </c>
     </row>
     <row r="20">
@@ -1422,7 +1436,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1433,13 +1447,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>1447.8668450399996</v>
+        <v>1329.141763746719</v>
       </c>
     </row>
     <row r="4">
@@ -1449,7 +1463,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -1459,12 +1473,12 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1475,13 +1489,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>723.9334225199998</v>
+        <v>664.5708818733597</v>
       </c>
     </row>
     <row r="10">
@@ -1491,12 +1505,12 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1507,13 +1521,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>723.9334225199998</v>
+        <v>664.5708818733597</v>
       </c>
     </row>
     <row r="14">
@@ -1545,18 +1559,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>500.0</v>
+        <v>669.0899999999998</v>
       </c>
     </row>
     <row r="3">
@@ -1566,77 +1580,77 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>820.0</v>
+        <v>845.0</v>
       </c>
       <c r="D5" t="n">
-        <v>64.0</v>
+        <v>26.290932460506117</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>1002.0</v>
+        <v>1038.0</v>
       </c>
       <c r="D6" t="n">
-        <v>100.4</v>
+        <v>55.13608034793533</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>1134.0</v>
+        <v>1174.0</v>
       </c>
       <c r="D7" t="n">
-        <v>126.8</v>
+        <v>75.46219492146056</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>987.0</v>
+        <v>1051.0</v>
       </c>
       <c r="D8" t="n">
-        <v>97.4</v>
+        <v>57.07901777040465</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>985.75</v>
+        <v>1027.0</v>
       </c>
       <c r="D9" t="n">
-        <v>97.14999999999998</v>
+        <v>53.492056375076615</v>
       </c>
     </row>
   </sheetData>
@@ -1663,18 +1677,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>2000.0</v>
+        <v>669.0899999999998</v>
       </c>
     </row>
     <row r="3">
@@ -1684,35 +1698,35 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>2477.0</v>
+        <v>2324.0</v>
       </c>
       <c r="D5" t="n">
-        <v>23.85</v>
+        <v>247.33742844759317</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>2476.9547862613454</v>
+        <v>2324.2562213254223</v>
       </c>
       <c r="D6" t="n">
-        <v>23.84773931306728</v>
+        <v>247.37572244771587</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
@@ -304,7 +304,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>1200.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="3">
@@ -326,7 +326,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>93.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="5">
@@ -342,7 +342,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>26046.215258116197</v>
+        <v>21956.0753832672</v>
       </c>
     </row>
     <row r="7">
@@ -353,7 +353,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>25674.215258116197</v>
+        <v>21576.0753832672</v>
       </c>
     </row>
     <row r="8">
@@ -364,7 +364,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>25264.828800372707</v>
+        <v>21297.393121769186</v>
       </c>
     </row>
     <row r="9">
@@ -375,7 +375,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>6696.0</v>
+        <v>6840.0</v>
       </c>
     </row>
     <row r="10">
@@ -397,7 +397,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>6889.111532305973</v>
+        <v>3036.328800314118</v>
       </c>
     </row>
     <row r="12">
@@ -419,7 +419,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>19157.103725810226</v>
+        <v>18919.746582953085</v>
       </c>
     </row>
     <row r="14">
@@ -430,7 +430,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>18785.103725810226</v>
+        <v>18539.746582953085</v>
       </c>
     </row>
     <row r="15">
@@ -441,7 +441,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>12461.10372581023</v>
+        <v>12079.746582953088</v>
       </c>
     </row>
     <row r="16">
@@ -452,7 +452,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>12231.560080310228</v>
+        <v>11850.202937453087</v>
       </c>
     </row>
     <row r="17">
@@ -463,7 +463,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>11611.13608031023</v>
+        <v>11229.778937453088</v>
       </c>
     </row>
     <row r="18">
@@ -501,7 +501,7 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>255426.11686100514</v>
+        <v>215315.54665731726</v>
       </c>
     </row>
     <row r="22">
@@ -512,7 +512,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="n">
-        <v>251778.04306100513</v>
+        <v>211589.01965731726</v>
       </c>
     </row>
     <row r="23">
@@ -523,7 +523,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="n">
-        <v>247763.33335517492</v>
+        <v>208856.08025759773</v>
       </c>
     </row>
     <row r="24">
@@ -534,7 +534,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="n">
-        <v>65665.32839999997</v>
+        <v>67077.48599999998</v>
       </c>
     </row>
     <row r="25">
@@ -567,7 +567,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>187867.01125271677</v>
+        <v>185539.33282771683</v>
       </c>
     </row>
     <row r="28">
@@ -578,7 +578,7 @@
         <v>25</v>
       </c>
       <c r="C28" t="n">
-        <v>184218.9374527168</v>
+        <v>181812.80582771683</v>
       </c>
     </row>
     <row r="29">
@@ -589,7 +589,7 @@
         <v>25</v>
       </c>
       <c r="C29" t="n">
-        <v>122201.68285271685</v>
+        <v>118461.84682771686</v>
       </c>
     </row>
     <row r="30">
@@ -600,7 +600,7 @@
         <v>25</v>
       </c>
       <c r="C30" t="n">
-        <v>119950.62866157427</v>
+        <v>116210.79263657428</v>
       </c>
     </row>
     <row r="31">
@@ -611,7 +611,7 @@
         <v>25</v>
       </c>
       <c r="C31" t="n">
-        <v>113866.3476419743</v>
+        <v>110126.51161697431</v>
       </c>
     </row>
     <row r="32">
@@ -671,7 +671,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>2509.087499999999</v>
+        <v>2606.624999999999</v>
       </c>
     </row>
     <row r="3">
@@ -703,10 +703,10 @@
         <v>43</v>
       </c>
       <c r="C6" t="n">
-        <v>3661.0</v>
+        <v>3372.0</v>
       </c>
       <c r="D6" t="n">
-        <v>45.90961853661946</v>
+        <v>29.3626816285427</v>
       </c>
     </row>
     <row r="7">
@@ -717,10 +717,10 @@
         <v>43</v>
       </c>
       <c r="C7" t="n">
-        <v>2549.0</v>
+        <v>2322.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.590717741011475</v>
+        <v>-10.919292188174332</v>
       </c>
     </row>
     <row r="8">
@@ -731,10 +731,10 @@
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>3077.0</v>
+        <v>2830.0</v>
       </c>
       <c r="D8" t="n">
-        <v>22.63422459360232</v>
+        <v>8.569510382199242</v>
       </c>
     </row>
     <row r="9">
@@ -745,10 +745,10 @@
         <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>3038.0</v>
+        <v>2437.0</v>
       </c>
       <c r="D9" t="n">
-        <v>21.07987465562686</v>
+        <v>-6.507456960629133</v>
       </c>
     </row>
     <row r="10">
@@ -762,7 +762,7 @@
         <v>2491.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.7208796026443373</v>
+        <v>-4.435812592912257</v>
       </c>
     </row>
     <row r="11">
@@ -776,7 +776,7 @@
         <v>3698.0</v>
       </c>
       <c r="D11" t="n">
-        <v>47.384258221365414</v>
+        <v>41.86927540401865</v>
       </c>
     </row>
     <row r="12">
@@ -787,10 +787,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>3085.666666666666</v>
+        <v>2858.333333333333</v>
       </c>
       <c r="D12" t="n">
-        <v>22.979635690930156</v>
+        <v>9.656484278840807</v>
       </c>
     </row>
   </sheetData>
@@ -828,7 +828,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>1672.7249999999997</v>
+        <v>1737.7499999999995</v>
       </c>
     </row>
     <row r="3">
@@ -871,10 +871,10 @@
         <v>43</v>
       </c>
       <c r="C7" t="n">
-        <v>2400.0</v>
+        <v>2302.0</v>
       </c>
       <c r="D7" t="n">
-        <v>43.47845581311936</v>
+        <v>32.470148180118</v>
       </c>
     </row>
     <row r="8">
@@ -885,10 +885,10 @@
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>1680.0</v>
+        <v>1716.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.43491906918355067</v>
+        <v>-1.251618472162253</v>
       </c>
     </row>
     <row r="9">
@@ -899,10 +899,10 @@
         <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>1964.0</v>
+        <v>1934.0</v>
       </c>
       <c r="D9" t="n">
-        <v>17.41320300706934</v>
+        <v>11.29333908790105</v>
       </c>
     </row>
     <row r="10">
@@ -916,7 +916,7 @@
         <v>2299.0</v>
       </c>
       <c r="D10" t="n">
-        <v>37.44040413098392</v>
+        <v>32.29751114947493</v>
       </c>
     </row>
     <row r="11">
@@ -927,10 +927,10 @@
         <v>43</v>
       </c>
       <c r="C11" t="n">
-        <v>2669.0</v>
+        <v>2741.0</v>
       </c>
       <c r="D11" t="n">
-        <v>59.559999402173155</v>
+        <v>57.73270033088768</v>
       </c>
     </row>
     <row r="12">
@@ -941,10 +941,10 @@
         <v>43</v>
       </c>
       <c r="C12" t="n">
-        <v>2222.0</v>
+        <v>2257.0</v>
       </c>
       <c r="D12" t="n">
-        <v>32.837137006979674</v>
+        <v>29.880592720471906</v>
       </c>
     </row>
     <row r="13">
@@ -955,10 +955,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>1890.5714285714284</v>
+        <v>1892.7142857142858</v>
       </c>
       <c r="D13" t="n">
-        <v>13.023445489929836</v>
+        <v>8.917524713813041</v>
       </c>
     </row>
   </sheetData>
@@ -996,7 +996,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>250.90874999999994</v>
+        <v>260.6624999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1042,7 +1042,7 @@
         <v>258.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2.826226666068864</v>
+        <v>-1.0214357646381471</v>
       </c>
     </row>
     <row r="8">
@@ -1056,7 +1056,7 @@
         <v>149.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-40.6158613440145</v>
+        <v>-42.83796096484916</v>
       </c>
     </row>
     <row r="9">
@@ -1067,10 +1067,10 @@
         <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>136.0</v>
+        <v>122.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-45.79702780393269</v>
+        <v>-53.196182803433544</v>
       </c>
     </row>
     <row r="10">
@@ -1081,10 +1081,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>181.0</v>
+        <v>176.33333333333331</v>
       </c>
       <c r="D10" t="n">
-        <v>-27.862220827292767</v>
+        <v>-32.351859844306944</v>
       </c>
     </row>
   </sheetData>
@@ -1122,7 +1122,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>250.90874999999994</v>
+        <v>260.6624999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1168,7 +1168,7 @@
         <v>330.0</v>
       </c>
       <c r="D7" t="n">
-        <v>31.521917828692732</v>
+        <v>26.600489138253533</v>
       </c>
     </row>
     <row r="8">
@@ -1179,10 +1179,10 @@
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>225.0</v>
+        <v>226.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-10.32596511680041</v>
+        <v>-13.297846832590004</v>
       </c>
     </row>
     <row r="9">
@@ -1193,10 +1193,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>277.5</v>
+        <v>278.0</v>
       </c>
       <c r="D9" t="n">
-        <v>10.597976355946154</v>
+        <v>6.651321152831752</v>
       </c>
     </row>
   </sheetData>
@@ -1234,7 +1234,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>250.90874999999994</v>
+        <v>260.6624999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1248,7 +1248,7 @@
         <v>243.99999999999994</v>
       </c>
       <c r="D3" t="n">
-        <v>-67.58449701999895</v>
+        <v>-68.79745520228902</v>
       </c>
     </row>
     <row r="4">
@@ -1291,7 +1291,7 @@
         <v>52.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-58.5506683206544</v>
+        <v>-60.10166402915646</v>
       </c>
     </row>
     <row r="10">
@@ -1302,10 +1302,10 @@
         <v>43</v>
       </c>
       <c r="C10" t="n">
-        <v>558.0</v>
+        <v>528.0</v>
       </c>
       <c r="D10" t="n">
-        <v>344.7832130206701</v>
+        <v>305.12156524241135</v>
       </c>
     </row>
     <row r="11">
@@ -1319,7 +1319,7 @@
         <v>192.0</v>
       </c>
       <c r="D11" t="n">
-        <v>53.043686200660666</v>
+        <v>47.31693281542229</v>
       </c>
     </row>
     <row r="12">
@@ -1363,7 +1363,7 @@
         <v>52.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-58.5506683206544</v>
+        <v>-60.10166402915646</v>
       </c>
     </row>
     <row r="17">
@@ -1374,10 +1374,10 @@
         <v>43</v>
       </c>
       <c r="C17" t="n">
-        <v>558.0</v>
+        <v>528.0</v>
       </c>
       <c r="D17" t="n">
-        <v>344.7832130206701</v>
+        <v>305.12156524241135</v>
       </c>
     </row>
     <row r="18">
@@ -1391,7 +1391,7 @@
         <v>192.0</v>
       </c>
       <c r="D18" t="n">
-        <v>53.043686200660666</v>
+        <v>47.31693281542229</v>
       </c>
     </row>
     <row r="19">
@@ -1570,7 +1570,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>669.0899999999998</v>
+        <v>695.0999999999998</v>
       </c>
     </row>
     <row r="3">
@@ -1591,10 +1591,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>845.0</v>
+        <v>734.0</v>
       </c>
       <c r="D5" t="n">
-        <v>26.290932460506117</v>
+        <v>5.596317076679663</v>
       </c>
     </row>
     <row r="6">
@@ -1605,10 +1605,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>1038.0</v>
+        <v>878.0</v>
       </c>
       <c r="D6" t="n">
-        <v>55.13608034793533</v>
+        <v>26.312760753848426</v>
       </c>
     </row>
     <row r="7">
@@ -1619,10 +1619,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>1174.0</v>
+        <v>998.0</v>
       </c>
       <c r="D7" t="n">
-        <v>75.46219492146056</v>
+        <v>43.57646381815573</v>
       </c>
     </row>
     <row r="8">
@@ -1633,10 +1633,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>1051.0</v>
+        <v>890.0</v>
       </c>
       <c r="D8" t="n">
-        <v>57.07901777040465</v>
+        <v>28.039131060279157</v>
       </c>
     </row>
     <row r="9">
@@ -1647,10 +1647,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>1027.0</v>
+        <v>875.0</v>
       </c>
       <c r="D9" t="n">
-        <v>53.492056375076615</v>
+        <v>25.88116817724071</v>
       </c>
     </row>
   </sheetData>
@@ -1688,7 +1688,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>669.0899999999998</v>
+        <v>695.0999999999998</v>
       </c>
     </row>
     <row r="3">
@@ -1712,7 +1712,7 @@
         <v>2324.0</v>
       </c>
       <c r="D5" t="n">
-        <v>247.33742844759317</v>
+        <v>234.3403826787514</v>
       </c>
     </row>
     <row r="6">
@@ -1726,7 +1726,7 @@
         <v>2324.2562213254223</v>
       </c>
       <c r="D6" t="n">
-        <v>247.37572244771587</v>
+        <v>234.37724375275826</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
@@ -283,7 +283,11 @@
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="35"/>
+  <cols>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -647,7 +651,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="35"/>
+  <cols>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -804,7 +812,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="35"/>
+  <cols>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -972,7 +984,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="35"/>
+  <cols>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -1098,7 +1114,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="35"/>
+  <cols>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -1210,7 +1230,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="35"/>
+  <cols>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -1421,7 +1445,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="35"/>
+  <cols>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -1546,7 +1574,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="35"/>
+  <cols>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -1664,7 +1696,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="35"/>
+  <cols>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">

--- a/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
@@ -308,7 +308,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>500.0</v>
+        <v>1375.293247</v>
       </c>
     </row>
     <row r="3">
@@ -330,7 +330,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>95.0</v>
+        <v>106.0</v>
       </c>
     </row>
     <row r="5">
@@ -346,7 +346,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>21956.0753832672</v>
+        <v>27020.304767035734</v>
       </c>
     </row>
     <row r="7">
@@ -357,7 +357,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>21576.0753832672</v>
+        <v>26596.304767035734</v>
       </c>
     </row>
     <row r="8">
@@ -368,7 +368,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>21297.393121769186</v>
+        <v>26209.695624024658</v>
       </c>
     </row>
     <row r="9">
@@ -379,7 +379,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>6840.0</v>
+        <v>7632.0</v>
       </c>
     </row>
     <row r="10">
@@ -401,7 +401,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>3036.328800314118</v>
+        <v>5708.403422177888</v>
       </c>
     </row>
     <row r="12">
@@ -423,7 +423,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>18919.746582953085</v>
+        <v>21311.901344857844</v>
       </c>
     </row>
     <row r="14">
@@ -434,7 +434,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>18539.746582953085</v>
+        <v>20887.901344857844</v>
       </c>
     </row>
     <row r="15">
@@ -445,7 +445,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>12079.746582953088</v>
+        <v>13679.901344857848</v>
       </c>
     </row>
     <row r="16">
@@ -456,7 +456,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>11850.202937453087</v>
+        <v>13450.357699357846</v>
       </c>
     </row>
     <row r="17">
@@ -467,7 +467,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>11229.778937453088</v>
+        <v>12829.93369935785</v>
       </c>
     </row>
     <row r="18">
@@ -505,7 +505,7 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>215315.54665731726</v>
+        <v>264978.6717436509</v>
       </c>
     </row>
     <row r="22">
@@ -516,7 +516,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="n">
-        <v>211589.01965731726</v>
+        <v>260820.65214365092</v>
       </c>
     </row>
     <row r="23">
@@ -527,7 +527,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="n">
-        <v>208856.08025759773</v>
+        <v>257029.31159134133</v>
       </c>
     </row>
     <row r="24">
@@ -538,7 +538,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="n">
-        <v>67077.48599999998</v>
+        <v>74844.35279999998</v>
       </c>
     </row>
     <row r="25">
@@ -571,7 +571,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>185539.33282771683</v>
+        <v>208998.3573235501</v>
       </c>
     </row>
     <row r="28">
@@ -582,7 +582,7 @@
         <v>25</v>
       </c>
       <c r="C28" t="n">
-        <v>181812.80582771683</v>
+        <v>204840.3377235501</v>
       </c>
     </row>
     <row r="29">
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="C29" t="n">
-        <v>118461.84682771686</v>
+        <v>134154.00452355016</v>
       </c>
     </row>
     <row r="30">
@@ -604,7 +604,7 @@
         <v>25</v>
       </c>
       <c r="C30" t="n">
-        <v>116210.79263657428</v>
+        <v>131902.95033240755</v>
       </c>
     </row>
     <row r="31">
@@ -615,7 +615,7 @@
         <v>25</v>
       </c>
       <c r="C31" t="n">
-        <v>110126.51161697431</v>
+        <v>125818.66931280764</v>
       </c>
     </row>
     <row r="32">
@@ -679,7 +679,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>2606.624999999999</v>
+        <v>6031.124999999998</v>
       </c>
     </row>
     <row r="3">
@@ -714,7 +714,7 @@
         <v>3372.0</v>
       </c>
       <c r="D6" t="n">
-        <v>29.3626816285427</v>
+        <v>-44.09003295405085</v>
       </c>
     </row>
     <row r="7">
@@ -725,10 +725,10 @@
         <v>43</v>
       </c>
       <c r="C7" t="n">
-        <v>2322.0</v>
+        <v>2478.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-10.919292188174332</v>
+        <v>-58.91313809612633</v>
       </c>
     </row>
     <row r="8">
@@ -739,10 +739,10 @@
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>2830.0</v>
+        <v>3140.0</v>
       </c>
       <c r="D8" t="n">
-        <v>8.569510382199242</v>
+        <v>-47.93674480300108</v>
       </c>
     </row>
     <row r="9">
@@ -753,10 +753,10 @@
         <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>2437.0</v>
+        <v>2968.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.507456960629133</v>
+        <v>-50.78861738067109</v>
       </c>
     </row>
     <row r="10">
@@ -770,7 +770,7 @@
         <v>2491.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.435812592912257</v>
+        <v>-58.69758958734895</v>
       </c>
     </row>
     <row r="11">
@@ -784,7 +784,7 @@
         <v>3698.0</v>
       </c>
       <c r="D11" t="n">
-        <v>41.86927540401865</v>
+        <v>-38.684739580094906</v>
       </c>
     </row>
     <row r="12">
@@ -795,10 +795,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>2858.333333333333</v>
+        <v>3024.5</v>
       </c>
       <c r="D12" t="n">
-        <v>9.656484278840807</v>
+        <v>-49.85181040021553</v>
       </c>
     </row>
   </sheetData>
@@ -840,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>1737.7499999999995</v>
+        <v>4020.749999999999</v>
       </c>
     </row>
     <row r="3">
@@ -883,10 +883,10 @@
         <v>43</v>
       </c>
       <c r="C7" t="n">
-        <v>2302.0</v>
+        <v>2488.0</v>
       </c>
       <c r="D7" t="n">
-        <v>32.470148180118</v>
+        <v>-38.12099732636945</v>
       </c>
     </row>
     <row r="8">
@@ -897,10 +897,10 @@
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>1716.0</v>
+        <v>2738.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.251618472162253</v>
+        <v>-31.903251880867984</v>
       </c>
     </row>
     <row r="9">
@@ -911,10 +911,10 @@
         <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>1934.0</v>
+        <v>3913.0</v>
       </c>
       <c r="D9" t="n">
-        <v>11.29333908790105</v>
+        <v>-2.6798482870111076</v>
       </c>
     </row>
     <row r="10">
@@ -928,7 +928,7 @@
         <v>2299.0</v>
       </c>
       <c r="D10" t="n">
-        <v>32.29751114947493</v>
+        <v>-42.82161288316855</v>
       </c>
     </row>
     <row r="11">
@@ -939,10 +939,10 @@
         <v>43</v>
       </c>
       <c r="C11" t="n">
-        <v>2741.0</v>
+        <v>4931.0</v>
       </c>
       <c r="D11" t="n">
-        <v>57.73270033088768</v>
+        <v>22.63881116707085</v>
       </c>
     </row>
     <row r="12">
@@ -953,10 +953,10 @@
         <v>43</v>
       </c>
       <c r="C12" t="n">
-        <v>2257.0</v>
+        <v>3506.0</v>
       </c>
       <c r="D12" t="n">
-        <v>29.880592720471906</v>
+        <v>-12.80233787228749</v>
       </c>
     </row>
     <row r="13">
@@ -967,10 +967,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>1892.7142857142858</v>
+        <v>2839.2857142857138</v>
       </c>
       <c r="D13" t="n">
-        <v>8.917524713813041</v>
+        <v>-29.384176726090526</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +1012,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>260.6624999999999</v>
+        <v>603.1124999999997</v>
       </c>
     </row>
     <row r="3">
@@ -1058,7 +1058,7 @@
         <v>258.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.0214357646381471</v>
+        <v>-57.22191133494992</v>
       </c>
     </row>
     <row r="8">
@@ -1072,7 +1072,7 @@
         <v>149.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-42.83796096484916</v>
+        <v>-75.29482476320752</v>
       </c>
     </row>
     <row r="9">
@@ -1083,10 +1083,10 @@
         <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>122.0</v>
+        <v>140.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-53.196182803433544</v>
+        <v>-76.78708367012787</v>
       </c>
     </row>
     <row r="10">
@@ -1097,10 +1097,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>176.33333333333331</v>
+        <v>182.33333333333331</v>
       </c>
       <c r="D10" t="n">
-        <v>-32.351859844306944</v>
+        <v>-69.76793992276176</v>
       </c>
     </row>
   </sheetData>
@@ -1142,7 +1142,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>260.6624999999999</v>
+        <v>603.1124999999997</v>
       </c>
     </row>
     <row r="3">
@@ -1188,7 +1188,7 @@
         <v>330.0</v>
       </c>
       <c r="D7" t="n">
-        <v>26.600489138253533</v>
+        <v>-45.283840079587115</v>
       </c>
     </row>
     <row r="8">
@@ -1199,10 +1199,10 @@
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>226.0</v>
+        <v>262.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-13.297846832590004</v>
+        <v>-56.55868515409644</v>
       </c>
     </row>
     <row r="9">
@@ -1213,10 +1213,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>278.0</v>
+        <v>296.0</v>
       </c>
       <c r="D9" t="n">
-        <v>6.651321152831752</v>
+        <v>-50.92126261684178</v>
       </c>
     </row>
   </sheetData>
@@ -1258,7 +1258,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>260.6624999999999</v>
+        <v>603.1124999999997</v>
       </c>
     </row>
     <row r="3">
@@ -1269,10 +1269,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>243.99999999999994</v>
+        <v>514.6666666666665</v>
       </c>
       <c r="D3" t="n">
-        <v>-68.79745520228902</v>
+        <v>-71.55496602117255</v>
       </c>
     </row>
     <row r="4">
@@ -1315,7 +1315,7 @@
         <v>52.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-60.10166402915646</v>
+        <v>-82.75611929780926</v>
       </c>
     </row>
     <row r="10">
@@ -1329,7 +1329,7 @@
         <v>528.0</v>
       </c>
       <c r="D10" t="n">
-        <v>305.12156524241135</v>
+        <v>75.09171174532123</v>
       </c>
     </row>
     <row r="11">
@@ -1343,7 +1343,7 @@
         <v>192.0</v>
       </c>
       <c r="D11" t="n">
-        <v>47.31693281542229</v>
+        <v>-36.330286638065004</v>
       </c>
     </row>
     <row r="12">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>122.0</v>
+        <v>257.33333333333326</v>
       </c>
     </row>
     <row r="13">
@@ -1387,7 +1387,7 @@
         <v>52.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-60.10166402915646</v>
+        <v>-82.75611929780926</v>
       </c>
     </row>
     <row r="17">
@@ -1401,7 +1401,7 @@
         <v>528.0</v>
       </c>
       <c r="D17" t="n">
-        <v>305.12156524241135</v>
+        <v>75.09171174532123</v>
       </c>
     </row>
     <row r="18">
@@ -1415,7 +1415,7 @@
         <v>192.0</v>
       </c>
       <c r="D18" t="n">
-        <v>47.31693281542229</v>
+        <v>-36.330286638065004</v>
       </c>
     </row>
     <row r="19">
@@ -1426,7 +1426,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>122.0</v>
+        <v>257.33333333333326</v>
       </c>
     </row>
     <row r="20">
@@ -1602,7 +1602,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>695.0999999999998</v>
+        <v>1608.2999999999997</v>
       </c>
     </row>
     <row r="3">
@@ -1623,10 +1623,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>734.0</v>
+        <v>874.0</v>
       </c>
       <c r="D5" t="n">
-        <v>5.596317076679663</v>
+        <v>-45.65690480631722</v>
       </c>
     </row>
     <row r="6">
@@ -1637,10 +1637,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>878.0</v>
+        <v>1081.0</v>
       </c>
       <c r="D6" t="n">
-        <v>26.312760753848426</v>
+        <v>-32.78617173412919</v>
       </c>
     </row>
     <row r="7">
@@ -1651,10 +1651,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>998.0</v>
+        <v>1221.0</v>
       </c>
       <c r="D7" t="n">
-        <v>43.57646381815573</v>
+        <v>-24.081328110427144</v>
       </c>
     </row>
     <row r="8">
@@ -1665,10 +1665,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>890.0</v>
+        <v>1095.0</v>
       </c>
       <c r="D8" t="n">
-        <v>28.039131060279157</v>
+        <v>-31.915687371758988</v>
       </c>
     </row>
     <row r="9">
@@ -1679,10 +1679,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>875.0</v>
+        <v>1067.75</v>
       </c>
       <c r="D9" t="n">
-        <v>25.88116817724071</v>
+        <v>-33.61002300565813</v>
       </c>
     </row>
   </sheetData>
@@ -1724,7 +1724,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>695.0999999999998</v>
+        <v>1608.2999999999997</v>
       </c>
     </row>
     <row r="3">
@@ -1748,7 +1748,7 @@
         <v>2324.0</v>
       </c>
       <c r="D5" t="n">
-        <v>234.3403826787514</v>
+        <v>44.500404153453985</v>
       </c>
     </row>
     <row r="6">
@@ -1762,7 +1762,7 @@
         <v>2324.2562213254223</v>
       </c>
       <c r="D6" t="n">
-        <v>234.37724375275826</v>
+        <v>44.516335343245814</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
@@ -308,7 +308,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>1375.293247</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="3">
@@ -330,7 +330,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>106.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="5">
@@ -346,7 +346,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>27020.304767035734</v>
+        <v>21956.0753832672</v>
       </c>
     </row>
     <row r="7">
@@ -357,7 +357,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>26596.304767035734</v>
+        <v>21576.0753832672</v>
       </c>
     </row>
     <row r="8">
@@ -368,7 +368,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>26209.695624024658</v>
+        <v>21297.393121769186</v>
       </c>
     </row>
     <row r="9">
@@ -379,7 +379,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>7632.0</v>
+        <v>6840.0</v>
       </c>
     </row>
     <row r="10">
@@ -401,7 +401,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>5708.403422177888</v>
+        <v>3036.328800314118</v>
       </c>
     </row>
     <row r="12">
@@ -423,7 +423,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>21311.901344857844</v>
+        <v>18919.746582953085</v>
       </c>
     </row>
     <row r="14">
@@ -434,7 +434,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>20887.901344857844</v>
+        <v>18539.746582953085</v>
       </c>
     </row>
     <row r="15">
@@ -445,7 +445,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>13679.901344857848</v>
+        <v>12079.746582953088</v>
       </c>
     </row>
     <row r="16">
@@ -456,7 +456,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>13450.357699357846</v>
+        <v>11850.202937453087</v>
       </c>
     </row>
     <row r="17">
@@ -467,7 +467,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>12829.93369935785</v>
+        <v>11229.778937453088</v>
       </c>
     </row>
     <row r="18">
@@ -505,7 +505,7 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>264978.6717436509</v>
+        <v>215315.54665731726</v>
       </c>
     </row>
     <row r="22">
@@ -516,7 +516,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="n">
-        <v>260820.65214365092</v>
+        <v>211589.01965731726</v>
       </c>
     </row>
     <row r="23">
@@ -527,7 +527,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="n">
-        <v>257029.31159134133</v>
+        <v>208856.08025759773</v>
       </c>
     </row>
     <row r="24">
@@ -538,7 +538,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="n">
-        <v>74844.35279999998</v>
+        <v>67077.48599999998</v>
       </c>
     </row>
     <row r="25">
@@ -571,7 +571,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>208998.3573235501</v>
+        <v>185539.33282771683</v>
       </c>
     </row>
     <row r="28">
@@ -582,7 +582,7 @@
         <v>25</v>
       </c>
       <c r="C28" t="n">
-        <v>204840.3377235501</v>
+        <v>181812.80582771683</v>
       </c>
     </row>
     <row r="29">
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="C29" t="n">
-        <v>134154.00452355016</v>
+        <v>118461.84682771686</v>
       </c>
     </row>
     <row r="30">
@@ -604,7 +604,7 @@
         <v>25</v>
       </c>
       <c r="C30" t="n">
-        <v>131902.95033240755</v>
+        <v>116210.79263657428</v>
       </c>
     </row>
     <row r="31">
@@ -615,7 +615,7 @@
         <v>25</v>
       </c>
       <c r="C31" t="n">
-        <v>125818.66931280764</v>
+        <v>110126.51161697431</v>
       </c>
     </row>
     <row r="32">
@@ -679,7 +679,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>6031.124999999998</v>
+        <v>2606.624999999999</v>
       </c>
     </row>
     <row r="3">
@@ -714,7 +714,7 @@
         <v>3372.0</v>
       </c>
       <c r="D6" t="n">
-        <v>-44.09003295405085</v>
+        <v>29.3626816285427</v>
       </c>
     </row>
     <row r="7">
@@ -725,10 +725,10 @@
         <v>43</v>
       </c>
       <c r="C7" t="n">
-        <v>2478.0</v>
+        <v>2322.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-58.91313809612633</v>
+        <v>-10.919292188174332</v>
       </c>
     </row>
     <row r="8">
@@ -739,10 +739,10 @@
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>3140.0</v>
+        <v>2830.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-47.93674480300108</v>
+        <v>8.569510382199242</v>
       </c>
     </row>
     <row r="9">
@@ -753,10 +753,10 @@
         <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>2968.0</v>
+        <v>2437.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-50.78861738067109</v>
+        <v>-6.507456960629133</v>
       </c>
     </row>
     <row r="10">
@@ -770,7 +770,7 @@
         <v>2491.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-58.69758958734895</v>
+        <v>-4.435812592912257</v>
       </c>
     </row>
     <row r="11">
@@ -784,7 +784,7 @@
         <v>3698.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-38.684739580094906</v>
+        <v>41.86927540401865</v>
       </c>
     </row>
     <row r="12">
@@ -795,10 +795,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>3024.5</v>
+        <v>2858.333333333333</v>
       </c>
       <c r="D12" t="n">
-        <v>-49.85181040021553</v>
+        <v>9.656484278840807</v>
       </c>
     </row>
   </sheetData>
@@ -840,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>4020.749999999999</v>
+        <v>1737.7499999999995</v>
       </c>
     </row>
     <row r="3">
@@ -883,10 +883,10 @@
         <v>43</v>
       </c>
       <c r="C7" t="n">
-        <v>2488.0</v>
+        <v>2302.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-38.12099732636945</v>
+        <v>32.470148180118</v>
       </c>
     </row>
     <row r="8">
@@ -897,10 +897,10 @@
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>2738.0</v>
+        <v>1716.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-31.903251880867984</v>
+        <v>-1.251618472162253</v>
       </c>
     </row>
     <row r="9">
@@ -911,10 +911,10 @@
         <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>3913.0</v>
+        <v>1934.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.6798482870111076</v>
+        <v>11.29333908790105</v>
       </c>
     </row>
     <row r="10">
@@ -928,7 +928,7 @@
         <v>2299.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-42.82161288316855</v>
+        <v>32.29751114947493</v>
       </c>
     </row>
     <row r="11">
@@ -939,10 +939,10 @@
         <v>43</v>
       </c>
       <c r="C11" t="n">
-        <v>4931.0</v>
+        <v>2741.0</v>
       </c>
       <c r="D11" t="n">
-        <v>22.63881116707085</v>
+        <v>57.73270033088768</v>
       </c>
     </row>
     <row r="12">
@@ -953,10 +953,10 @@
         <v>43</v>
       </c>
       <c r="C12" t="n">
-        <v>3506.0</v>
+        <v>2257.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-12.80233787228749</v>
+        <v>29.880592720471906</v>
       </c>
     </row>
     <row r="13">
@@ -967,10 +967,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>2839.2857142857138</v>
+        <v>1892.7142857142858</v>
       </c>
       <c r="D13" t="n">
-        <v>-29.384176726090526</v>
+        <v>8.917524713813041</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +1012,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>603.1124999999997</v>
+        <v>260.6624999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1058,7 +1058,7 @@
         <v>258.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-57.22191133494992</v>
+        <v>-1.0214357646381471</v>
       </c>
     </row>
     <row r="8">
@@ -1072,7 +1072,7 @@
         <v>149.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-75.29482476320752</v>
+        <v>-42.83796096484916</v>
       </c>
     </row>
     <row r="9">
@@ -1083,10 +1083,10 @@
         <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>140.0</v>
+        <v>122.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-76.78708367012787</v>
+        <v>-53.196182803433544</v>
       </c>
     </row>
     <row r="10">
@@ -1097,10 +1097,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>182.33333333333331</v>
+        <v>176.33333333333331</v>
       </c>
       <c r="D10" t="n">
-        <v>-69.76793992276176</v>
+        <v>-32.351859844306944</v>
       </c>
     </row>
   </sheetData>
@@ -1142,7 +1142,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>603.1124999999997</v>
+        <v>260.6624999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1188,7 +1188,7 @@
         <v>330.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-45.283840079587115</v>
+        <v>26.600489138253533</v>
       </c>
     </row>
     <row r="8">
@@ -1199,10 +1199,10 @@
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>262.0</v>
+        <v>226.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-56.55868515409644</v>
+        <v>-13.297846832590004</v>
       </c>
     </row>
     <row r="9">
@@ -1213,10 +1213,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>296.0</v>
+        <v>278.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-50.92126261684178</v>
+        <v>6.651321152831752</v>
       </c>
     </row>
   </sheetData>
@@ -1258,7 +1258,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>603.1124999999997</v>
+        <v>260.6624999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1269,10 +1269,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>514.6666666666665</v>
+        <v>243.99999999999994</v>
       </c>
       <c r="D3" t="n">
-        <v>-71.55496602117255</v>
+        <v>-68.79745520228902</v>
       </c>
     </row>
     <row r="4">
@@ -1315,7 +1315,7 @@
         <v>52.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-82.75611929780926</v>
+        <v>-60.10166402915646</v>
       </c>
     </row>
     <row r="10">
@@ -1329,7 +1329,7 @@
         <v>528.0</v>
       </c>
       <c r="D10" t="n">
-        <v>75.09171174532123</v>
+        <v>305.12156524241135</v>
       </c>
     </row>
     <row r="11">
@@ -1343,7 +1343,7 @@
         <v>192.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-36.330286638065004</v>
+        <v>47.31693281542229</v>
       </c>
     </row>
     <row r="12">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>257.33333333333326</v>
+        <v>122.0</v>
       </c>
     </row>
     <row r="13">
@@ -1387,7 +1387,7 @@
         <v>52.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-82.75611929780926</v>
+        <v>-60.10166402915646</v>
       </c>
     </row>
     <row r="17">
@@ -1401,7 +1401,7 @@
         <v>528.0</v>
       </c>
       <c r="D17" t="n">
-        <v>75.09171174532123</v>
+        <v>305.12156524241135</v>
       </c>
     </row>
     <row r="18">
@@ -1415,7 +1415,7 @@
         <v>192.0</v>
       </c>
       <c r="D18" t="n">
-        <v>-36.330286638065004</v>
+        <v>47.31693281542229</v>
       </c>
     </row>
     <row r="19">
@@ -1426,7 +1426,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>257.33333333333326</v>
+        <v>122.0</v>
       </c>
     </row>
     <row r="20">
@@ -1602,7 +1602,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>1608.2999999999997</v>
+        <v>695.0999999999998</v>
       </c>
     </row>
     <row r="3">
@@ -1623,10 +1623,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>874.0</v>
+        <v>734.0</v>
       </c>
       <c r="D5" t="n">
-        <v>-45.65690480631722</v>
+        <v>5.596317076679663</v>
       </c>
     </row>
     <row r="6">
@@ -1637,10 +1637,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>1081.0</v>
+        <v>878.0</v>
       </c>
       <c r="D6" t="n">
-        <v>-32.78617173412919</v>
+        <v>26.312760753848426</v>
       </c>
     </row>
     <row r="7">
@@ -1651,10 +1651,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>1221.0</v>
+        <v>998.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-24.081328110427144</v>
+        <v>43.57646381815573</v>
       </c>
     </row>
     <row r="8">
@@ -1665,10 +1665,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>1095.0</v>
+        <v>890.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-31.915687371758988</v>
+        <v>28.039131060279157</v>
       </c>
     </row>
     <row r="9">
@@ -1679,10 +1679,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>1067.75</v>
+        <v>875.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-33.61002300565813</v>
+        <v>25.88116817724071</v>
       </c>
     </row>
   </sheetData>
@@ -1724,7 +1724,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>1608.2999999999997</v>
+        <v>695.0999999999998</v>
       </c>
     </row>
     <row r="3">
@@ -1748,7 +1748,7 @@
         <v>2324.0</v>
       </c>
       <c r="D5" t="n">
-        <v>44.500404153453985</v>
+        <v>234.3403826787514</v>
       </c>
     </row>
     <row r="6">
@@ -1762,7 +1762,7 @@
         <v>2324.2562213254223</v>
       </c>
       <c r="D6" t="n">
-        <v>44.516335343245814</v>
+        <v>234.37724375275826</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="70">
   <si>
     <t>Description</t>
   </si>
@@ -64,6 +64,9 @@
     <t>Maximum Passengers Mass</t>
   </si>
   <si>
+    <t>Actual Passengers Mass</t>
+  </si>
+  <si>
     <t>Maximum Fuel Mass</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>Operating Item Mass</t>
   </si>
   <si>
+    <t>Furnishings and Equipments Mass</t>
+  </si>
+  <si>
     <t>Trapped Fuel Oil Mass</t>
   </si>
   <si>
@@ -109,6 +115,9 @@
     <t>Maximum Passengers Weight</t>
   </si>
   <si>
+    <t>Actual Passengers Weight</t>
+  </si>
+  <si>
     <t>Fuel Weight</t>
   </si>
   <si>
@@ -131,6 +140,9 @@
   </si>
   <si>
     <t>Operating Item Weight</t>
+  </si>
+  <si>
+    <t>Furnishings and Equipments Weight</t>
   </si>
   <si>
     <t>Trapped Fuel Oil Weight</t>
@@ -346,7 +358,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>21956.0753832672</v>
+        <v>21955.92750895614</v>
       </c>
     </row>
     <row r="7">
@@ -357,7 +369,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>21576.0753832672</v>
+        <v>21575.92750895614</v>
       </c>
     </row>
     <row r="8">
@@ -368,7 +380,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>21297.393121769186</v>
+        <v>21297.249683687452</v>
       </c>
     </row>
     <row r="9">
@@ -390,7 +402,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>4954.49177994087</v>
+        <v>6460.0</v>
       </c>
     </row>
     <row r="11">
@@ -401,7 +413,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>3036.328800314118</v>
+        <v>4954.49177994087</v>
       </c>
     </row>
     <row r="12">
@@ -412,7 +424,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>229.54364550000003</v>
+        <v>3036.3083506198227</v>
       </c>
     </row>
     <row r="13">
@@ -423,7 +435,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>18919.746582953085</v>
+        <v>229.54364550000003</v>
       </c>
     </row>
     <row r="14">
@@ -434,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>18539.746582953085</v>
+        <v>18919.619158336318</v>
       </c>
     </row>
     <row r="15">
@@ -445,7 +457,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>12079.746582953088</v>
+        <v>18539.619158336318</v>
       </c>
     </row>
     <row r="16">
@@ -456,7 +468,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>11850.202937453087</v>
+        <v>12079.619158336322</v>
       </c>
     </row>
     <row r="17">
@@ -467,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>11229.778937453088</v>
+        <v>11850.07551283632</v>
       </c>
     </row>
     <row r="18">
@@ -478,7 +490,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>620.424</v>
+        <v>11229.65151283632</v>
       </c>
     </row>
     <row r="19">
@@ -489,45 +501,45 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0</v>
+        <v>620.424</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1251.8725753832337</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>215315.54665731726</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="n">
-        <v>211589.01965731726</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
       <c r="C23" t="n">
-        <v>208856.08025759773</v>
+        <v>215314.09650570469</v>
       </c>
     </row>
     <row r="24">
@@ -535,10 +547,10 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C24" t="n">
-        <v>67077.48599999998</v>
+        <v>211587.56950570468</v>
       </c>
     </row>
     <row r="25">
@@ -546,10 +558,10 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C25" t="n">
-        <v>48586.96681375712</v>
+        <v>208854.67361053347</v>
       </c>
     </row>
     <row r="26">
@@ -557,10 +569,10 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C26" t="n">
-        <v>2251.0541911425744</v>
+        <v>67077.48599999998</v>
       </c>
     </row>
     <row r="27">
@@ -568,10 +580,10 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C27" t="n">
-        <v>185539.33282771683</v>
+        <v>63350.95899999998</v>
       </c>
     </row>
     <row r="28">
@@ -579,10 +591,10 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>181812.80582771683</v>
+        <v>48586.96681375712</v>
       </c>
     </row>
     <row r="29">
@@ -590,10 +602,10 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>118461.84682771686</v>
+        <v>2251.0541911425744</v>
       </c>
     </row>
     <row r="30">
@@ -601,10 +613,10 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C30" t="n">
-        <v>116210.79263657428</v>
+        <v>185538.0832190988</v>
       </c>
     </row>
     <row r="31">
@@ -612,10 +624,10 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C31" t="n">
-        <v>110126.51161697431</v>
+        <v>181811.5562190988</v>
       </c>
     </row>
     <row r="32">
@@ -623,10 +635,10 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C32" t="n">
-        <v>6084.281019599997</v>
+        <v>118460.59721909885</v>
       </c>
     </row>
     <row r="33">
@@ -634,9 +646,53 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C33" t="n">
+        <v>116209.54302795627</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="n">
+        <v>110125.26200835628</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6084.281019599997</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="n">
+        <v>12276.676191381986</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -668,12 +724,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -684,7 +740,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -700,15 +756,15 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C6" t="n">
         <v>3372.0</v>
@@ -719,10 +775,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n">
         <v>2322.0</v>
@@ -733,10 +789,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
         <v>2830.0</v>
@@ -747,10 +803,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
         <v>2437.0</v>
@@ -761,10 +817,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
         <v>2491.0</v>
@@ -775,10 +831,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
         <v>3698.0</v>
@@ -789,7 +845,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -829,12 +885,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -845,7 +901,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -856,7 +912,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -872,15 +928,15 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n">
         <v>2302.0</v>
@@ -891,10 +947,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
         <v>1716.0</v>
@@ -905,10 +961,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
         <v>1934.0</v>
@@ -919,10 +975,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
         <v>2299.0</v>
@@ -933,10 +989,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
         <v>2741.0</v>
@@ -947,10 +1003,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C12" t="n">
         <v>2257.0</v>
@@ -961,7 +1017,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1001,12 +1057,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1017,7 +1073,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1028,7 +1084,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1044,15 +1100,15 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n">
         <v>258.0</v>
@@ -1063,10 +1119,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
         <v>149.0</v>
@@ -1077,10 +1133,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
         <v>122.0</v>
@@ -1091,7 +1147,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1131,12 +1187,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1147,7 +1203,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1158,7 +1214,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1174,15 +1230,15 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n">
         <v>330.0</v>
@@ -1193,10 +1249,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
         <v>226.0</v>
@@ -1207,7 +1263,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1247,12 +1303,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1263,7 +1319,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1282,7 +1338,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -1292,12 +1348,12 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1306,10 +1362,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
         <v>52.0</v>
@@ -1320,10 +1376,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
         <v>528.0</v>
@@ -1334,10 +1390,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
         <v>192.0</v>
@@ -1348,7 +1404,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1364,12 +1420,12 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1378,10 +1434,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C16" t="n">
         <v>52.0</v>
@@ -1392,10 +1448,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C17" t="n">
         <v>528.0</v>
@@ -1406,10 +1462,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C18" t="n">
         <v>192.0</v>
@@ -1420,7 +1476,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -1464,7 +1520,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1475,7 +1531,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1491,7 +1547,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -1501,12 +1557,12 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1517,7 +1573,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1533,12 +1589,12 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1549,7 +1605,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1591,12 +1647,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1612,12 +1668,12 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1631,7 +1687,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1645,7 +1701,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1659,7 +1715,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1673,7 +1729,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1713,12 +1769,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1734,12 +1790,12 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1753,7 +1809,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>

--- a/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
@@ -358,7 +358,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>21955.92750895614</v>
+        <v>21955.43021694456</v>
       </c>
     </row>
     <row r="7">
@@ -369,7 +369,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>21575.92750895614</v>
+        <v>21575.43021694456</v>
       </c>
     </row>
     <row r="8">
@@ -380,7 +380,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>21297.249683687452</v>
+        <v>21296.76731043622</v>
       </c>
     </row>
     <row r="9">
@@ -424,7 +424,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>3036.3083506198227</v>
+        <v>3036.2395795835346</v>
       </c>
     </row>
     <row r="13">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>18919.619158336318</v>
+        <v>18919.190637361025</v>
       </c>
     </row>
     <row r="15">
@@ -457,7 +457,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>18539.619158336318</v>
+        <v>18539.190637361025</v>
       </c>
     </row>
     <row r="16">
@@ -468,7 +468,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>12079.619158336322</v>
+        <v>12079.190637361029</v>
       </c>
     </row>
     <row r="17">
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>11850.07551283632</v>
+        <v>11849.646991861027</v>
       </c>
     </row>
     <row r="18">
@@ -490,7 +490,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>11229.65151283632</v>
+        <v>11229.22299186103</v>
       </c>
     </row>
     <row r="19">
@@ -539,7 +539,7 @@
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>215314.09650570469</v>
+        <v>215309.2197369993</v>
       </c>
     </row>
     <row r="24">
@@ -550,7 +550,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="n">
-        <v>211587.56950570468</v>
+        <v>211582.6927369993</v>
       </c>
     </row>
     <row r="25">
@@ -561,7 +561,7 @@
         <v>27</v>
       </c>
       <c r="C25" t="n">
-        <v>208854.67361053347</v>
+        <v>208849.94314488926</v>
       </c>
     </row>
     <row r="26">
@@ -616,7 +616,7 @@
         <v>27</v>
       </c>
       <c r="C30" t="n">
-        <v>185538.0832190988</v>
+        <v>185533.88086387643</v>
       </c>
     </row>
     <row r="31">
@@ -627,7 +627,7 @@
         <v>27</v>
       </c>
       <c r="C31" t="n">
-        <v>181811.5562190988</v>
+        <v>181807.35386387643</v>
       </c>
     </row>
     <row r="32">
@@ -638,7 +638,7 @@
         <v>27</v>
       </c>
       <c r="C32" t="n">
-        <v>118460.59721909885</v>
+        <v>118456.39486387651</v>
       </c>
     </row>
     <row r="33">
@@ -649,7 +649,7 @@
         <v>27</v>
       </c>
       <c r="C33" t="n">
-        <v>116209.54302795627</v>
+        <v>116205.3406727339</v>
       </c>
     </row>
     <row r="34">
@@ -660,7 +660,7 @@
         <v>27</v>
       </c>
       <c r="C34" t="n">
-        <v>110125.26200835628</v>
+        <v>110121.05965313394</v>
       </c>
     </row>
     <row r="35">
@@ -967,10 +967,10 @@
         <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>1934.0</v>
+        <v>1935.0</v>
       </c>
       <c r="D9" t="n">
-        <v>11.29333908790105</v>
+        <v>11.350884764782073</v>
       </c>
     </row>
     <row r="10">
@@ -981,10 +981,10 @@
         <v>47</v>
       </c>
       <c r="C10" t="n">
-        <v>2299.0</v>
+        <v>2295.0</v>
       </c>
       <c r="D10" t="n">
-        <v>32.29751114947493</v>
+        <v>32.067328441950835</v>
       </c>
     </row>
     <row r="11">
@@ -1023,10 +1023,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>1892.7142857142858</v>
+        <v>1892.2857142857142</v>
       </c>
       <c r="D13" t="n">
-        <v>8.917524713813041</v>
+        <v>8.892862280864025</v>
       </c>
     </row>
   </sheetData>
@@ -1526,7 +1526,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>965.2445633599998</v>
+        <v>965.2445999999998</v>
       </c>
     </row>
     <row r="3">
@@ -1537,7 +1537,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>1329.141763746719</v>
+        <v>1329.1418141999993</v>
       </c>
     </row>
     <row r="4">
@@ -1568,7 +1568,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>482.6222816799999</v>
+        <v>482.6223</v>
       </c>
     </row>
     <row r="9">
@@ -1579,7 +1579,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>664.5708818733597</v>
+        <v>664.5709070999997</v>
       </c>
     </row>
     <row r="10">
@@ -1600,7 +1600,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>482.6222816799999</v>
+        <v>482.6223</v>
       </c>
     </row>
     <row r="13">
@@ -1611,7 +1611,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>664.5708818733597</v>
+        <v>664.5709070999997</v>
       </c>
     </row>
     <row r="14">

--- a/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
@@ -358,7 +358,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>21955.43021694456</v>
+        <v>22065.220353469886</v>
       </c>
     </row>
     <row r="7">
@@ -369,7 +369,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>21575.43021694456</v>
+        <v>21685.220353469886</v>
       </c>
     </row>
     <row r="8">
@@ -380,7 +380,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>21296.76731043622</v>
+        <v>21403.263742865784</v>
       </c>
     </row>
     <row r="9">
@@ -424,7 +424,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>3036.2395795835346</v>
+        <v>3051.422573251716</v>
       </c>
     </row>
     <row r="13">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>18919.190637361025</v>
+        <v>19013.79778021817</v>
       </c>
     </row>
     <row r="15">
@@ -457,7 +457,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>18539.190637361025</v>
+        <v>18633.79778021817</v>
       </c>
     </row>
     <row r="16">
@@ -468,7 +468,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>12079.190637361029</v>
+        <v>12173.797780218172</v>
       </c>
     </row>
     <row r="17">
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>11849.646991861027</v>
+        <v>11944.25413471817</v>
       </c>
     </row>
     <row r="18">
@@ -490,7 +490,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>11229.22299186103</v>
+        <v>11323.830134718173</v>
       </c>
     </row>
     <row r="19">
@@ -539,7 +539,7 @@
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>215309.2197369993</v>
+        <v>216385.89317935536</v>
       </c>
     </row>
     <row r="24">
@@ -550,7 +550,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="n">
-        <v>211582.6927369993</v>
+        <v>212659.36617935536</v>
       </c>
     </row>
     <row r="25">
@@ -561,7 +561,7 @@
         <v>27</v>
       </c>
       <c r="C25" t="n">
-        <v>208849.94314488926</v>
+        <v>209894.31638397468</v>
       </c>
     </row>
     <row r="26">
@@ -616,7 +616,7 @@
         <v>27</v>
       </c>
       <c r="C30" t="n">
-        <v>185533.88086387643</v>
+        <v>186461.66000137647</v>
       </c>
     </row>
     <row r="31">
@@ -627,7 +627,7 @@
         <v>27</v>
       </c>
       <c r="C31" t="n">
-        <v>181807.35386387643</v>
+        <v>182735.13300137647</v>
       </c>
     </row>
     <row r="32">
@@ -638,7 +638,7 @@
         <v>27</v>
       </c>
       <c r="C32" t="n">
-        <v>118456.39486387651</v>
+        <v>119384.1740013765</v>
       </c>
     </row>
     <row r="33">
@@ -649,7 +649,7 @@
         <v>27</v>
       </c>
       <c r="C33" t="n">
-        <v>116205.3406727339</v>
+        <v>117133.11981023391</v>
       </c>
     </row>
     <row r="34">
@@ -660,7 +660,7 @@
         <v>27</v>
       </c>
       <c r="C34" t="n">
-        <v>110121.05965313394</v>
+        <v>111048.83879063395</v>
       </c>
     </row>
     <row r="35">
@@ -767,10 +767,10 @@
         <v>47</v>
       </c>
       <c r="C6" t="n">
-        <v>3372.0</v>
+        <v>3610.0</v>
       </c>
       <c r="D6" t="n">
-        <v>29.3626816285427</v>
+        <v>38.49326236033189</v>
       </c>
     </row>
     <row r="7">
@@ -781,10 +781,10 @@
         <v>47</v>
       </c>
       <c r="C7" t="n">
-        <v>2322.0</v>
+        <v>2405.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-10.919292188174332</v>
+        <v>-7.735098067424319</v>
       </c>
     </row>
     <row r="8">
@@ -795,10 +795,10 @@
         <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>2830.0</v>
+        <v>2837.0</v>
       </c>
       <c r="D8" t="n">
-        <v>8.569510382199242</v>
+        <v>8.83805687431069</v>
       </c>
     </row>
     <row r="9">
@@ -809,10 +809,10 @@
         <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>2437.0</v>
+        <v>2578.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.507456960629133</v>
+        <v>-1.098163333812846</v>
       </c>
     </row>
     <row r="10">
@@ -851,10 +851,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>2858.333333333333</v>
+        <v>2936.5</v>
       </c>
       <c r="D12" t="n">
-        <v>9.656484278840807</v>
+        <v>12.655253440751956</v>
       </c>
     </row>
   </sheetData>
@@ -939,10 +939,10 @@
         <v>47</v>
       </c>
       <c r="C7" t="n">
-        <v>2302.0</v>
+        <v>2308.0</v>
       </c>
       <c r="D7" t="n">
-        <v>32.470148180118</v>
+        <v>32.81542224140415</v>
       </c>
     </row>
     <row r="8">
@@ -967,10 +967,10 @@
         <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>1935.0</v>
+        <v>2012.0</v>
       </c>
       <c r="D9" t="n">
-        <v>11.350884764782073</v>
+        <v>15.781901884620947</v>
       </c>
     </row>
     <row r="10">
@@ -1023,10 +1023,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>1892.2857142857142</v>
+        <v>1904.1428571428569</v>
       </c>
       <c r="D13" t="n">
-        <v>8.892862280864025</v>
+        <v>9.575189592453313</v>
       </c>
     </row>
   </sheetData>
@@ -1139,10 +1139,10 @@
         <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>122.0</v>
+        <v>123.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-53.196182803433544</v>
+        <v>-52.81254495756005</v>
       </c>
     </row>
     <row r="10">
@@ -1153,10 +1153,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>176.33333333333331</v>
+        <v>176.66666666666663</v>
       </c>
       <c r="D10" t="n">
-        <v>-32.351859844306944</v>
+        <v>-32.22398056234912</v>
       </c>
     </row>
   </sheetData>
@@ -1382,10 +1382,10 @@
         <v>47</v>
       </c>
       <c r="C10" t="n">
-        <v>528.0</v>
+        <v>553.0</v>
       </c>
       <c r="D10" t="n">
-        <v>305.12156524241135</v>
+        <v>324.3034575360861</v>
       </c>
     </row>
     <row r="11">
@@ -1454,10 +1454,10 @@
         <v>47</v>
       </c>
       <c r="C17" t="n">
-        <v>528.0</v>
+        <v>553.0</v>
       </c>
       <c r="D17" t="n">
-        <v>305.12156524241135</v>
+        <v>324.3034575360861</v>
       </c>
     </row>
     <row r="18">
@@ -1679,10 +1679,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>734.0</v>
+        <v>737.0</v>
       </c>
       <c r="D5" t="n">
-        <v>5.596317076679663</v>
+        <v>6.027909653287345</v>
       </c>
     </row>
     <row r="6">
@@ -1693,10 +1693,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>878.0</v>
+        <v>883.0</v>
       </c>
       <c r="D6" t="n">
-        <v>26.312760753848426</v>
+        <v>27.03208171486123</v>
       </c>
     </row>
     <row r="7">
@@ -1707,10 +1707,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>998.0</v>
+        <v>1003.0</v>
       </c>
       <c r="D7" t="n">
-        <v>43.57646381815573</v>
+        <v>44.295784779168535</v>
       </c>
     </row>
     <row r="8">
@@ -1721,10 +1721,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>890.0</v>
+        <v>894.0</v>
       </c>
       <c r="D8" t="n">
-        <v>28.039131060279157</v>
+        <v>28.6145878290894</v>
       </c>
     </row>
     <row r="9">
@@ -1735,10 +1735,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>875.0</v>
+        <v>879.25</v>
       </c>
       <c r="D9" t="n">
-        <v>25.88116817724071</v>
+        <v>26.49259099410159</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
@@ -358,7 +358,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>22065.220353469886</v>
+        <v>22163.090959821988</v>
       </c>
     </row>
     <row r="7">
@@ -369,7 +369,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>21685.220353469886</v>
+        <v>21783.090959821988</v>
       </c>
     </row>
     <row r="8">
@@ -380,7 +380,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>21403.263742865784</v>
+        <v>21498.198231027323</v>
       </c>
     </row>
     <row r="9">
@@ -424,7 +424,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>3051.422573251716</v>
+        <v>3064.9572025323923</v>
       </c>
     </row>
     <row r="13">
@@ -435,7 +435,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>229.54364550000003</v>
+        <v>306.05819399999996</v>
       </c>
     </row>
     <row r="14">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>19013.79778021817</v>
+        <v>19098.133757289597</v>
       </c>
     </row>
     <row r="15">
@@ -457,7 +457,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>18633.79778021817</v>
+        <v>18718.133757289597</v>
       </c>
     </row>
     <row r="16">
@@ -468,7 +468,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>12173.797780218172</v>
+        <v>12258.1337572896</v>
       </c>
     </row>
     <row r="17">
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>11944.25413471817</v>
+        <v>11952.0755632896</v>
       </c>
     </row>
     <row r="18">
@@ -490,7 +490,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>11323.830134718173</v>
+        <v>11331.651563289603</v>
       </c>
     </row>
     <row r="19">
@@ -539,7 +539,7 @@
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>216385.89317935536</v>
+        <v>217345.67596113821</v>
       </c>
     </row>
     <row r="24">
@@ -550,7 +550,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="n">
-        <v>212659.36617935536</v>
+        <v>213619.1489611382</v>
       </c>
     </row>
     <row r="25">
@@ -561,7 +561,7 @@
         <v>27</v>
       </c>
       <c r="C25" t="n">
-        <v>209894.31638397468</v>
+        <v>210825.30568230402</v>
       </c>
     </row>
     <row r="26">
@@ -605,7 +605,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>2251.0541911425744</v>
+        <v>3001.4055881900995</v>
       </c>
     </row>
     <row r="30">
@@ -616,7 +616,7 @@
         <v>27</v>
       </c>
       <c r="C30" t="n">
-        <v>186461.66000137647</v>
+        <v>187288.71341092396</v>
       </c>
     </row>
     <row r="31">
@@ -627,7 +627,7 @@
         <v>27</v>
       </c>
       <c r="C31" t="n">
-        <v>182735.13300137647</v>
+        <v>183562.18641092395</v>
       </c>
     </row>
     <row r="32">
@@ -638,7 +638,7 @@
         <v>27</v>
       </c>
       <c r="C32" t="n">
-        <v>119384.1740013765</v>
+        <v>120211.22741092404</v>
       </c>
     </row>
     <row r="33">
@@ -649,7 +649,7 @@
         <v>27</v>
       </c>
       <c r="C33" t="n">
-        <v>117133.11981023391</v>
+        <v>117209.82182273391</v>
       </c>
     </row>
     <row r="34">
@@ -660,7 +660,7 @@
         <v>27</v>
       </c>
       <c r="C34" t="n">
-        <v>111048.83879063395</v>
+        <v>111125.54080313396</v>
       </c>
     </row>
     <row r="35">
@@ -781,10 +781,10 @@
         <v>47</v>
       </c>
       <c r="C7" t="n">
-        <v>2405.0</v>
+        <v>2409.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.735098067424319</v>
+        <v>-7.581642929074921</v>
       </c>
     </row>
     <row r="8">
@@ -795,10 +795,10 @@
         <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>2837.0</v>
+        <v>2844.0</v>
       </c>
       <c r="D8" t="n">
-        <v>8.83805687431069</v>
+        <v>9.106603366422135</v>
       </c>
     </row>
     <row r="9">
@@ -809,10 +809,10 @@
         <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>2578.0</v>
+        <v>2588.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.098163333812846</v>
+        <v>-0.7145254879393506</v>
       </c>
     </row>
     <row r="10">
@@ -851,10 +851,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>2936.5</v>
+        <v>2940.0</v>
       </c>
       <c r="D12" t="n">
-        <v>12.655253440751956</v>
+        <v>12.789526686807678</v>
       </c>
     </row>
   </sheetData>
@@ -939,10 +939,10 @@
         <v>47</v>
       </c>
       <c r="C7" t="n">
-        <v>2308.0</v>
+        <v>2312.0</v>
       </c>
       <c r="D7" t="n">
-        <v>32.81542224140415</v>
+        <v>33.04560494892824</v>
       </c>
     </row>
     <row r="8">
@@ -1023,10 +1023,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>1904.1428571428569</v>
+        <v>1904.7142857142858</v>
       </c>
       <c r="D13" t="n">
-        <v>9.575189592453313</v>
+        <v>9.608072836385334</v>
       </c>
     </row>
   </sheetData>
@@ -1679,10 +1679,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>737.0</v>
+        <v>740.0</v>
       </c>
       <c r="D5" t="n">
-        <v>6.027909653287345</v>
+        <v>6.459502229895028</v>
       </c>
     </row>
     <row r="6">
@@ -1693,10 +1693,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>883.0</v>
+        <v>887.0</v>
       </c>
       <c r="D6" t="n">
-        <v>27.03208171486123</v>
+        <v>27.607538483671473</v>
       </c>
     </row>
     <row r="7">
@@ -1707,10 +1707,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>1003.0</v>
+        <v>1007.0</v>
       </c>
       <c r="D7" t="n">
-        <v>44.295784779168535</v>
+        <v>44.87124154797878</v>
       </c>
     </row>
     <row r="8">
@@ -1721,10 +1721,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>894.0</v>
+        <v>898.0</v>
       </c>
       <c r="D8" t="n">
-        <v>28.6145878290894</v>
+        <v>29.190044597899643</v>
       </c>
     </row>
     <row r="9">
@@ -1735,10 +1735,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>879.25</v>
+        <v>883.0</v>
       </c>
       <c r="D9" t="n">
-        <v>26.49259099410159</v>
+        <v>27.032081714861196</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="70">
   <si>
     <t>Description</t>
   </si>
@@ -37,12 +37,6 @@
     <t>nmi</t>
   </si>
   <si>
-    <t>Material density</t>
-  </si>
-  <si>
-    <t>kg/m³</t>
-  </si>
-  <si>
     <t>Single passenger Mass</t>
   </si>
   <si>
@@ -61,91 +55,43 @@
     <t>Maximum Landing Mass</t>
   </si>
   <si>
+    <t>Maximum Fuel Mass</t>
+  </si>
+  <si>
+    <t>Design Mission Fuel Mass</t>
+  </si>
+  <si>
+    <t>Maximum Zero Fuel Mass</t>
+  </si>
+  <si>
+    <t>Zero Fuel Mass</t>
+  </si>
+  <si>
     <t>Maximum Passengers Mass</t>
   </si>
   <si>
     <t>Actual Passengers Mass</t>
   </si>
   <si>
-    <t>Maximum Fuel Mass</t>
-  </si>
-  <si>
-    <t>Fuel Mass</t>
+    <t>Operating Empty Mass</t>
+  </si>
+  <si>
+    <t>Empty Mass</t>
+  </si>
+  <si>
+    <t>Trapped Fuel Oil Mass</t>
   </si>
   <si>
     <t>Crew Mass</t>
   </si>
   <si>
-    <t>Maximum Zero Fuel Mass</t>
-  </si>
-  <si>
-    <t>Zero Fuel Mass</t>
-  </si>
-  <si>
-    <t>Operating Empty Mass</t>
-  </si>
-  <si>
-    <t>Empty Mass</t>
+    <t>Operating Item Mass</t>
   </si>
   <si>
     <t>Manufacturer Empty Mass</t>
   </si>
   <si>
-    <t>Operating Item Mass</t>
-  </si>
-  <si>
-    <t>Furnishings and Equipments Mass</t>
-  </si>
-  <si>
-    <t>Trapped Fuel Oil Mass</t>
-  </si>
-  <si>
-    <t>Maximum Take-Off Weight</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Take-Off Weight</t>
-  </si>
-  <si>
-    <t>Maximum Landing Weight</t>
-  </si>
-  <si>
-    <t>Maximum Passengers Weight</t>
-  </si>
-  <si>
-    <t>Actual Passengers Weight</t>
-  </si>
-  <si>
-    <t>Fuel Weight</t>
-  </si>
-  <si>
-    <t>Crew Weight</t>
-  </si>
-  <si>
-    <t>Maximum Zero Fuel Weight</t>
-  </si>
-  <si>
-    <t>Zero Fuel Weight</t>
-  </si>
-  <si>
-    <t>Operating Empty Weight</t>
-  </si>
-  <si>
-    <t>Empty Weight</t>
-  </si>
-  <si>
-    <t>Manufacturer Empty Weight</t>
-  </si>
-  <si>
-    <t>Operating Item Weight</t>
-  </si>
-  <si>
-    <t>Furnishings and Equipments Weight</t>
-  </si>
-  <si>
-    <t>Trapped Fuel Oil Weight</t>
+    <t>Structural Mass</t>
   </si>
   <si>
     <t>Percent Error</t>
@@ -154,49 +100,61 @@
     <t>Reference Mass</t>
   </si>
   <si>
-    <t>Mass Correction Factor</t>
+    <t xml:space="preserve">Estimated Mass </t>
+  </si>
+  <si>
+    <t>Calibration Factor</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Estimated Mass (calibrated)</t>
   </si>
   <si>
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>RAYMER</t>
+  </si>
+  <si>
+    <t>KROO</t>
+  </si>
+  <si>
+    <t>TORENBEEK_1976</t>
+  </si>
+  <si>
+    <t>TORENBEEK_2013</t>
+  </si>
+  <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
     <t>JENKINSON</t>
   </si>
   <si>
-    <t>Kg</t>
-  </si>
-  <si>
-    <t>NICOLAI_1984</t>
-  </si>
-  <si>
-    <t>RAYMER</t>
+    <t>SADRAEY</t>
   </si>
   <si>
     <t>ROSKAM</t>
   </si>
   <si>
-    <t>SADRAY</t>
-  </si>
-  <si>
-    <t>TORENBEEK_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimated Mass </t>
-  </si>
-  <si>
-    <t>Composite Correction Factor</t>
-  </si>
-  <si>
-    <t>KROO</t>
-  </si>
-  <si>
     <t>TORENBEEK_1982</t>
   </si>
   <si>
+    <t>NICOLAI_2013</t>
+  </si>
+  <si>
+    <t>HOWE</t>
+  </si>
+  <si>
     <t>Total Reference Mass</t>
   </si>
   <si>
-    <t>Total mass estimated</t>
+    <t>Total Mass Estimated</t>
+  </si>
+  <si>
+    <t>Total Mass Estimated (calibrated)</t>
   </si>
   <si>
     <t>WEIGHT ESTIMATION METHODS COMPARISON FOR EACH NACELLE</t>
@@ -205,31 +163,73 @@
     <t>NACELLE 1</t>
   </si>
   <si>
-    <t>TORENBEEK_1976</t>
+    <t>KUNDU</t>
   </si>
   <si>
     <t>NACELLE 2</t>
   </si>
   <si>
-    <t>Total Dry Mass</t>
-  </si>
-  <si>
     <t>WEIGHT ESTIMATION METHODS COMPARISON FOR EACH ENGINE</t>
   </si>
   <si>
     <t>ENGINE 1</t>
   </si>
   <si>
-    <t>Dry Mass</t>
-  </si>
-  <si>
-    <t>Total Mass</t>
-  </si>
-  <si>
     <t>ENGINE 2</t>
   </si>
   <si>
-    <t>STANFORD</t>
+    <t>Overall Reference Mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimated Overall Mass </t>
+  </si>
+  <si>
+    <t>Estimated Overall Mass (calibrated)</t>
+  </si>
+  <si>
+    <t>OVERALL WEIGHT:</t>
+  </si>
+  <si>
+    <t>FRONT GEAR WEIGHT:</t>
+  </si>
+  <si>
+    <t>MAIN GEAR WEIGHT:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall Estimated Mass </t>
+  </si>
+  <si>
+    <t>Overall Estimated Mass (calibrated)</t>
+  </si>
+  <si>
+    <t>Method: ALL</t>
+  </si>
+  <si>
+    <t>APU:</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Mass (calibrated)</t>
+  </si>
+  <si>
+    <t>AIR CONDITIONING AND ANTI-ICING SYSTEM:</t>
+  </si>
+  <si>
+    <t>INSTRUMENTS AND NAVIGATION SYSTEM:</t>
+  </si>
+  <si>
+    <t>HYDRAULIC AND PNEUMATIC SYSTEMS:</t>
+  </si>
+  <si>
+    <t>ELECTRICAL SYSTEMS:</t>
+  </si>
+  <si>
+    <t>CONTROL SURFACES:</t>
+  </si>
+  <si>
+    <t>FURNISHINGS AND EQUIPMENTS:</t>
   </si>
 </sst>
 </file>
@@ -320,7 +320,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>500.0</v>
+        <v>1200.0</v>
       </c>
     </row>
     <row r="3">
@@ -331,369 +331,188 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>2711.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="n">
-        <v>95.0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>25145.74255104038</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>22163.090959821988</v>
+        <v>24737.74255104038</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>21783.090959821988</v>
+        <v>24391.370274509165</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>21498.198231027323</v>
+        <v>4954.49177994087</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6840.0</v>
+        <v>4857.476797052039</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>6460.0</v>
+        <v>20288.265753988344</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>4954.49177994087</v>
+        <v>19880.265753988344</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>3064.9572025323923</v>
+        <v>7344.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>306.05819399999996</v>
+        <v>6936.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>19098.133757289597</v>
+        <v>12944.265753988348</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>18718.133757289597</v>
+        <v>12714.722108488346</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>12258.1337572896</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>11952.0755632896</v>
+        <v>229.54364550000003</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>11331.651563289603</v>
+        <v>620.424</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>620.424</v>
+        <v>12094.298108488349</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>1251.8725753832337</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="n">
-        <v>217345.67596113821</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" t="n">
-        <v>213619.1489611382</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="n">
-        <v>210825.30568230402</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="n">
-        <v>67077.48599999998</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="n">
-        <v>63350.95899999998</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" t="n">
-        <v>48586.96681375712</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" t="n">
-        <v>3001.4055881900995</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" t="n">
-        <v>187288.71341092396</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" t="n">
-        <v>183562.18641092395</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" t="n">
-        <v>120211.22741092404</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" t="n">
-        <v>117209.82182273391</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" t="n">
-        <v>111125.54080313396</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" t="n">
-        <v>6084.281019599997</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" t="n">
-        <v>12276.676191381986</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.0</v>
+        <v>6419.259664459806</v>
       </c>
     </row>
   </sheetData>
@@ -724,137 +543,176 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2606.624999999999</v>
+        <v>2514.420253382177</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>2930.25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.537798168722375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2930.2499999999995</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3610.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>38.49326236033189</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2409.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-7.581642929074921</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>2844.0</v>
+        <v>3029.0</v>
       </c>
       <c r="D8" t="n">
-        <v>9.106603366422135</v>
+        <v>20.46514483510286</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>2588.0</v>
+        <v>2309.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7145254879393506</v>
+        <v>-8.169686555215419</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>2491.0</v>
+        <v>3125.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.435812592912257</v>
+        <v>24.28312235381196</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>3698.0</v>
       </c>
       <c r="D11" t="n">
-        <v>41.86927540401865</v>
+        <v>47.07167566860692</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>2940.0</v>
+        <v>2506.0</v>
       </c>
       <c r="D12" t="n">
-        <v>12.789526686807678</v>
+        <v>-0.3348785220311121</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3366.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>33.86783674973794</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2491.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.9314375093294095</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2918.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>16.050608329095457</v>
       </c>
     </row>
   </sheetData>
@@ -885,37 +743,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>1737.7499999999995</v>
+        <v>2665.2854685851075</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>1873.8571428571427</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-29.693942170783753</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -923,110 +784,121 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1873.8571428571427</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2312.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>33.04560494892824</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1716.0</v>
+        <v>2557.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.251618472162253</v>
+        <v>-4.062809401147994</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>2012.0</v>
+        <v>2416.0</v>
       </c>
       <c r="D9" t="n">
-        <v>15.781901884620947</v>
+        <v>-9.3530494771895</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>2295.0</v>
+        <v>2371.0</v>
       </c>
       <c r="D10" t="n">
-        <v>32.067328441950835</v>
+        <v>-11.041423969543173</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>2741.0</v>
+        <v>2233.0</v>
       </c>
       <c r="D11" t="n">
-        <v>57.73270033088768</v>
+        <v>-16.219105746094435</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>2257.0</v>
+        <v>0.0</v>
       </c>
       <c r="D12" t="n">
-        <v>29.880592720471906</v>
+        <v>-100.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1904.7142857142858</v>
+        <v>2463.0</v>
       </c>
       <c r="D13" t="n">
-        <v>9.608072836385334</v>
+        <v>-7.589636118508998</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1077.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-59.5915704830021</v>
       </c>
     </row>
   </sheetData>
@@ -1057,106 +929,162 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>260.6624999999999</v>
+        <v>289.15832913895036</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>201.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-30.487909306111426</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>231.14999999999995</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="n">
-        <v>258.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-1.0214357646381471</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>149.0</v>
+        <v>138.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-42.83796096484916</v>
+        <v>-52.27528101613619</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>123.0</v>
+        <v>303.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-52.81254495756005</v>
+        <v>4.786882986309657</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>176.66666666666663</v>
+        <v>118.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-32.22398056234912</v>
+        <v>-59.19190695582661</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>293.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.328570016464454</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-5.588055923225952</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-51.237787125182635</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-51.237787125182635</v>
       </c>
     </row>
   </sheetData>
@@ -1187,92 +1115,148 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>260.6624999999999</v>
+        <v>289.15832913895036</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>256.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-11.467187971962817</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>294.3999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="n">
-        <v>330.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>26.600489138253533</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>226.0</v>
+        <v>84.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-13.297846832590004</v>
+        <v>-70.9501710533003</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>278.0</v>
+        <v>252.0</v>
       </c>
       <c r="D9" t="n">
-        <v>6.651321152831752</v>
+        <v>-12.85051315990088</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>330.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14.124328004891707</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>412.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>42.48249435762237</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>302.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.441051689325137</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-46.05031767041483</v>
       </c>
     </row>
   </sheetData>
@@ -1303,191 +1287,185 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>260.6624999999999</v>
+        <v>477.7398481426137</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>243.99999999999994</v>
+        <v>354.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-68.79745520228902</v>
+        <v>-25.901094209264116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>353.99999999999994</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>46</v>
       </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-60.10166402915646</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>553.0</v>
+        <v>179.0</v>
       </c>
       <c r="D10" t="n">
-        <v>324.3034575360861</v>
+        <v>-25.063818437617368</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>192.0</v>
+        <v>175.0</v>
       </c>
       <c r="D11" t="n">
-        <v>47.31693281542229</v>
+        <v>-26.738369980910832</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="n">
-        <v>122.0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>177.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>52.0</v>
+        <v>179.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-60.10166402915646</v>
+        <v>-25.063818437617368</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>553.0</v>
+        <v>175.0</v>
       </c>
       <c r="D17" t="n">
-        <v>324.3034575360861</v>
+        <v>-26.738369980910832</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="n">
-        <v>192.0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>47.31693281542229</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>122.0</v>
+        <v>177.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1517,106 +1495,186 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>965.2445999999998</v>
+        <v>2086.968810307207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1329.1418141999993</v>
+        <v>1756.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-15.858828779452978</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1755.9999999999998</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="n">
-        <v>482.6223</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>664.5709070999997</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-32.91706166926775</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>482.6223</v>
+        <v>1056.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.1994041103617958</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>664.5709070999997</v>
+        <v>878.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-32.91706166926775</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1056.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.1994041103617958</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="n">
+        <v>878.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1647,98 +1705,115 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>695.0999999999998</v>
+        <v>1030.9123038866926</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>735.6025216026674</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-28.645480432298974</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>740.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.459502229895028</v>
+        <v>735.6025216026674</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="n">
-        <v>887.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>27.607538483671473</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1007.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>44.87124154797878</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="n">
-        <v>898.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>29.190044597899643</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>883.0</v>
+        <v>735.6025216026675</v>
       </c>
       <c r="D9" t="n">
-        <v>27.032081714861196</v>
+        <v>-28.645480432298964</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>199.56257838206096</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>536.0399432206066</v>
       </c>
     </row>
   </sheetData>
@@ -1769,56 +1844,373 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>695.0999999999998</v>
+        <v>3419.611544599761</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3919.038444028549</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.60478457611597</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3919.0384440285484</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2324.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>234.3403826787514</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2324.2562213254223</v>
-      </c>
-      <c r="D6" t="n">
-        <v>234.37724375275826</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3919.038444028549</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.604784576115991</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>218.4015569614562</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>218.40155696145618</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>519.9269024072964</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>519.9269024072963</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>441.71668598505426</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="n">
+        <v>441.7166859850542</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="n">
+        <v>181.40714585652302</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="n">
+        <v>181.407145856523</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="n">
+        <v>695.3194937419307</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="n">
+        <v>695.3194937419306</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="n">
+        <v>421.983478288182</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="n">
+        <v>421.98347828818197</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1440.283180788107</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1440.2831807881068</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
@@ -115,37 +115,37 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>TORENBEEK_1976</t>
+  </si>
+  <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
+    <t>JENKINSON</t>
+  </si>
+  <si>
     <t>RAYMER</t>
   </si>
   <si>
+    <t>ROSKAM</t>
+  </si>
+  <si>
     <t>KROO</t>
   </si>
   <si>
-    <t>TORENBEEK_1976</t>
+    <t>SADRAEY</t>
   </si>
   <si>
     <t>TORENBEEK_2013</t>
   </si>
   <si>
-    <t>NICOLAI_1984</t>
-  </si>
-  <si>
-    <t>JENKINSON</t>
-  </si>
-  <si>
-    <t>SADRAEY</t>
-  </si>
-  <si>
-    <t>ROSKAM</t>
-  </si>
-  <si>
     <t>TORENBEEK_1982</t>
   </si>
   <si>
+    <t>HOWE</t>
+  </si>
+  <si>
     <t>NICOLAI_2013</t>
-  </si>
-  <si>
-    <t>HOWE</t>
   </si>
   <si>
     <t>Total Reference Mass</t>
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>3029.0</v>
+        <v>3125.0</v>
       </c>
       <c r="D8" t="n">
-        <v>20.46514483510286</v>
+        <v>24.28312235381196</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>2309.0</v>
+        <v>2506.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.169686555215419</v>
+        <v>-0.3348785220311121</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>3125.0</v>
+        <v>3366.0</v>
       </c>
       <c r="D10" t="n">
-        <v>24.28312235381196</v>
+        <v>33.86783674973794</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>3698.0</v>
+        <v>3029.0</v>
       </c>
       <c r="D11" t="n">
-        <v>47.07167566860692</v>
+        <v>20.46514483510286</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>2506.0</v>
+        <v>2918.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.3348785220311121</v>
+        <v>16.050608329095457</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>3366.0</v>
+        <v>2309.0</v>
       </c>
       <c r="D13" t="n">
-        <v>33.86783674973794</v>
+        <v>-8.169686555215419</v>
       </c>
     </row>
     <row r="14">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>2918.0</v>
+        <v>3698.0</v>
       </c>
       <c r="D15" t="n">
-        <v>16.050608329095457</v>
+        <v>47.07167566860692</v>
       </c>
     </row>
   </sheetData>
@@ -805,58 +805,58 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>2557.0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.062809401147994</v>
+        <v>-100.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>2416.0</v>
+        <v>2371.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-9.3530494771895</v>
+        <v>-11.041423969543173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>2371.0</v>
+        <v>2557.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-11.041423969543173</v>
+        <v>-4.062809401147994</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>2233.0</v>
+        <v>1077.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-16.219105746094435</v>
+        <v>-59.5915704830021</v>
       </c>
     </row>
     <row r="12">
@@ -867,10 +867,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0</v>
+        <v>2416.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-100.0</v>
+        <v>-9.3530494771895</v>
       </c>
     </row>
     <row r="13">
@@ -895,10 +895,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>1077.0</v>
+        <v>2233.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-59.5915704830021</v>
+        <v>-16.219105746094435</v>
       </c>
     </row>
   </sheetData>
@@ -991,77 +991,77 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>138.0</v>
+        <v>141.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-52.27528101613619</v>
+        <v>-51.237787125182635</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>303.0</v>
+        <v>293.0</v>
       </c>
       <c r="D9" t="n">
-        <v>4.786882986309657</v>
+        <v>1.328570016464454</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>118.0</v>
+        <v>138.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-59.19190695582661</v>
+        <v>-52.27528101613619</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>293.0</v>
+        <v>118.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.328570016464454</v>
+        <v>-59.19190695582661</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>273.0</v>
+        <v>303.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.588055923225952</v>
+        <v>4.786882986309657</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1075,16 +1075,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>141.0</v>
+        <v>273.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-51.237787125182635</v>
+        <v>-5.588055923225952</v>
       </c>
     </row>
   </sheetData>
@@ -1177,86 +1177,86 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>84.0</v>
+        <v>302.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-70.9501710533003</v>
+        <v>4.441051689325137</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>252.0</v>
+        <v>330.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-12.85051315990088</v>
+        <v>14.124328004891707</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>330.0</v>
+        <v>84.0</v>
       </c>
       <c r="D10" t="n">
-        <v>14.124328004891707</v>
+        <v>-70.9501710533003</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>412.0</v>
+        <v>156.0</v>
       </c>
       <c r="D11" t="n">
-        <v>42.48249435762237</v>
+        <v>-46.05031767041483</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>302.0</v>
+        <v>252.0</v>
       </c>
       <c r="D12" t="n">
-        <v>4.441051689325137</v>
+        <v>-12.85051315990088</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>156.0</v>
+        <v>412.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-46.05031767041483</v>
+        <v>42.48249435762237</v>
       </c>
     </row>
   </sheetData>
@@ -1359,30 +1359,30 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>179.0</v>
+        <v>175.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-25.063818437617368</v>
+        <v>-26.738369980910832</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>175.0</v>
+        <v>179.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-26.738369980910832</v>
+        <v>-25.063818437617368</v>
       </c>
     </row>
     <row r="12">
@@ -1417,30 +1417,30 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>179.0</v>
+        <v>175.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-25.063818437617368</v>
+        <v>-26.738369980910832</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>175.0</v>
+        <v>179.0</v>
       </c>
       <c r="D17" t="n">
-        <v>-26.738369980910832</v>
+        <v>-25.063818437617368</v>
       </c>
     </row>
     <row r="18">
@@ -1577,30 +1577,30 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>700.0</v>
+        <v>1056.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-32.91706166926775</v>
+        <v>1.1994041103617958</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>1056.0</v>
+        <v>700.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.1994041103617958</v>
+        <v>-32.91706166926775</v>
       </c>
     </row>
     <row r="13">
@@ -1635,30 +1635,30 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>700.0</v>
+        <v>1056.0</v>
       </c>
       <c r="D17" t="n">
-        <v>-32.91706166926775</v>
+        <v>1.1994041103617958</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>1056.0</v>
+        <v>700.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.1994041103617958</v>
+        <v>-32.91706166926775</v>
       </c>
     </row>
     <row r="19">
@@ -1772,7 +1772,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>

--- a/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
@@ -115,37 +115,37 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>RAYMER</t>
+  </si>
+  <si>
+    <t>KROO</t>
+  </si>
+  <si>
     <t>TORENBEEK_1976</t>
   </si>
   <si>
+    <t>TORENBEEK_2013</t>
+  </si>
+  <si>
     <t>NICOLAI_1984</t>
   </si>
   <si>
     <t>JENKINSON</t>
   </si>
   <si>
-    <t>RAYMER</t>
+    <t>SADRAEY</t>
   </si>
   <si>
     <t>ROSKAM</t>
   </si>
   <si>
-    <t>KROO</t>
-  </si>
-  <si>
-    <t>SADRAEY</t>
-  </si>
-  <si>
-    <t>TORENBEEK_2013</t>
-  </si>
-  <si>
     <t>TORENBEEK_1982</t>
   </si>
   <si>
+    <t>NICOLAI_2013</t>
+  </si>
+  <si>
     <t>HOWE</t>
-  </si>
-  <si>
-    <t>NICOLAI_2013</t>
   </si>
   <si>
     <t>Total Reference Mass</t>
@@ -347,7 +347,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>25145.74255104038</v>
+        <v>25039.059859733283</v>
       </c>
     </row>
     <row r="6">
@@ -358,7 +358,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>24737.74255104038</v>
+        <v>24631.059859733283</v>
       </c>
     </row>
     <row r="7">
@@ -369,7 +369,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>24391.370274509165</v>
+        <v>24287.888063941282</v>
       </c>
     </row>
     <row r="8">
@@ -391,7 +391,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>4857.476797052039</v>
+        <v>4836.916567029353</v>
       </c>
     </row>
     <row r="10">
@@ -402,7 +402,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>20288.265753988344</v>
+        <v>20202.14329270393</v>
       </c>
     </row>
     <row r="11">
@@ -413,7 +413,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>19880.265753988344</v>
+        <v>19794.14329270393</v>
       </c>
     </row>
     <row r="12">
@@ -446,7 +446,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>12944.265753988348</v>
+        <v>12858.143292703935</v>
       </c>
     </row>
     <row r="15">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>12714.722108488346</v>
+        <v>12628.599647203933</v>
       </c>
     </row>
     <row r="16">
@@ -501,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>12094.298108488349</v>
+        <v>12008.175647203934</v>
       </c>
     </row>
     <row r="20">
@@ -512,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>6419.259664459806</v>
+        <v>6340.505823186282</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2514.420253382177</v>
+        <v>2503.777472995741</v>
       </c>
     </row>
     <row r="3">
@@ -565,10 +565,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>2930.25</v>
+        <v>2926.875</v>
       </c>
       <c r="D3" t="n">
-        <v>16.537798168722375</v>
+        <v>16.898367828912026</v>
       </c>
     </row>
     <row r="4">
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>2930.2499999999995</v>
+        <v>2926.8749999999995</v>
       </c>
     </row>
     <row r="6">
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>3125.0</v>
+        <v>3022.0</v>
       </c>
       <c r="D8" t="n">
-        <v>24.28312235381196</v>
+        <v>20.69762718905733</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>2506.0</v>
+        <v>2304.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3348785220311121</v>
+        <v>-7.979042672538686</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>3366.0</v>
+        <v>3125.0</v>
       </c>
       <c r="D10" t="n">
-        <v>33.86783674973794</v>
+        <v>24.81141130569297</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>3029.0</v>
+        <v>3698.0</v>
       </c>
       <c r="D11" t="n">
-        <v>20.46514483510286</v>
+        <v>47.69683168270483</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>2918.0</v>
+        <v>2503.0</v>
       </c>
       <c r="D12" t="n">
-        <v>16.050608329095457</v>
+        <v>-0.031052000592157212</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>2309.0</v>
+        <v>3366.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.169686555215419</v>
+        <v>34.43686734558801</v>
       </c>
     </row>
     <row r="14">
@@ -698,7 +698,7 @@
         <v>2491.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.9314375093294095</v>
+        <v>-0.5103278200060182</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>3698.0</v>
+        <v>2906.0</v>
       </c>
       <c r="D15" t="n">
-        <v>47.07167566860692</v>
+        <v>16.064627601390008</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2665.2854685851075</v>
+        <v>2654.0041213754853</v>
       </c>
     </row>
     <row r="3">
@@ -765,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1873.8571428571427</v>
+        <v>1870.1428571428569</v>
       </c>
       <c r="D3" t="n">
-        <v>-29.693942170783753</v>
+        <v>-29.535043217128766</v>
       </c>
     </row>
     <row r="4">
@@ -790,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>1873.8571428571427</v>
+        <v>1870.1428571428569</v>
       </c>
     </row>
     <row r="6">
@@ -805,58 +805,58 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>2551.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-100.0</v>
+        <v>-3.8810837008836714</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>2371.0</v>
+        <v>2411.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-11.041423969543173</v>
+        <v>-9.156132027765791</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>2557.0</v>
+        <v>2364.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.062809401147994</v>
+        <v>-10.92704110893336</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1077.0</v>
+        <v>2229.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-59.5915704830021</v>
+        <v>-16.013694852712547</v>
       </c>
     </row>
     <row r="12">
@@ -867,10 +867,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>2416.0</v>
+        <v>0.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-9.3530494771895</v>
+        <v>-100.0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +884,7 @@
         <v>2463.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.589636118508998</v>
+        <v>-7.196828363495289</v>
       </c>
     </row>
     <row r="14">
@@ -895,10 +895,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>2233.0</v>
+        <v>1073.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-16.219105746094435</v>
+        <v>-59.57052246611062</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +940,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>289.15832913895036</v>
+        <v>287.93440939451017</v>
       </c>
     </row>
     <row r="3">
@@ -951,10 +951,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>201.0</v>
+        <v>200.71428571428572</v>
       </c>
       <c r="D3" t="n">
-        <v>-30.487909306111426</v>
+        <v>-30.29166394653469</v>
       </c>
     </row>
     <row r="4">
@@ -965,7 +965,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>1.15</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -976,7 +976,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>231.14999999999995</v>
+        <v>200.7142857142857</v>
       </c>
     </row>
     <row r="6">
@@ -991,77 +991,77 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>141.0</v>
+        <v>137.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-51.237787125182635</v>
+        <v>-52.41971937702972</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>293.0</v>
+        <v>303.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.328570016464454</v>
+        <v>5.232299479999953</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>138.0</v>
+        <v>117.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-52.27528101613619</v>
+        <v>-59.36574574534655</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>118.0</v>
+        <v>293.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-59.19190695582661</v>
+        <v>1.7592862958415385</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>303.0</v>
+        <v>273.0</v>
       </c>
       <c r="D12" t="n">
-        <v>4.786882986309657</v>
+        <v>-5.18674007247529</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1070,21 +1070,21 @@
         <v>141.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-51.237787125182635</v>
+        <v>-51.03051410336636</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>273.0</v>
+        <v>141.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-5.588055923225952</v>
+        <v>-51.03051410336636</v>
       </c>
     </row>
   </sheetData>
@@ -1126,7 +1126,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>289.15832913895036</v>
+        <v>287.93440939451017</v>
       </c>
     </row>
     <row r="3">
@@ -1140,7 +1140,7 @@
         <v>256.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-11.467187971962817</v>
+        <v>-11.090862485544614</v>
       </c>
     </row>
     <row r="4">
@@ -1151,7 +1151,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>1.15</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>294.3999999999999</v>
+        <v>255.99999999999997</v>
       </c>
     </row>
     <row r="6">
@@ -1177,86 +1177,86 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>302.0</v>
+        <v>84.0</v>
       </c>
       <c r="D8" t="n">
-        <v>4.441051689325137</v>
+        <v>-70.82668925306932</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>330.0</v>
+        <v>252.0</v>
       </c>
       <c r="D9" t="n">
-        <v>14.124328004891707</v>
+        <v>-12.48006775920796</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>84.0</v>
+        <v>330.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-70.9501710533003</v>
+        <v>14.60943507722767</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>156.0</v>
+        <v>412.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-46.05031767041483</v>
+        <v>43.08814318732667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>252.0</v>
+        <v>302.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-12.85051315990088</v>
+        <v>4.884998161584111</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>412.0</v>
+        <v>156.0</v>
       </c>
       <c r="D13" t="n">
-        <v>42.48249435762237</v>
+        <v>-45.82099432712874</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +1298,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>477.7398481426137</v>
+        <v>475.7177198691908</v>
       </c>
     </row>
     <row r="3">
@@ -1312,7 +1312,7 @@
         <v>354.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-25.901094209264116</v>
+        <v>-25.586122775216314</v>
       </c>
     </row>
     <row r="4">
@@ -1359,30 +1359,30 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>175.0</v>
+        <v>179.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-26.738369980910832</v>
+        <v>-24.745288004314787</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>179.0</v>
+        <v>175.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-25.063818437617368</v>
+        <v>-26.42695754611781</v>
       </c>
     </row>
     <row r="12">
@@ -1417,30 +1417,30 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>175.0</v>
+        <v>179.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-26.738369980910832</v>
+        <v>-24.745288004314787</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>179.0</v>
+        <v>175.0</v>
       </c>
       <c r="D17" t="n">
-        <v>-25.063818437617368</v>
+        <v>-26.42695754611781</v>
       </c>
     </row>
     <row r="18">
@@ -1507,7 +1507,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2086.968810307207</v>
+        <v>2078.1353025864646</v>
       </c>
     </row>
     <row r="3">
@@ -1521,7 +1521,7 @@
         <v>1756.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-15.858828779452978</v>
+        <v>-15.5011707941024</v>
       </c>
     </row>
     <row r="4">
@@ -1577,30 +1577,30 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1056.0</v>
+        <v>700.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.1994041103617958</v>
+        <v>-32.63191293379463</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>700.0</v>
+        <v>1056.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-32.91706166926775</v>
+        <v>1.6295713455898233</v>
       </c>
     </row>
     <row r="13">
@@ -1635,30 +1635,30 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>1056.0</v>
+        <v>700.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.1994041103617958</v>
+        <v>-32.63191293379463</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>700.0</v>
+        <v>1056.0</v>
       </c>
       <c r="D18" t="n">
-        <v>-32.91706166926775</v>
+        <v>1.6295713455898233</v>
       </c>
     </row>
     <row r="19">
@@ -1716,7 +1716,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>1030.9123038866926</v>
+        <v>1026.5487639282537</v>
       </c>
     </row>
     <row r="3">
@@ -1727,10 +1727,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>735.6025216026674</v>
+        <v>732.773680329143</v>
       </c>
       <c r="D3" t="n">
-        <v>-28.645480432298974</v>
+        <v>-28.617742665719376</v>
       </c>
     </row>
     <row r="4">
@@ -1752,7 +1752,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>735.6025216026674</v>
+        <v>732.7736803291428</v>
       </c>
     </row>
     <row r="6">
@@ -1772,16 +1772,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>735.6025216026675</v>
+        <v>732.773680329143</v>
       </c>
       <c r="D9" t="n">
-        <v>-28.645480432298964</v>
+        <v>-28.61774266571938</v>
       </c>
     </row>
     <row r="10">
@@ -1791,13 +1791,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>199.56257838206096</v>
+        <v>198.91935977425555</v>
       </c>
     </row>
     <row r="12">
@@ -1807,13 +1807,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>536.0399432206066</v>
+        <v>533.8543205548874</v>
       </c>
     </row>
   </sheetData>
@@ -1855,7 +1855,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>3419.611544599761</v>
+        <v>3405.137363274208</v>
       </c>
     </row>
     <row r="3">
@@ -1866,10 +1866,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>3919.038444028549</v>
+        <v>3911.66982401766</v>
       </c>
       <c r="D3" t="n">
-        <v>14.60478457611597</v>
+        <v>14.87553677589077</v>
       </c>
     </row>
     <row r="4">
@@ -1880,7 +1880,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>3919.0384440285484</v>
+        <v>3911.66982401766</v>
       </c>
     </row>
     <row r="5">
@@ -1906,10 +1906,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>3919.038444028549</v>
+        <v>3911.66982401766</v>
       </c>
       <c r="D8" t="n">
-        <v>14.604784576115991</v>
+        <v>14.875536775890774</v>
       </c>
     </row>
     <row r="9">
@@ -2016,7 +2016,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>441.71668598505426</v>
+        <v>439.96965235026425</v>
       </c>
     </row>
     <row r="22">
@@ -2038,7 +2038,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>441.7166859850542</v>
+        <v>439.9696523502642</v>
       </c>
     </row>
     <row r="24">
@@ -2059,7 +2059,7 @@
         <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>181.40714585652302</v>
+        <v>180.11772972929793</v>
       </c>
     </row>
     <row r="27">
@@ -2081,7 +2081,7 @@
         <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>181.407145856523</v>
+        <v>180.1177297292979</v>
       </c>
     </row>
     <row r="29">
@@ -2145,7 +2145,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>421.983478288182</v>
+        <v>420.79182490972346</v>
       </c>
     </row>
     <row r="37">
@@ -2167,7 +2167,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>421.98347828818197</v>
+        <v>420.7918249097234</v>
       </c>
     </row>
     <row r="39">
@@ -2188,7 +2188,7 @@
         <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.283180788107</v>
+        <v>1437.1426639176925</v>
       </c>
     </row>
     <row r="42">
@@ -2210,7 +2210,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>1440.2831807881068</v>
+        <v>1437.1426639176923</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="70">
   <si>
     <t>Description</t>
   </si>
@@ -115,25 +115,25 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>TORENBEEK_1976</t>
+  </si>
+  <si>
     <t>RAYMER</t>
   </si>
   <si>
     <t>KROO</t>
   </si>
   <si>
-    <t>TORENBEEK_1976</t>
+    <t>SADRAEY</t>
+  </si>
+  <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
+    <t>JENKINSON</t>
   </si>
   <si>
     <t>TORENBEEK_2013</t>
-  </si>
-  <si>
-    <t>NICOLAI_1984</t>
-  </si>
-  <si>
-    <t>JENKINSON</t>
-  </si>
-  <si>
-    <t>SADRAEY</t>
   </si>
   <si>
     <t>ROSKAM</t>
@@ -347,7 +347,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>25039.059859733283</v>
+        <v>27207.06814830184</v>
       </c>
     </row>
     <row r="6">
@@ -358,7 +358,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>24631.059859733283</v>
+        <v>26799.06814830184</v>
       </c>
     </row>
     <row r="7">
@@ -369,7 +369,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>24287.888063941282</v>
+        <v>24486.361333471657</v>
       </c>
     </row>
     <row r="8">
@@ -380,7 +380,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>4954.49177994087</v>
+        <v>5149.210094359609</v>
       </c>
     </row>
     <row r="9">
@@ -391,7 +391,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>4836.916567029353</v>
+        <v>5255.574895193706</v>
       </c>
     </row>
     <row r="10">
@@ -402,7 +402,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>20202.14329270393</v>
+        <v>21951.493253108136</v>
       </c>
     </row>
     <row r="11">
@@ -413,7 +413,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>19794.14329270393</v>
+        <v>21543.493253108136</v>
       </c>
     </row>
     <row r="12">
@@ -446,7 +446,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>12858.143292703935</v>
+        <v>14607.493253108136</v>
       </c>
     </row>
     <row r="15">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>12628.599647203933</v>
+        <v>14377.949607608134</v>
       </c>
     </row>
     <row r="16">
@@ -501,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>12008.175647203934</v>
+        <v>13757.525607608139</v>
       </c>
     </row>
     <row r="20">
@@ -512,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>6340.505823186282</v>
+        <v>7941.499490393542</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2503.777472995741</v>
+        <v>2720.4914221436675</v>
       </c>
     </row>
     <row r="3">
@@ -565,10 +565,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>2926.875</v>
+        <v>3523.0</v>
       </c>
       <c r="D3" t="n">
-        <v>16.898367828912026</v>
+        <v>29.498662312413344</v>
       </c>
     </row>
     <row r="4">
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>2926.8749999999995</v>
+        <v>3522.9999999999995</v>
       </c>
     </row>
     <row r="6">
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>3022.0</v>
+        <v>4094.0</v>
       </c>
       <c r="D8" t="n">
-        <v>20.69762718905733</v>
+        <v>50.48751731678124</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>2304.0</v>
+        <v>3151.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.979042672538686</v>
+        <v>15.824662204488938</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>3125.0</v>
+        <v>2378.0</v>
       </c>
       <c r="D10" t="n">
-        <v>24.81141130569297</v>
+        <v>-12.58932189074113</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>3698.0</v>
+        <v>2491.0</v>
       </c>
       <c r="D11" t="n">
-        <v>47.69683168270483</v>
+        <v>-8.435660567635056</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>2503.0</v>
+        <v>3127.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.031052000592157212</v>
+        <v>14.942468649138975</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>3366.0</v>
+        <v>5004.0</v>
       </c>
       <c r="D13" t="n">
-        <v>34.43686734558801</v>
+        <v>83.93735629046735</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>2491.0</v>
+        <v>3698.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.5103278200060182</v>
+        <v>35.93132365350685</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>2906.0</v>
+        <v>4241.0</v>
       </c>
       <c r="D15" t="n">
-        <v>16.064627601390008</v>
+        <v>55.890952843299765</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2654.0041213754853</v>
+        <v>2883.7209074722878</v>
       </c>
     </row>
     <row r="3">
@@ -765,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1870.1428571428569</v>
+        <v>2303.75</v>
       </c>
       <c r="D3" t="n">
-        <v>-29.535043217128766</v>
+        <v>-20.11189453075952</v>
       </c>
     </row>
     <row r="4">
@@ -790,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>1870.1428571428569</v>
+        <v>2303.7499999999995</v>
       </c>
     </row>
     <row r="6">
@@ -805,16 +805,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>2551.0</v>
+        <v>2283.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.8810837008836714</v>
+        <v>-20.831450988051646</v>
       </c>
     </row>
     <row r="9">
@@ -825,10 +825,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>2411.0</v>
+        <v>2500.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-9.156132027765791</v>
+        <v>-13.306450928659272</v>
       </c>
     </row>
     <row r="10">
@@ -839,66 +839,24 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>2364.0</v>
+        <v>2308.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-10.92704110893336</v>
+        <v>-19.96451549733824</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>2229.0</v>
+        <v>2124.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-16.013694852712547</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-100.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2463.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-7.196828363495289</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1073.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-59.57052246611062</v>
+        <v>-26.345160708988917</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>287.93440939451017</v>
+        <v>312.8565135465218</v>
       </c>
     </row>
     <row r="3">
@@ -951,10 +909,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>200.71428571428572</v>
+        <v>237.5</v>
       </c>
       <c r="D3" t="n">
-        <v>-30.29166394653469</v>
+        <v>-24.086605291443377</v>
       </c>
     </row>
     <row r="4">
@@ -976,7 +934,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>200.7142857142857</v>
+        <v>237.49999999999997</v>
       </c>
     </row>
     <row r="6">
@@ -997,10 +955,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>137.0</v>
+        <v>276.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-52.41971937702972</v>
+        <v>-11.780644465003677</v>
       </c>
     </row>
     <row r="9">
@@ -1011,80 +969,94 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>303.0</v>
+        <v>144.0</v>
       </c>
       <c r="D9" t="n">
-        <v>5.232299479999953</v>
+        <v>-53.972510155654085</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>117.0</v>
+        <v>303.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-59.36574574534655</v>
+        <v>-3.1504901191888184</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>293.0</v>
+        <v>124.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.7592862958415385</v>
+        <v>-60.36521707847991</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>273.0</v>
+        <v>271.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.18674007247529</v>
+        <v>-13.378821195710133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>141.0</v>
+        <v>293.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-51.03051410336636</v>
+        <v>-6.346843580601728</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>238.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-23.926787618372735</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>141.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-51.03051410336636</v>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-19.771528118535954</v>
       </c>
     </row>
   </sheetData>
@@ -1126,7 +1098,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>287.93440939451017</v>
+        <v>312.8565135465218</v>
       </c>
     </row>
     <row r="3">
@@ -1137,10 +1109,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>256.0</v>
+        <v>325.1428571428571</v>
       </c>
       <c r="D3" t="n">
-        <v>-11.090862485544614</v>
+        <v>3.9271496882254904</v>
       </c>
     </row>
     <row r="4">
@@ -1162,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>255.99999999999997</v>
+        <v>325.1428571428571</v>
       </c>
     </row>
     <row r="6">
@@ -1183,10 +1155,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>84.0</v>
+        <v>391.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-70.82668925306932</v>
+        <v>24.97742034124479</v>
       </c>
     </row>
     <row r="9">
@@ -1197,66 +1169,80 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>252.0</v>
+        <v>89.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-12.48006775920796</v>
+        <v>-71.55245419342509</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>330.0</v>
+        <v>257.0</v>
       </c>
       <c r="D10" t="n">
-        <v>14.60943507722767</v>
+        <v>-17.85371604168821</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>412.0</v>
+        <v>419.0</v>
       </c>
       <c r="D11" t="n">
-        <v>43.08814318732667</v>
+        <v>33.92721003320094</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>302.0</v>
+        <v>330.0</v>
       </c>
       <c r="D12" t="n">
-        <v>4.884998161584111</v>
+        <v>5.479664226626039</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>512.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>63.65329722434101</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>156.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-45.82099432712874</v>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>278.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-11.141373772721094</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>475.7177198691908</v>
+        <v>516.8933702072968</v>
       </c>
     </row>
     <row r="3">
@@ -1312,7 +1298,7 @@
         <v>354.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-25.586122775216314</v>
+        <v>-31.513921360989688</v>
       </c>
     </row>
     <row r="4">
@@ -1359,30 +1345,30 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>179.0</v>
+        <v>175.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-24.745288004314787</v>
+        <v>-32.287775356910714</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>175.0</v>
+        <v>179.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-26.42695754611781</v>
+        <v>-30.740067365068665</v>
       </c>
     </row>
     <row r="12">
@@ -1417,30 +1403,30 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>179.0</v>
+        <v>175.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-24.745288004314787</v>
+        <v>-32.287775356910714</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>175.0</v>
+        <v>179.0</v>
       </c>
       <c r="D17" t="n">
-        <v>-26.42695754611781</v>
+        <v>-30.740067365068665</v>
       </c>
     </row>
     <row r="18">
@@ -1507,7 +1493,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2078.1353025864646</v>
+        <v>2258.007880379244</v>
       </c>
     </row>
     <row r="3">
@@ -1521,7 +1507,7 @@
         <v>1756.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-15.5011707941024</v>
+        <v>-22.232335180997204</v>
       </c>
     </row>
     <row r="4">
@@ -1577,30 +1563,30 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>700.0</v>
+        <v>1056.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-32.63191293379463</v>
+        <v>-6.466225456871354</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>1056.0</v>
+        <v>700.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.6295713455898233</v>
+        <v>-37.99844490512305</v>
       </c>
     </row>
     <row r="13">
@@ -1635,30 +1621,30 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>700.0</v>
+        <v>1056.0</v>
       </c>
       <c r="D17" t="n">
-        <v>-32.63191293379463</v>
+        <v>-6.466225456871354</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>1056.0</v>
+        <v>700.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.6295713455898233</v>
+        <v>-37.99844490512305</v>
       </c>
     </row>
     <row r="19">
@@ -1716,7 +1702,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>1026.5487639282537</v>
+        <v>1115.4014830789038</v>
       </c>
     </row>
     <row r="3">
@@ -1727,10 +1713,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>732.773680329143</v>
+        <v>1198.1066332506894</v>
       </c>
       <c r="D3" t="n">
-        <v>-28.617742665719376</v>
+        <v>7.414832365426832</v>
       </c>
     </row>
     <row r="4">
@@ -1752,7 +1738,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>732.7736803291428</v>
+        <v>1198.1066332506891</v>
       </c>
     </row>
     <row r="6">
@@ -1772,16 +1758,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>732.773680329143</v>
+        <v>1198.1066332506894</v>
       </c>
       <c r="D9" t="n">
-        <v>-28.61774266571938</v>
+        <v>7.414832365426845</v>
       </c>
     </row>
     <row r="10">
@@ -1791,13 +1777,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>198.91935977425555</v>
+        <v>211.93679608127758</v>
       </c>
     </row>
     <row r="12">
@@ -1807,13 +1793,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>533.8543205548874</v>
+        <v>986.1698371694118</v>
       </c>
     </row>
   </sheetData>
@@ -1855,7 +1841,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>3405.137363274208</v>
+        <v>3699.8683341153883</v>
       </c>
     </row>
     <row r="3">
@@ -1866,10 +1852,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>3911.66982401766</v>
+        <v>4060.0261172146</v>
       </c>
       <c r="D3" t="n">
-        <v>14.87553677589077</v>
+        <v>9.73434053796735</v>
       </c>
     </row>
     <row r="4">
@@ -1880,7 +1866,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>3911.66982401766</v>
+        <v>4060.0261172146</v>
       </c>
     </row>
     <row r="5">
@@ -1906,10 +1892,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>3911.66982401766</v>
+        <v>4060.0261172146</v>
       </c>
       <c r="D8" t="n">
-        <v>14.875536775890774</v>
+        <v>9.734340537967359</v>
       </c>
     </row>
     <row r="9">
@@ -2016,7 +2002,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>439.96965235026425</v>
+        <v>474.4893303917851</v>
       </c>
     </row>
     <row r="22">
@@ -2038,7 +2024,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>439.9696523502642</v>
+        <v>474.489330391785</v>
       </c>
     </row>
     <row r="24">
@@ -2059,7 +2045,7 @@
         <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>180.11772972929793</v>
+        <v>206.34916011947388</v>
       </c>
     </row>
     <row r="27">
@@ -2081,7 +2067,7 @@
         <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>180.1177297292979</v>
+        <v>206.34916011947385</v>
       </c>
     </row>
     <row r="29">
@@ -2145,7 +2131,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>420.79182490972346</v>
+        <v>444.73664720583577</v>
       </c>
     </row>
     <row r="37">
@@ -2167,7 +2153,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>420.7918249097234</v>
+        <v>444.7366472058357</v>
       </c>
     </row>
     <row r="39">
@@ -2188,7 +2174,7 @@
         <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>1437.1426639176925</v>
+        <v>1500.8030263868236</v>
       </c>
     </row>
     <row r="42">
@@ -2210,7 +2196,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>1437.1426639176923</v>
+        <v>1500.8030263868234</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
@@ -115,28 +115,28 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>ROSKAM</t>
+  </si>
+  <si>
+    <t>RAYMER</t>
+  </si>
+  <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
     <t>TORENBEEK_1976</t>
   </si>
   <si>
-    <t>RAYMER</t>
+    <t>TORENBEEK_2013</t>
+  </si>
+  <si>
+    <t>JENKINSON</t>
+  </si>
+  <si>
+    <t>SADRAEY</t>
   </si>
   <si>
     <t>KROO</t>
-  </si>
-  <si>
-    <t>SADRAEY</t>
-  </si>
-  <si>
-    <t>NICOLAI_1984</t>
-  </si>
-  <si>
-    <t>JENKINSON</t>
-  </si>
-  <si>
-    <t>TORENBEEK_2013</t>
-  </si>
-  <si>
-    <t>ROSKAM</t>
   </si>
   <si>
     <t>TORENBEEK_1982</t>
@@ -347,7 +347,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>27207.06814830184</v>
+        <v>27088.77555589343</v>
       </c>
     </row>
     <row r="6">
@@ -358,7 +358,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>26799.06814830184</v>
+        <v>26680.77555589343</v>
       </c>
     </row>
     <row r="7">
@@ -369,7 +369,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>24486.361333471657</v>
+        <v>24379.898000304085</v>
       </c>
     </row>
     <row r="8">
@@ -391,7 +391,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>5255.574895193706</v>
+        <v>5111.355631455008</v>
       </c>
     </row>
     <row r="10">
@@ -402,7 +402,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>21951.493253108136</v>
+        <v>21977.41992443842</v>
       </c>
     </row>
     <row r="11">
@@ -413,7 +413,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>21543.493253108136</v>
+        <v>21569.41992443842</v>
       </c>
     </row>
     <row r="12">
@@ -446,7 +446,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>14607.493253108136</v>
+        <v>14633.419924438425</v>
       </c>
     </row>
     <row r="15">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>14377.949607608134</v>
+        <v>14403.876278938424</v>
       </c>
     </row>
     <row r="16">
@@ -501,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>13757.525607608139</v>
+        <v>13783.452278938428</v>
       </c>
     </row>
     <row r="20">
@@ -512,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>7941.499490393542</v>
+        <v>7966.897031846644</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2720.4914221436675</v>
+        <v>2708.6630703297674</v>
       </c>
     </row>
     <row r="3">
@@ -565,10 +565,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>3523.0</v>
+        <v>3534.75</v>
       </c>
       <c r="D3" t="n">
-        <v>29.498662312413344</v>
+        <v>30.497958152087918</v>
       </c>
     </row>
     <row r="4">
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>3522.9999999999995</v>
+        <v>3534.7499999999995</v>
       </c>
     </row>
     <row r="6">
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>4094.0</v>
+        <v>4224.0</v>
       </c>
       <c r="D8" t="n">
-        <v>50.48751731678124</v>
+        <v>55.944090878964424</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>3151.0</v>
+        <v>3144.0</v>
       </c>
       <c r="D9" t="n">
-        <v>15.824662204488938</v>
+        <v>16.072022188320116</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>2378.0</v>
+        <v>3123.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-12.58932189074113</v>
+        <v>15.296731963779811</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>2491.0</v>
+        <v>4094.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.435660567635056</v>
+        <v>51.14467520323872</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>3127.0</v>
+        <v>3698.0</v>
       </c>
       <c r="D12" t="n">
-        <v>14.942468649138975</v>
+        <v>36.52491668333581</v>
       </c>
     </row>
     <row r="13">
@@ -684,7 +684,7 @@
         <v>5004.0</v>
       </c>
       <c r="D13" t="n">
-        <v>83.93735629046735</v>
+        <v>84.74058493331866</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>3698.0</v>
+        <v>2491.0</v>
       </c>
       <c r="D14" t="n">
-        <v>35.93132365350685</v>
+        <v>-8.035811936671307</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>4241.0</v>
+        <v>2500.0</v>
       </c>
       <c r="D15" t="n">
-        <v>55.890952843299765</v>
+        <v>-7.703544697582604</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2883.7209074722878</v>
+        <v>2871.182854549553</v>
       </c>
     </row>
     <row r="3">
@@ -765,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>2303.75</v>
+        <v>2322.5</v>
       </c>
       <c r="D3" t="n">
-        <v>-20.11189453075952</v>
+        <v>-19.109993418919103</v>
       </c>
     </row>
     <row r="4">
@@ -790,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>2303.7499999999995</v>
+        <v>2322.4999999999995</v>
       </c>
     </row>
     <row r="6">
@@ -805,30 +805,30 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>2283.0</v>
+        <v>2578.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-20.831450988051646</v>
+        <v>-10.21122197372375</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>2500.0</v>
+        <v>2121.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-13.306450928659272</v>
+        <v>-26.12800690700856</v>
       </c>
     </row>
     <row r="10">
@@ -842,21 +842,21 @@
         <v>2308.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-19.96451549733824</v>
+        <v>-19.61501175925307</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>2124.0</v>
+        <v>2283.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-26.345160708988917</v>
+        <v>-20.48573303569097</v>
       </c>
     </row>
   </sheetData>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>312.8565135465218</v>
+        <v>311.49625308792326</v>
       </c>
     </row>
     <row r="3">
@@ -912,7 +912,7 @@
         <v>237.5</v>
       </c>
       <c r="D3" t="n">
-        <v>-24.086605291443377</v>
+        <v>-23.755102141481295</v>
       </c>
     </row>
     <row r="4">
@@ -949,72 +949,72 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>276.0</v>
+        <v>124.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-11.780644465003677</v>
+        <v>-60.19213753913128</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>144.0</v>
+        <v>251.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-53.972510155654085</v>
+        <v>-19.42118163162866</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>303.0</v>
+        <v>144.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.1504901191888184</v>
+        <v>-53.77151456157181</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>124.0</v>
+        <v>276.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-60.36521707847991</v>
+        <v>-11.39540290967932</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>271.0</v>
+        <v>238.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-13.378821195710133</v>
+        <v>-23.594586567042313</v>
       </c>
     </row>
     <row r="13">
@@ -1028,21 +1028,21 @@
         <v>293.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-6.346843580601728</v>
+        <v>-5.93787337875377</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>238.0</v>
+        <v>271.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-23.926787618372735</v>
+        <v>-13.000558654069186</v>
       </c>
     </row>
     <row r="15">
@@ -1053,10 +1053,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>251.0</v>
+        <v>303.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-19.771528118535954</v>
+        <v>-2.7275618899740355</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1098,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>312.8565135465218</v>
+        <v>311.49625308792326</v>
       </c>
     </row>
     <row r="3">
@@ -1109,10 +1109,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>325.1428571428571</v>
+        <v>324.8571428571428</v>
       </c>
       <c r="D3" t="n">
-        <v>3.9271496882254904</v>
+        <v>4.28926179264452</v>
       </c>
     </row>
     <row r="4">
@@ -1134,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>325.1428571428571</v>
+        <v>324.8571428571428</v>
       </c>
     </row>
     <row r="6">
@@ -1155,10 +1155,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>391.0</v>
+        <v>278.0</v>
       </c>
       <c r="D8" t="n">
-        <v>24.97742034124479</v>
+        <v>-10.753340611923372</v>
       </c>
     </row>
     <row r="9">
@@ -1169,38 +1169,38 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>89.0</v>
+        <v>88.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-71.55245419342509</v>
+        <v>-71.74925889873833</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>257.0</v>
+        <v>391.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-17.85371604168821</v>
+        <v>25.52317921128763</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>419.0</v>
+        <v>512.0</v>
       </c>
       <c r="D11" t="n">
-        <v>33.92721003320094</v>
+        <v>64.36794822552243</v>
       </c>
     </row>
     <row r="12">
@@ -1214,21 +1214,21 @@
         <v>330.0</v>
       </c>
       <c r="D12" t="n">
-        <v>5.479664226626039</v>
+        <v>5.940279129731248</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>512.0</v>
+        <v>419.0</v>
       </c>
       <c r="D13" t="n">
-        <v>63.65329722434101</v>
+        <v>34.51205137987089</v>
       </c>
     </row>
     <row r="14">
@@ -1239,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>278.0</v>
+        <v>256.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-11.141373772721094</v>
+        <v>-17.81602588723879</v>
       </c>
     </row>
   </sheetData>
@@ -1284,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>516.8933702072968</v>
+        <v>514.6459833626557</v>
       </c>
     </row>
     <row r="3">
@@ -1298,7 +1298,7 @@
         <v>354.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-31.513921360989688</v>
+        <v>-31.21485225882998</v>
       </c>
     </row>
     <row r="4">
@@ -1345,30 +1345,30 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>175.0</v>
+        <v>179.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-32.287775356910714</v>
+        <v>-30.43761895102015</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>179.0</v>
+        <v>175.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-30.740067365068665</v>
+        <v>-31.99208556663981</v>
       </c>
     </row>
     <row r="12">
@@ -1403,30 +1403,30 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>175.0</v>
+        <v>179.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-32.287775356910714</v>
+        <v>-30.43761895102015</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>179.0</v>
+        <v>175.0</v>
       </c>
       <c r="D17" t="n">
-        <v>-30.740067365068665</v>
+        <v>-31.99208556663981</v>
       </c>
     </row>
     <row r="18">
@@ -1493,7 +1493,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2258.007880379244</v>
+        <v>2248.190348373707</v>
       </c>
     </row>
     <row r="3">
@@ -1507,7 +1507,7 @@
         <v>1756.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-22.232335180997204</v>
+        <v>-21.892734693472327</v>
       </c>
     </row>
     <row r="4">
@@ -1563,30 +1563,30 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1056.0</v>
+        <v>700.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.466225456871354</v>
+        <v>-37.72769280800755</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>700.0</v>
+        <v>1056.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-37.99844490512305</v>
+        <v>-6.057776578937104</v>
       </c>
     </row>
     <row r="13">
@@ -1621,30 +1621,30 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>1056.0</v>
+        <v>700.0</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.466225456871354</v>
+        <v>-37.72769280800755</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>700.0</v>
+        <v>1056.0</v>
       </c>
       <c r="D18" t="n">
-        <v>-37.99844490512305</v>
+        <v>-6.057776578937104</v>
       </c>
     </row>
     <row r="19">
@@ -1702,7 +1702,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>1115.4014830789038</v>
+        <v>1110.5518588352047</v>
       </c>
     </row>
     <row r="3">
@@ -1713,10 +1713,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1198.1066332506894</v>
+        <v>1193.2898889895037</v>
       </c>
       <c r="D3" t="n">
-        <v>7.414832365426832</v>
+        <v>7.450172587264695</v>
       </c>
     </row>
     <row r="4">
@@ -1738,7 +1738,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>1198.1066332506891</v>
+        <v>1193.2898889895034</v>
       </c>
     </row>
     <row r="6">
@@ -1758,16 +1758,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1198.1066332506894</v>
+        <v>1193.2898889895037</v>
       </c>
       <c r="D9" t="n">
-        <v>7.414832365426845</v>
+        <v>7.450172587264696</v>
       </c>
     </row>
     <row r="10">
@@ -1777,13 +1777,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>211.93679608127758</v>
+        <v>211.23048033263856</v>
       </c>
     </row>
     <row r="12">
@@ -1793,13 +1793,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>986.1698371694118</v>
+        <v>982.0594086568651</v>
       </c>
     </row>
   </sheetData>
@@ -1841,7 +1841,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>3699.8683341153883</v>
+        <v>3683.7817756484837</v>
       </c>
     </row>
     <row r="3">
@@ -1852,10 +1852,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>4060.0261172146</v>
+        <v>4060.55524709179</v>
       </c>
       <c r="D3" t="n">
-        <v>9.73434053796735</v>
+        <v>10.227898784177562</v>
       </c>
     </row>
     <row r="4">
@@ -1866,7 +1866,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>4060.0261172146</v>
+        <v>4060.55524709179</v>
       </c>
     </row>
     <row r="5">
@@ -1892,10 +1892,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>4060.0261172146</v>
+        <v>4060.55524709179</v>
       </c>
       <c r="D8" t="n">
-        <v>9.734340537967359</v>
+        <v>10.227898784177574</v>
       </c>
     </row>
     <row r="9">
@@ -2002,7 +2002,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>474.4893303917851</v>
+        <v>474.9841522184727</v>
       </c>
     </row>
     <row r="22">
@@ -2024,7 +2024,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>474.489330391785</v>
+        <v>474.9841522184726</v>
       </c>
     </row>
     <row r="24">
@@ -2045,7 +2045,7 @@
         <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>206.34916011947388</v>
+        <v>206.736663273393</v>
       </c>
     </row>
     <row r="27">
@@ -2067,7 +2067,7 @@
         <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>206.34916011947385</v>
+        <v>206.73666327339296</v>
       </c>
     </row>
     <row r="29">
@@ -2131,7 +2131,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>444.73664720583577</v>
+        <v>443.4465411358582</v>
       </c>
     </row>
     <row r="37">
@@ -2153,7 +2153,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>444.7366472058357</v>
+        <v>443.4465411358581</v>
       </c>
     </row>
     <row r="39">
@@ -2174,7 +2174,7 @@
         <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>1500.8030263868236</v>
+        <v>1501.739937353384</v>
       </c>
     </row>
     <row r="42">
@@ -2196,7 +2196,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>1500.8030263868234</v>
+        <v>1501.739937353384</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
@@ -43,15 +43,18 @@
     <t>kg</t>
   </si>
   <si>
+    <t>Max Zero Fuel Mass Calibration Factor</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Maximum Take-Off Mass</t>
   </si>
   <si>
-    <t>Take-Off Mass</t>
-  </si>
-  <si>
     <t>Maximum Landing Mass</t>
   </si>
   <si>
@@ -67,10 +70,10 @@
     <t>Zero Fuel Mass</t>
   </si>
   <si>
-    <t>Maximum Passengers Mass</t>
-  </si>
-  <si>
-    <t>Actual Passengers Mass</t>
+    <t>Max Payload</t>
+  </si>
+  <si>
+    <t>Design Payload</t>
   </si>
   <si>
     <t>Operating Empty Mass</t>
@@ -106,37 +109,34 @@
     <t>Calibration Factor</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Estimated Mass (calibrated)</t>
   </si>
   <si>
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>KROO</t>
+  </si>
+  <si>
+    <t>RAYMER</t>
+  </si>
+  <si>
+    <t>JENKINSON</t>
+  </si>
+  <si>
+    <t>TORENBEEK_1976</t>
+  </si>
+  <si>
+    <t>TORENBEEK_2013</t>
+  </si>
+  <si>
+    <t>SADRAEY</t>
+  </si>
+  <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
     <t>ROSKAM</t>
-  </si>
-  <si>
-    <t>RAYMER</t>
-  </si>
-  <si>
-    <t>NICOLAI_1984</t>
-  </si>
-  <si>
-    <t>TORENBEEK_1976</t>
-  </si>
-  <si>
-    <t>TORENBEEK_2013</t>
-  </si>
-  <si>
-    <t>JENKINSON</t>
-  </si>
-  <si>
-    <t>SADRAEY</t>
-  </si>
-  <si>
-    <t>KROO</t>
   </si>
   <si>
     <t>TORENBEEK_1982</t>
@@ -338,43 +338,43 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>27088.77555589343</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>26680.77555589343</v>
+        <v>26631.017060421655</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>24379.898000304085</v>
+        <v>23967.91535437949</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -385,51 +385,51 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>5111.355631455008</v>
+        <v>5025.229716835952</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>21977.41992443842</v>
+        <v>23597.787343585704</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>21569.41992443842</v>
+        <v>21605.787343585704</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>7344.0</v>
+        <v>8928.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -440,29 +440,29 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>14633.419924438425</v>
+        <v>14669.787343585707</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>14403.876278938424</v>
+        <v>14440.243698085706</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -484,35 +484,35 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>620.424</v>
+        <v>585.9559999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>13783.452278938428</v>
+        <v>13854.28769808571</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>7966.897031846644</v>
+        <v>7981.685166756812</v>
       </c>
     </row>
   </sheetData>
@@ -543,40 +543,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2708.6630703297674</v>
+        <v>2663.019959365302</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>3534.75</v>
+        <v>3532.375</v>
       </c>
       <c r="D3" t="n">
-        <v>30.497958152087918</v>
+        <v>32.645457183952075</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -590,12 +590,12 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>3534.7499999999995</v>
+        <v>3532.3749999999995</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>4224.0</v>
+        <v>2593.0</v>
       </c>
       <c r="D8" t="n">
-        <v>55.944090878964424</v>
+        <v>-2.6293441443822254</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>3144.0</v>
+        <v>3117.0</v>
       </c>
       <c r="D9" t="n">
-        <v>16.072022188320116</v>
+        <v>17.047564327790436</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>3123.0</v>
+        <v>5004.0</v>
       </c>
       <c r="D10" t="n">
-        <v>15.296731963779811</v>
+        <v>87.9069656388397</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         <v>4094.0</v>
       </c>
       <c r="D11" t="n">
-        <v>51.14467520323872</v>
+        <v>53.73523527686046</v>
       </c>
     </row>
     <row r="12">
@@ -670,7 +670,7 @@
         <v>3698.0</v>
       </c>
       <c r="D12" t="n">
-        <v>36.52491668333581</v>
+        <v>38.864899866592566</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>5004.0</v>
+        <v>2491.0</v>
       </c>
       <c r="D13" t="n">
-        <v>84.74058493331866</v>
+        <v>-6.459582053087591</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>2491.0</v>
+        <v>3106.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.035811936671307</v>
+        <v>16.634499455282995</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>2500.0</v>
+        <v>4156.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.703544697582604</v>
+        <v>56.063419103720584</v>
       </c>
     </row>
   </sheetData>
@@ -743,40 +743,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2871.182854549553</v>
+        <v>2822.80115692722</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>2322.5</v>
+        <v>2358.75</v>
       </c>
       <c r="D3" t="n">
-        <v>-19.109993418919103</v>
+        <v>-16.439385246404182</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -790,12 +790,12 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>2322.4999999999995</v>
+        <v>2358.7499999999995</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -805,30 +805,30 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>2578.0</v>
+        <v>2311.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-10.21122197372375</v>
+        <v>-18.130967378670917</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>2121.0</v>
+        <v>2554.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-26.12800690700856</v>
+        <v>-9.522497051114462</v>
       </c>
     </row>
     <row r="10">
@@ -839,24 +839,24 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>2308.0</v>
+        <v>2426.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-19.61501175925307</v>
+        <v>-14.056999939703871</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>2283.0</v>
+        <v>2144.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-20.48573303569097</v>
+        <v>-24.047076616127413</v>
       </c>
     </row>
   </sheetData>
@@ -887,40 +887,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>311.49625308792326</v>
+        <v>306.24729532700974</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>237.5</v>
+        <v>237.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-23.755102141481295</v>
+        <v>-22.611561435364745</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -934,12 +934,12 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>237.49999999999997</v>
+        <v>236.99999999999997</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -949,44 +949,44 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>124.0</v>
+        <v>303.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-60.19213753913128</v>
+        <v>-1.0603506958460769</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>251.0</v>
+        <v>142.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-19.42118163162866</v>
+        <v>-53.632243560429515</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>144.0</v>
+        <v>293.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-53.77151456157181</v>
+        <v>-4.32568565637921</v>
       </c>
     </row>
     <row r="11">
@@ -1000,40 +1000,40 @@
         <v>276.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-11.39540290967932</v>
+        <v>-9.876755089285535</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>238.0</v>
+        <v>122.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-23.594586567042313</v>
+        <v>-60.162913481495785</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>293.0</v>
+        <v>238.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-5.93787337875377</v>
+        <v>-22.28502793931144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1042,7 +1042,7 @@
         <v>271.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-13.000558654069186</v>
+        <v>-11.509422569552102</v>
       </c>
     </row>
     <row r="15">
@@ -1053,10 +1053,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>303.0</v>
+        <v>251.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.7275618899740355</v>
+        <v>-18.04009249061837</v>
       </c>
     </row>
   </sheetData>
@@ -1087,23 +1087,23 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>311.49625308792326</v>
+        <v>306.24729532700974</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1112,15 +1112,15 @@
         <v>324.8571428571428</v>
       </c>
       <c r="D3" t="n">
-        <v>4.28926179264452</v>
+        <v>6.076738575033476</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1155,10 +1155,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>278.0</v>
+        <v>256.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-10.753340611923372</v>
+        <v>-16.4074250103518</v>
       </c>
     </row>
     <row r="9">
@@ -1172,54 +1172,54 @@
         <v>88.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-71.74925889873833</v>
+        <v>-71.26505234730843</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>391.0</v>
+        <v>330.0</v>
       </c>
       <c r="D10" t="n">
-        <v>25.52317921128763</v>
+        <v>7.756053697593382</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>512.0</v>
+        <v>391.0</v>
       </c>
       <c r="D11" t="n">
-        <v>64.36794822552243</v>
+        <v>27.67459695684549</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>330.0</v>
+        <v>512.0</v>
       </c>
       <c r="D12" t="n">
-        <v>5.940279129731248</v>
+        <v>67.1851499792964</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1228,7 +1228,7 @@
         <v>419.0</v>
       </c>
       <c r="D13" t="n">
-        <v>34.51205137987089</v>
+        <v>36.81753484633826</v>
       </c>
     </row>
     <row r="14">
@@ -1239,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>256.0</v>
+        <v>278.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-17.81602588723879</v>
+        <v>-9.22368809717891</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1273,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -1284,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>514.6459833626557</v>
+        <v>505.97379227940735</v>
       </c>
     </row>
     <row r="3">
@@ -1298,15 +1298,15 @@
         <v>354.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-31.21485225882998</v>
+        <v>-30.035901977208503</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1335,7 +1335,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1345,35 +1345,35 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>179.0</v>
+        <v>175.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-30.43761895102015</v>
+        <v>-30.826456757127037</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>175.0</v>
+        <v>179.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-31.99208556663981</v>
+        <v>-29.245347197289938</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1403,35 +1403,35 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>179.0</v>
+        <v>175.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-30.43761895102015</v>
+        <v>-30.826456757127037</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>175.0</v>
+        <v>179.0</v>
       </c>
       <c r="D17" t="n">
-        <v>-31.99208556663981</v>
+        <v>-29.245347197289938</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1440,7 +1440,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1482,7 +1482,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -1493,7 +1493,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2248.190348373707</v>
+        <v>2210.3065662732006</v>
       </c>
     </row>
     <row r="3">
@@ -1507,15 +1507,15 @@
         <v>1756.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-21.892734693472327</v>
+        <v>-20.55400699637821</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1544,7 +1544,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1554,7 +1554,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1563,35 +1563,35 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>700.0</v>
+        <v>1056.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-37.72769280800755</v>
+        <v>-4.4476439500858636</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>1056.0</v>
+        <v>700.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.057776578937104</v>
+        <v>-36.66037004267055</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1612,7 +1612,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1621,35 +1621,35 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>700.0</v>
+        <v>1056.0</v>
       </c>
       <c r="D17" t="n">
-        <v>-37.72769280800755</v>
+        <v>-4.4476439500858636</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>1056.0</v>
+        <v>700.0</v>
       </c>
       <c r="D18" t="n">
-        <v>-6.057776578937104</v>
+        <v>-36.66037004267055</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1691,7 +1691,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -1702,7 +1702,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>1110.5518588352047</v>
+        <v>1091.8381833397739</v>
       </c>
     </row>
     <row r="3">
@@ -1713,18 +1713,18 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1193.2898889895037</v>
+        <v>1174.7030238996722</v>
       </c>
       <c r="D3" t="n">
-        <v>7.450172587264695</v>
+        <v>7.589480000271362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -1738,12 +1738,12 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>1193.2898889895034</v>
+        <v>1174.703023899672</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1764,10 +1764,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1193.2898889895037</v>
+        <v>1174.7030238996722</v>
       </c>
       <c r="D9" t="n">
-        <v>7.450172587264696</v>
+        <v>7.5894800002713625</v>
       </c>
     </row>
     <row r="10">
@@ -1783,7 +1783,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>211.23048033263856</v>
+        <v>208.500572458309</v>
       </c>
     </row>
     <row r="12">
@@ -1799,7 +1799,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>982.0594086568651</v>
+        <v>966.2024514413633</v>
       </c>
     </row>
   </sheetData>
@@ -1830,18 +1830,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>3683.7817756484837</v>
+        <v>3621.7071447368107</v>
       </c>
     </row>
     <row r="3">
@@ -1852,10 +1852,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>4060.55524709179</v>
+        <v>4116.6025313289065</v>
       </c>
       <c r="D3" t="n">
-        <v>10.227898784177562</v>
+        <v>13.664699182298435</v>
       </c>
     </row>
     <row r="4">
@@ -1866,12 +1866,12 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>4060.55524709179</v>
+        <v>4116.602531328906</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1892,15 +1892,15 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>4060.55524709179</v>
+        <v>4116.6025313289065</v>
       </c>
       <c r="D8" t="n">
-        <v>10.227898784177574</v>
+        <v>13.664699182298456</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1921,10 +1921,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1964,10 +1964,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -2002,15 +2002,15 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>474.9841522184727</v>
+        <v>476.35323347263034</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
         <v>1.0</v>
@@ -2024,12 +2024,12 @@
         <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>474.9841522184726</v>
+        <v>476.3532334726303</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2045,15 +2045,15 @@
         <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>206.736663273393</v>
+        <v>207.810496810813</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C27" t="n">
         <v>1.0</v>
@@ -2067,12 +2067,12 @@
         <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>206.73666327339296</v>
+        <v>207.81049681081296</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -2093,10 +2093,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C32" t="n">
         <v>1.0</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -2131,15 +2131,15 @@
         <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>443.4465411358582</v>
+        <v>438.4505800626798</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C37" t="n">
         <v>1.0</v>
@@ -2153,12 +2153,12 @@
         <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>443.4465411358581</v>
+        <v>438.45058006267976</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -2174,15 +2174,15 @@
         <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>1501.739937353384</v>
+        <v>1560.3402678721009</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C42" t="n">
         <v>1.0</v>
@@ -2196,7 +2196,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>1501.739937353384</v>
+        <v>1560.3402678721009</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/WEIGHTS/Weights.xlsx
@@ -115,28 +115,28 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
+    <t>KROO</t>
+  </si>
+  <si>
+    <t>JENKINSON</t>
+  </si>
+  <si>
+    <t>TORENBEEK_2013</t>
+  </si>
+  <si>
+    <t>RAYMER</t>
+  </si>
+  <si>
     <t>SADRAEY</t>
   </si>
   <si>
-    <t>JENKINSON</t>
-  </si>
-  <si>
-    <t>NICOLAI_1984</t>
+    <t>ROSKAM</t>
   </si>
   <si>
     <t>TORENBEEK_1976</t>
-  </si>
-  <si>
-    <t>RAYMER</t>
-  </si>
-  <si>
-    <t>ROSKAM</t>
-  </si>
-  <si>
-    <t>TORENBEEK_2013</t>
-  </si>
-  <si>
-    <t>KROO</t>
   </si>
   <si>
     <t>TORENBEEK_1982</t>
@@ -320,7 +320,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>1200.0</v>
+        <v>3300.0</v>
       </c>
     </row>
     <row r="3">
@@ -331,7 +331,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>102.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="4">
@@ -358,7 +358,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>27217.901063887686</v>
+        <v>26880.522923820077</v>
       </c>
     </row>
     <row r="7">
@@ -369,7 +369,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>24496.110957498917</v>
+        <v>24192.470631438067</v>
       </c>
     </row>
     <row r="8">
@@ -391,7 +391,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>5531.6156925325395</v>
+        <v>4683.879838177672</v>
       </c>
     </row>
     <row r="10">
@@ -402,7 +402,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>23678.28537135515</v>
+        <v>24324.64308564241</v>
       </c>
     </row>
     <row r="11">
@@ -413,7 +413,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>21686.285371355152</v>
+        <v>22196.64308564241</v>
       </c>
     </row>
     <row r="12">
@@ -435,7 +435,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>6936.0</v>
+        <v>6800.0</v>
       </c>
     </row>
     <row r="14">
@@ -446,7 +446,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>14750.285371355152</v>
+        <v>15396.64308564241</v>
       </c>
     </row>
     <row r="15">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>14520.74172585515</v>
+        <v>15167.099440142409</v>
       </c>
     </row>
     <row r="16">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>585.9559999999999</v>
+        <v>1017.96</v>
       </c>
     </row>
     <row r="19">
@@ -501,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>13934.785725855152</v>
+        <v>14149.139440142413</v>
       </c>
     </row>
     <row r="20">
@@ -512,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>8050.207013853718</v>
+        <v>8098.850360974352</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2721.5272475302054</v>
+        <v>2688.201469256041</v>
       </c>
     </row>
     <row r="3">
@@ -565,10 +565,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>3408.5</v>
+        <v>3256.0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.24217801211521</v>
+        <v>21.12187413174418</v>
       </c>
     </row>
     <row r="4">
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>3408.4999999999995</v>
+        <v>3255.9999999999995</v>
       </c>
     </row>
     <row r="6">
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>2491.0</v>
+        <v>4044.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.470510362863704</v>
+        <v>50.43515325208034</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>4506.0</v>
+        <v>2915.0</v>
       </c>
       <c r="D9" t="n">
-        <v>65.56879980125899</v>
+        <v>8.436812989568296</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>2969.0</v>
+        <v>8467.0</v>
       </c>
       <c r="D10" t="n">
-        <v>9.09315725919617</v>
+        <v>214.96895217244415</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>3947.0</v>
+        <v>3698.0</v>
       </c>
       <c r="D11" t="n">
-        <v>45.028862142824956</v>
+        <v>37.5640941459429</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>3151.0</v>
+        <v>3132.0</v>
       </c>
       <c r="D12" t="n">
-        <v>15.780578822407254</v>
+        <v>16.509124625498423</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>3920.0</v>
+        <v>2491.0</v>
       </c>
       <c r="D13" t="n">
-        <v>44.036772130700236</v>
+        <v>-7.33581435436891</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>3698.0</v>
+        <v>6237.0</v>
       </c>
       <c r="D14" t="n">
-        <v>35.87958758656364</v>
+        <v>132.0138602456046</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>2586.0</v>
+        <v>6011.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.979823283165612</v>
+        <v>123.60675227454374</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2884.818882382018</v>
+        <v>2849.4935574114033</v>
       </c>
     </row>
     <row r="3">
@@ -765,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>2562.0</v>
+        <v>2574.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-11.190265162000875</v>
+        <v>-9.668158634535496</v>
       </c>
     </row>
     <row r="4">
@@ -790,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>2561.9999999999995</v>
+        <v>2573.9999999999995</v>
       </c>
     </row>
     <row r="6">
@@ -805,58 +805,58 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>2762.0</v>
+        <v>2550.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.257420912352212</v>
+        <v>-10.51041356568202</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>2615.0</v>
+        <v>2338.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-9.353061435843966</v>
+        <v>-17.950332124142964</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>2331.0</v>
+        <v>2743.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-19.19770027034504</v>
+        <v>-3.737280161045405</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>2540.0</v>
+        <v>2665.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-11.952878029462207</v>
+        <v>-6.474608687271602</v>
       </c>
     </row>
   </sheetData>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>312.9756334659736</v>
+        <v>309.14316896444467</v>
       </c>
     </row>
     <row r="3">
@@ -909,10 +909,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>224.75</v>
+        <v>305.75</v>
       </c>
       <c r="D3" t="n">
-        <v>-28.18929783412849</v>
+        <v>-1.0976043804593831</v>
       </c>
     </row>
     <row r="4">
@@ -934,7 +934,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>224.74999999999997</v>
+        <v>305.74999999999994</v>
       </c>
     </row>
     <row r="6">
@@ -949,21 +949,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>278.0</v>
+        <v>303.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-11.175193761458148</v>
+        <v>-1.9871598602753389</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -972,77 +972,77 @@
         <v>293.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.382488388874955</v>
+        <v>-5.221907059606186</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>122.0</v>
+        <v>142.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-61.019329636323356</v>
+        <v>-54.06658976950198</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>236.0</v>
+        <v>278.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-24.594768804691093</v>
+        <v>-10.074027858602456</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>143.0</v>
+        <v>523.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-54.309542114706886</v>
+        <v>69.17727852500329</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>207.0</v>
+        <v>121.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-33.86066585835193</v>
+        <v>-60.85955888809676</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>216.0</v>
+        <v>481.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-30.985042634802017</v>
+        <v>55.59134028781373</v>
       </c>
     </row>
     <row r="15">
@@ -1053,10 +1053,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>303.0</v>
+        <v>305.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.187351473819492</v>
+        <v>-1.3402104204091696</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1098,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>312.9756334659736</v>
+        <v>309.14316896444467</v>
       </c>
     </row>
     <row r="3">
@@ -1109,10 +1109,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>302.42857142857144</v>
+        <v>424.1428571428571</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.3699307261083873</v>
+        <v>37.19949192590403</v>
       </c>
     </row>
     <row r="4">
@@ -1134,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>302.4285714285714</v>
+        <v>424.1428571428571</v>
       </c>
     </row>
     <row r="6">
@@ -1149,21 +1149,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>418.0</v>
+        <v>255.0</v>
       </c>
       <c r="D8" t="n">
-        <v>33.55672304931832</v>
+        <v>-17.513946417063405</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1172,63 +1172,63 @@
         <v>330.0</v>
       </c>
       <c r="D9" t="n">
-        <v>5.439518196830256</v>
+        <v>6.746657577917948</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>338.0</v>
+        <v>90.0</v>
       </c>
       <c r="D10" t="n">
-        <v>7.995627728874626</v>
+        <v>-70.88727520602238</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>91.0</v>
+        <v>418.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-70.92425407299528</v>
+        <v>35.2124329320294</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>445.0</v>
+        <v>579.0</v>
       </c>
       <c r="D12" t="n">
-        <v>42.18359271996807</v>
+        <v>87.29186284125603</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>239.0</v>
+        <v>1032.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-23.636227730174454</v>
+        <v>233.8259109709434</v>
       </c>
     </row>
     <row r="14">
@@ -1239,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>256.0</v>
+        <v>265.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-18.204494974580168</v>
+        <v>-14.279199217732558</v>
       </c>
     </row>
   </sheetData>
@@ -1284,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>517.090177030739</v>
+        <v>510.7582791586477</v>
       </c>
     </row>
     <row r="3">
@@ -1298,7 +1298,7 @@
         <v>354.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-31.5399874674169</v>
+        <v>-30.691285008021712</v>
       </c>
     </row>
     <row r="4">
@@ -1354,12 +1354,12 @@
         <v>179.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-30.766428003771896</v>
+        <v>-29.908135686078452</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1368,7 +1368,7 @@
         <v>175.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-32.31354693106191</v>
+        <v>-31.474434329964968</v>
       </c>
     </row>
     <row r="12">
@@ -1412,12 +1412,12 @@
         <v>179.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-30.766428003771896</v>
+        <v>-29.908135686078452</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1426,7 +1426,7 @@
         <v>175.0</v>
       </c>
       <c r="D17" t="n">
-        <v>-32.31354693106191</v>
+        <v>-31.474434329964968</v>
       </c>
     </row>
     <row r="18">
@@ -1493,7 +1493,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2258.867615450071</v>
+        <v>2231.207219482514</v>
       </c>
     </row>
     <row r="3">
@@ -1507,7 +1507,7 @@
         <v>1756.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-22.261933900445793</v>
+        <v>-21.29821091170229</v>
       </c>
     </row>
     <row r="4">
@@ -1572,12 +1572,12 @@
         <v>700.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-38.02204297302054</v>
+        <v>-37.25369890454622</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1586,7 +1586,7 @@
         <v>1056.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.501824827870985</v>
+        <v>-5.342722918858298</v>
       </c>
     </row>
     <row r="13">
@@ -1630,12 +1630,12 @@
         <v>700.0</v>
       </c>
       <c r="D17" t="n">
-        <v>-38.02204297302054</v>
+        <v>-37.25369890454622</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1644,7 +1644,7 @@
         <v>1056.0</v>
       </c>
       <c r="D18" t="n">
-        <v>-6.501824827870985</v>
+        <v>-5.342722918858298</v>
       </c>
     </row>
     <row r="19">
@@ -1702,7 +1702,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>1115.8261714873843</v>
+        <v>1102.1626023949766</v>
       </c>
     </row>
     <row r="3">
@@ -1713,10 +1713,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1198.5284424251504</v>
+        <v>1184.9575038314988</v>
       </c>
       <c r="D3" t="n">
-        <v>7.411752211146361</v>
+        <v>7.512040533457615</v>
       </c>
     </row>
     <row r="4">
@@ -1738,7 +1738,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>1198.5284424251502</v>
+        <v>1184.9575038314986</v>
       </c>
     </row>
     <row r="6">
@@ -1758,16 +1758,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1198.5284424251504</v>
+        <v>1184.9575038314988</v>
       </c>
       <c r="D9" t="n">
-        <v>7.411752211146372</v>
+        <v>7.512040533457639</v>
       </c>
     </row>
     <row r="10">
@@ -1777,13 +1777,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>211.99862712396012</v>
+        <v>210.007541604304</v>
       </c>
     </row>
     <row r="12">
@@ -1793,13 +1793,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>986.5298153011903</v>
+        <v>974.9499622271951</v>
       </c>
     </row>
   </sheetData>
@@ -1841,7 +1841,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>3701.27705664108</v>
+        <v>3655.953998188216</v>
       </c>
     </row>
     <row r="3">
@@ -1852,10 +1852,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>4128.578712001441</v>
+        <v>4294.2890791680675</v>
       </c>
       <c r="D3" t="n">
-        <v>11.544708726780353</v>
+        <v>17.4601507922745</v>
       </c>
     </row>
     <row r="4">
@@ -1866,7 +1866,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>4128.578712001441</v>
+        <v>4294.2890791680675</v>
       </c>
     </row>
     <row r="5">
@@ -1892,10 +1892,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>4128.578712001442</v>
+        <v>4294.2890791680675</v>
       </c>
       <c r="D8" t="n">
-        <v>11.544708726780362</v>
+        <v>17.460150792274533</v>
       </c>
     </row>
     <row r="9">
@@ -2002,7 +2002,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>477.8709570070238</v>
+        <v>620.6635447890851</v>
       </c>
     </row>
     <row r="22">
@@ -2024,7 +2024,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>477.8709570070237</v>
+        <v>620.663544789085</v>
       </c>
     </row>
     <row r="24">
@@ -2045,7 +2045,7 @@
         <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>209.0038062343305</v>
+        <v>212.24453223122947</v>
       </c>
     </row>
     <row r="27">
@@ -2067,7 +2067,7 @@
         <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>209.00380623433048</v>
+        <v>212.24453223122944</v>
       </c>
     </row>
     <row r="29">
@@ -2131,7 +2131,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>444.849534486019</v>
+        <v>441.2103723410394</v>
       </c>
     </row>
     <row r="37">
@@ -2153,7 +2153,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>444.84953448601897</v>
+        <v>441.2103723410393</v>
       </c>
     </row>
     <row r="39">
@@ -2174,7 +2174,7 @@
         <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>1563.2064611633864</v>
+        <v>1586.5226766960318</v>
       </c>
     </row>
     <row r="42">
@@ -2196,7 +2196,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>1563.2064611633864</v>
+        <v>1586.5226766960316</v>
       </c>
     </row>
   </sheetData>
